--- a/tax_forms_template.xlsx
+++ b/tax_forms_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talmiller/Dropbox/מסמכים/תיק השקעות/taxes/tax_forms_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BFA5C99-3116-424A-AF79-5D7C22A5F370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4F448-7132-594C-937C-566CE99D8D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="42">
   <si>
     <t>במקום טופס 1325 - נספח ג(1)</t>
   </si>
@@ -150,10 +150,40 @@
     <t>שער המט"ח ביום הדיבידנד</t>
   </si>
   <si>
-    <t>פקטור עליית המדד (הפרשי מט"ח)</t>
+    <t>פקטור עליית המדד (מחירים לצרכן)</t>
   </si>
   <si>
-    <t>פקטור עליית המדד (מחירים לצרכן)</t>
+    <r>
+      <t xml:space="preserve">זוהי גרסא לימודית של הטופס בו ניירות ערך זרים מוצמדים למדד המחירים לצרכן בישראל, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>לא לפי הוראות רשות המסים</t>
+    </r>
+  </si>
+  <si>
+    <t>פקטור עליית המדד (שינוי ערך מט"ח)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">זוהי גרסא  של הטופס בו ניירות ערך זרים מוצמדים למדד שינוי ערך המט"ח, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>בהתאם להוראות רשות המסים</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -166,7 +196,7 @@
     <numFmt numFmtId="166" formatCode="#,##0.0000"/>
     <numFmt numFmtId="167" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -349,6 +379,28 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri (Body)"/>
     </font>
   </fonts>
   <fills count="33">
@@ -924,7 +976,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1029,9 +1081,6 @@
     <xf numFmtId="1" fontId="18" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="4" fontId="18" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1091,6 +1140,12 @@
     </xf>
     <xf numFmtId="164" fontId="18" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -1521,35 +1576,35 @@
       <c r="AB3" s="7"/>
     </row>
     <row r="4" spans="1:28" s="1" customFormat="1" ht="58" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="43" t="s">
+      <c r="B4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="44" t="s">
+      <c r="C4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="44" t="s">
+      <c r="E4" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="53" t="s">
+      <c r="F4" s="52" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="53" t="s">
+      <c r="G4" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="H4" s="45" t="s">
+      <c r="H4" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="I4" s="46" t="s">
+      <c r="I4" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="46" t="s">
         <v>22</v>
       </c>
       <c r="K4" s="8"/>
-      <c r="L4" s="56" t="s">
+      <c r="L4" s="55" t="s">
         <v>25</v>
       </c>
       <c r="M4" s="10"/>
@@ -1571,19 +1626,19 @@
     </row>
     <row r="5" spans="1:28" s="1" customFormat="1" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
-      <c r="B5" s="48" t="s">
+      <c r="B5" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
-      <c r="H5" s="51"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="52"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="53"/>
+      <c r="G5" s="53"/>
+      <c r="H5" s="50"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="51"/>
       <c r="K5" s="8"/>
-      <c r="L5" s="55"/>
+      <c r="L5" s="54"/>
       <c r="M5" s="10"/>
       <c r="N5" s="10"/>
       <c r="O5" s="10"/>
@@ -1607,8 +1662,8 @@
       <c r="C6" s="8"/>
       <c r="D6" s="10"/>
       <c r="E6" s="10"/>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
       <c r="H6" s="33"/>
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
@@ -1635,8 +1690,8 @@
       <c r="C7" s="8"/>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
-      <c r="F7" s="39"/>
-      <c r="G7" s="39"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
       <c r="H7" s="33"/>
       <c r="I7" s="10"/>
       <c r="J7" s="10"/>
@@ -1662,8 +1717,8 @@
       <c r="C8" s="8"/>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
-      <c r="F8" s="39"/>
-      <c r="G8" s="39"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
       <c r="H8" s="33"/>
       <c r="I8" s="10"/>
       <c r="J8" s="10"/>
@@ -1689,8 +1744,8 @@
       <c r="C9" s="8"/>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
-      <c r="F9" s="39"/>
-      <c r="G9" s="39"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
       <c r="H9" s="33"/>
       <c r="I9" s="10"/>
       <c r="J9" s="10"/>
@@ -1716,8 +1771,8 @@
       <c r="C10" s="8"/>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
-      <c r="F10" s="39"/>
-      <c r="G10" s="39"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
       <c r="H10" s="33"/>
       <c r="I10" s="10"/>
       <c r="J10" s="10"/>
@@ -1743,8 +1798,8 @@
       <c r="C11" s="8"/>
       <c r="D11" s="10"/>
       <c r="E11" s="10"/>
-      <c r="F11" s="39"/>
-      <c r="G11" s="39"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
       <c r="H11" s="33"/>
       <c r="I11" s="10"/>
       <c r="J11" s="10"/>
@@ -1769,8 +1824,8 @@
       <c r="C12" s="8"/>
       <c r="D12" s="10"/>
       <c r="E12" s="10"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
       <c r="H12" s="33"/>
       <c r="I12" s="10"/>
       <c r="J12" s="10"/>
@@ -1795,8 +1850,8 @@
       <c r="C13" s="8"/>
       <c r="D13" s="10"/>
       <c r="E13" s="10"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
       <c r="H13" s="33"/>
       <c r="I13" s="10"/>
       <c r="J13" s="10"/>
@@ -1821,8 +1876,8 @@
       <c r="C14" s="8"/>
       <c r="D14" s="10"/>
       <c r="E14" s="10"/>
-      <c r="F14" s="39"/>
-      <c r="G14" s="39"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
       <c r="H14" s="33"/>
       <c r="I14" s="10"/>
       <c r="J14" s="10"/>
@@ -1838,8 +1893,8 @@
       <c r="C15" s="8"/>
       <c r="D15" s="10"/>
       <c r="E15" s="10"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
       <c r="H15" s="33"/>
       <c r="I15" s="10"/>
       <c r="J15" s="10"/>
@@ -1855,8 +1910,8 @@
       <c r="C16" s="8"/>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
-      <c r="F16" s="39"/>
-      <c r="G16" s="39"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
       <c r="H16" s="33"/>
       <c r="I16" s="10"/>
       <c r="J16" s="10"/>
@@ -1872,8 +1927,8 @@
       <c r="C17" s="8"/>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
       <c r="H17" s="33"/>
       <c r="I17" s="10"/>
       <c r="J17" s="10"/>
@@ -1889,8 +1944,8 @@
       <c r="C18" s="8"/>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="39"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
       <c r="H18" s="33"/>
       <c r="I18" s="10"/>
       <c r="J18" s="10"/>
@@ -1906,8 +1961,8 @@
       <c r="C19" s="8"/>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
       <c r="H19" s="33"/>
       <c r="I19" s="10"/>
       <c r="J19" s="10"/>
@@ -1923,8 +1978,8 @@
       <c r="C20" s="8"/>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="39"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
       <c r="H20" s="33"/>
       <c r="I20" s="10"/>
       <c r="J20" s="10"/>
@@ -1940,8 +1995,8 @@
       <c r="C21" s="8"/>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
       <c r="H21" s="33"/>
       <c r="I21" s="10"/>
       <c r="J21" s="10"/>
@@ -1957,8 +2012,8 @@
       <c r="C22" s="8"/>
       <c r="D22" s="10"/>
       <c r="E22" s="10"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="39"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
       <c r="H22" s="33"/>
       <c r="I22" s="10"/>
       <c r="J22" s="10"/>
@@ -1974,8 +2029,8 @@
       <c r="C23" s="8"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
       <c r="H23" s="33"/>
       <c r="I23" s="10"/>
       <c r="J23" s="10"/>
@@ -1991,8 +2046,8 @@
       <c r="C24" s="8"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
-      <c r="F24" s="39"/>
-      <c r="G24" s="39"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
       <c r="H24" s="33"/>
       <c r="I24" s="10"/>
       <c r="J24" s="10"/>
@@ -2008,8 +2063,8 @@
       <c r="C25" s="8"/>
       <c r="D25" s="10"/>
       <c r="E25" s="10"/>
-      <c r="F25" s="39"/>
-      <c r="G25" s="39"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
       <c r="H25" s="33"/>
       <c r="I25" s="10"/>
       <c r="J25" s="10"/>
@@ -2025,8 +2080,8 @@
       <c r="C26" s="8"/>
       <c r="D26" s="10"/>
       <c r="E26" s="10"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
       <c r="H26" s="33"/>
       <c r="I26" s="10"/>
       <c r="J26" s="10"/>
@@ -2042,8 +2097,8 @@
       <c r="C27" s="8"/>
       <c r="D27" s="10"/>
       <c r="E27" s="10"/>
-      <c r="F27" s="39"/>
-      <c r="G27" s="39"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
       <c r="H27" s="33"/>
       <c r="I27" s="10"/>
       <c r="J27" s="10"/>
@@ -2059,8 +2114,8 @@
       <c r="C28" s="8"/>
       <c r="D28" s="10"/>
       <c r="E28" s="10"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
       <c r="H28" s="33"/>
       <c r="I28" s="10"/>
       <c r="J28" s="10"/>
@@ -2076,8 +2131,8 @@
       <c r="C29" s="8"/>
       <c r="D29" s="10"/>
       <c r="E29" s="10"/>
-      <c r="F29" s="39"/>
-      <c r="G29" s="39"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
       <c r="H29" s="33"/>
       <c r="I29" s="10"/>
       <c r="J29" s="10"/>
@@ -2093,8 +2148,8 @@
       <c r="C30" s="8"/>
       <c r="D30" s="10"/>
       <c r="E30" s="10"/>
-      <c r="F30" s="39"/>
-      <c r="G30" s="39"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
       <c r="H30" s="33"/>
       <c r="I30" s="10"/>
       <c r="J30" s="10"/>
@@ -2110,8 +2165,8 @@
       <c r="C31" s="8"/>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
-      <c r="F31" s="39"/>
-      <c r="G31" s="39"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
       <c r="H31" s="33"/>
       <c r="I31" s="10"/>
       <c r="J31" s="10"/>
@@ -2127,8 +2182,8 @@
       <c r="C32" s="8"/>
       <c r="D32" s="10"/>
       <c r="E32" s="10"/>
-      <c r="F32" s="39"/>
-      <c r="G32" s="39"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
       <c r="H32" s="33"/>
       <c r="I32" s="10"/>
       <c r="J32" s="10"/>
@@ -2144,8 +2199,8 @@
       <c r="C33" s="8"/>
       <c r="D33" s="10"/>
       <c r="E33" s="10"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
       <c r="H33" s="33"/>
       <c r="I33" s="10"/>
       <c r="J33" s="10"/>
@@ -2161,8 +2216,8 @@
       <c r="C34" s="8"/>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
-      <c r="F34" s="39"/>
-      <c r="G34" s="39"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
       <c r="H34" s="33"/>
       <c r="I34" s="10"/>
       <c r="J34" s="10"/>
@@ -2178,8 +2233,8 @@
       <c r="C35" s="8"/>
       <c r="D35" s="10"/>
       <c r="E35" s="10"/>
-      <c r="F35" s="39"/>
-      <c r="G35" s="39"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
       <c r="H35" s="33"/>
       <c r="I35" s="10"/>
       <c r="J35" s="10"/>
@@ -2195,8 +2250,8 @@
       <c r="C36" s="8"/>
       <c r="D36" s="10"/>
       <c r="E36" s="10"/>
-      <c r="F36" s="39"/>
-      <c r="G36" s="39"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
       <c r="H36" s="33"/>
       <c r="I36" s="10"/>
       <c r="J36" s="10"/>
@@ -2212,8 +2267,8 @@
       <c r="C37" s="8"/>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
-      <c r="F37" s="39"/>
-      <c r="G37" s="39"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
       <c r="H37" s="33"/>
       <c r="I37" s="10"/>
       <c r="J37" s="10"/>
@@ -2229,8 +2284,8 @@
       <c r="C38" s="8"/>
       <c r="D38" s="10"/>
       <c r="E38" s="10"/>
-      <c r="F38" s="39"/>
-      <c r="G38" s="39"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
       <c r="H38" s="33"/>
       <c r="I38" s="10"/>
       <c r="J38" s="10"/>
@@ -2246,8 +2301,8 @@
       <c r="C39" s="8"/>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
-      <c r="F39" s="39"/>
-      <c r="G39" s="39"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
       <c r="H39" s="33"/>
       <c r="I39" s="10"/>
       <c r="J39" s="10"/>
@@ -2263,8 +2318,8 @@
       <c r="C40" s="8"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
-      <c r="F40" s="39"/>
-      <c r="G40" s="39"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
       <c r="H40" s="33"/>
       <c r="I40" s="10"/>
       <c r="J40" s="10"/>
@@ -2280,8 +2335,8 @@
       <c r="C41" s="8"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
-      <c r="F41" s="39"/>
-      <c r="G41" s="39"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
       <c r="H41" s="33"/>
       <c r="I41" s="10"/>
       <c r="J41" s="10"/>
@@ -2297,8 +2352,8 @@
       <c r="C42" s="8"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
-      <c r="F42" s="39"/>
-      <c r="G42" s="39"/>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
       <c r="H42" s="33"/>
       <c r="I42" s="10"/>
       <c r="J42" s="10"/>
@@ -2314,8 +2369,8 @@
       <c r="C43" s="8"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
-      <c r="F43" s="39"/>
-      <c r="G43" s="39"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
       <c r="H43" s="33"/>
       <c r="I43" s="10"/>
       <c r="J43" s="10"/>
@@ -2331,8 +2386,8 @@
       <c r="C44" s="8"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="39"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
       <c r="H44" s="33"/>
       <c r="I44" s="10"/>
       <c r="J44" s="10"/>
@@ -2348,8 +2403,8 @@
       <c r="C45" s="8"/>
       <c r="D45" s="10"/>
       <c r="E45" s="10"/>
-      <c r="F45" s="39"/>
-      <c r="G45" s="39"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
       <c r="H45" s="33"/>
       <c r="I45" s="10"/>
       <c r="J45" s="10"/>
@@ -2365,8 +2420,8 @@
       <c r="C46" s="8"/>
       <c r="D46" s="10"/>
       <c r="E46" s="10"/>
-      <c r="F46" s="39"/>
-      <c r="G46" s="39"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
       <c r="H46" s="33"/>
       <c r="I46" s="10"/>
       <c r="J46" s="10"/>
@@ -2382,8 +2437,8 @@
       <c r="C47" s="8"/>
       <c r="D47" s="10"/>
       <c r="E47" s="10"/>
-      <c r="F47" s="39"/>
-      <c r="G47" s="39"/>
+      <c r="F47" s="38"/>
+      <c r="G47" s="38"/>
       <c r="H47" s="33"/>
       <c r="I47" s="10"/>
       <c r="J47" s="10"/>
@@ -2399,8 +2454,8 @@
       <c r="C48" s="8"/>
       <c r="D48" s="10"/>
       <c r="E48" s="10"/>
-      <c r="F48" s="39"/>
-      <c r="G48" s="39"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
       <c r="H48" s="33"/>
       <c r="I48" s="10"/>
       <c r="J48" s="10"/>
@@ -2416,8 +2471,8 @@
       <c r="C49" s="8"/>
       <c r="D49" s="10"/>
       <c r="E49" s="10"/>
-      <c r="F49" s="39"/>
-      <c r="G49" s="39"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
       <c r="H49" s="33"/>
       <c r="I49" s="10"/>
       <c r="J49" s="10"/>
@@ -2433,8 +2488,8 @@
       <c r="C50" s="8"/>
       <c r="D50" s="10"/>
       <c r="E50" s="10"/>
-      <c r="F50" s="39"/>
-      <c r="G50" s="39"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
       <c r="H50" s="33"/>
       <c r="I50" s="10"/>
       <c r="J50" s="10"/>
@@ -2450,8 +2505,8 @@
       <c r="C51" s="8"/>
       <c r="D51" s="10"/>
       <c r="E51" s="10"/>
-      <c r="F51" s="39"/>
-      <c r="G51" s="39"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
       <c r="H51" s="33"/>
       <c r="I51" s="10"/>
       <c r="J51" s="10"/>
@@ -2467,8 +2522,8 @@
       <c r="C52" s="8"/>
       <c r="D52" s="10"/>
       <c r="E52" s="10"/>
-      <c r="F52" s="39"/>
-      <c r="G52" s="39"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
       <c r="H52" s="33"/>
       <c r="I52" s="10"/>
       <c r="J52" s="10"/>
@@ -2484,8 +2539,8 @@
       <c r="C53" s="8"/>
       <c r="D53" s="10"/>
       <c r="E53" s="10"/>
-      <c r="F53" s="39"/>
-      <c r="G53" s="39"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
       <c r="H53" s="33"/>
       <c r="I53" s="10"/>
       <c r="J53" s="10"/>
@@ -2501,8 +2556,8 @@
       <c r="C54" s="8"/>
       <c r="D54" s="10"/>
       <c r="E54" s="10"/>
-      <c r="F54" s="39"/>
-      <c r="G54" s="39"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
       <c r="H54" s="33"/>
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
@@ -2518,8 +2573,8 @@
       <c r="C55" s="8"/>
       <c r="D55" s="10"/>
       <c r="E55" s="10"/>
-      <c r="F55" s="39"/>
-      <c r="G55" s="39"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
       <c r="H55" s="33"/>
       <c r="I55" s="10"/>
       <c r="J55" s="10"/>
@@ -2535,8 +2590,8 @@
       <c r="C56" s="8"/>
       <c r="D56" s="10"/>
       <c r="E56" s="10"/>
-      <c r="F56" s="39"/>
-      <c r="G56" s="39"/>
+      <c r="F56" s="38"/>
+      <c r="G56" s="38"/>
       <c r="H56" s="33"/>
       <c r="I56" s="10"/>
       <c r="J56" s="10"/>
@@ -2552,8 +2607,8 @@
       <c r="C57" s="8"/>
       <c r="D57" s="10"/>
       <c r="E57" s="10"/>
-      <c r="F57" s="39"/>
-      <c r="G57" s="39"/>
+      <c r="F57" s="38"/>
+      <c r="G57" s="38"/>
       <c r="H57" s="33"/>
       <c r="I57" s="10"/>
       <c r="J57" s="10"/>
@@ -2569,8 +2624,8 @@
       <c r="C58" s="8"/>
       <c r="D58" s="10"/>
       <c r="E58" s="10"/>
-      <c r="F58" s="39"/>
-      <c r="G58" s="39"/>
+      <c r="F58" s="38"/>
+      <c r="G58" s="38"/>
       <c r="H58" s="33"/>
       <c r="I58" s="10"/>
       <c r="J58" s="10"/>
@@ -2586,8 +2641,8 @@
       <c r="C59" s="8"/>
       <c r="D59" s="10"/>
       <c r="E59" s="10"/>
-      <c r="F59" s="39"/>
-      <c r="G59" s="39"/>
+      <c r="F59" s="38"/>
+      <c r="G59" s="38"/>
       <c r="H59" s="33"/>
       <c r="I59" s="10"/>
       <c r="J59" s="10"/>
@@ -2603,8 +2658,8 @@
       <c r="C60" s="8"/>
       <c r="D60" s="10"/>
       <c r="E60" s="10"/>
-      <c r="F60" s="39"/>
-      <c r="G60" s="39"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
       <c r="H60" s="33"/>
       <c r="I60" s="10"/>
       <c r="J60" s="10"/>
@@ -2620,8 +2675,8 @@
       <c r="C61" s="8"/>
       <c r="D61" s="10"/>
       <c r="E61" s="10"/>
-      <c r="F61" s="39"/>
-      <c r="G61" s="39"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38"/>
       <c r="H61" s="33"/>
       <c r="I61" s="10"/>
       <c r="J61" s="10"/>
@@ -2637,8 +2692,8 @@
       <c r="C62" s="8"/>
       <c r="D62" s="10"/>
       <c r="E62" s="10"/>
-      <c r="F62" s="39"/>
-      <c r="G62" s="39"/>
+      <c r="F62" s="38"/>
+      <c r="G62" s="38"/>
       <c r="H62" s="33"/>
       <c r="I62" s="10"/>
       <c r="J62" s="10"/>
@@ -4219,10 +4274,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B3:Z204"/>
+  <dimension ref="B2:Z204"/>
   <sheetViews>
     <sheetView rightToLeft="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4252,16 +4307,21 @@
     <col min="26" max="26" width="12" style="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="2:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="G2" s="57" t="s">
+        <v>41</v>
+      </c>
+    </row>
     <row r="3" spans="2:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="30" t="s">
         <v>0</v>
       </c>
       <c r="V3" s="16" t="s">
         <v>17</v>
       </c>
       <c r="W3" s="20"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
     <row r="4" spans="2:26" s="1" customFormat="1" ht="115" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="34" t="s">
@@ -4276,13 +4336,2905 @@
       <c r="E4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="37" t="s">
+      <c r="F4" s="36" t="s">
         <v>27</v>
       </c>
       <c r="G4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="H4" s="37" t="s">
+      <c r="H4" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="O4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="P4" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q4" s="26" t="s">
+        <v>14</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="V4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="W4" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="X4" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="40" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z4" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:26" s="1" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="35"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="N5" s="4"/>
+      <c r="O5" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="28"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="V5" s="14"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="14"/>
+      <c r="Y5" s="14"/>
+      <c r="Z5" s="14"/>
+    </row>
+    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F6" s="38"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="8"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+    </row>
+    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F7" s="38"/>
+      <c r="G7" s="8"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="10"/>
+      <c r="N7" s="8"/>
+      <c r="O7" s="10"/>
+      <c r="P7" s="10"/>
+      <c r="Q7" s="10"/>
+    </row>
+    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F8" s="38"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="10"/>
+      <c r="N8" s="8"/>
+      <c r="O8" s="10"/>
+      <c r="P8" s="10"/>
+      <c r="Q8" s="10"/>
+    </row>
+    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F9" s="38"/>
+      <c r="G9" s="8"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="10"/>
+      <c r="N9" s="8"/>
+      <c r="O9" s="10"/>
+      <c r="P9" s="10"/>
+      <c r="Q9" s="10"/>
+    </row>
+    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F10" s="38"/>
+      <c r="G10" s="8"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="10"/>
+      <c r="N10" s="8"/>
+      <c r="O10" s="10"/>
+      <c r="P10" s="10"/>
+      <c r="Q10" s="10"/>
+    </row>
+    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F11" s="38"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="10"/>
+      <c r="N11" s="8"/>
+      <c r="O11" s="10"/>
+      <c r="P11" s="10"/>
+      <c r="Q11" s="10"/>
+    </row>
+    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F12" s="38"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="10"/>
+      <c r="N12" s="8"/>
+      <c r="O12" s="10"/>
+      <c r="P12" s="10"/>
+      <c r="Q12" s="10"/>
+    </row>
+    <row r="13" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="38"/>
+      <c r="G13" s="8"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="10"/>
+      <c r="N13" s="8"/>
+      <c r="O13" s="10"/>
+      <c r="P13" s="10"/>
+      <c r="Q13" s="10"/>
+    </row>
+    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F14" s="38"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="10"/>
+      <c r="N14" s="8"/>
+      <c r="O14" s="10"/>
+      <c r="P14" s="10"/>
+      <c r="Q14" s="10"/>
+    </row>
+    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F15" s="38"/>
+      <c r="G15" s="8"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="10"/>
+      <c r="N15" s="8"/>
+      <c r="O15" s="10"/>
+      <c r="P15" s="10"/>
+      <c r="Q15" s="10"/>
+    </row>
+    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="F16" s="38"/>
+      <c r="G16" s="8"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="18"/>
+      <c r="K16" s="19"/>
+      <c r="L16" s="12"/>
+      <c r="M16" s="10"/>
+      <c r="N16" s="8"/>
+      <c r="O16" s="10"/>
+      <c r="P16" s="10"/>
+      <c r="Q16" s="10"/>
+    </row>
+    <row r="17" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F17" s="38"/>
+      <c r="G17" s="8"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="18"/>
+      <c r="K17" s="19"/>
+      <c r="L17" s="12"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="8"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+    </row>
+    <row r="18" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F18" s="38"/>
+      <c r="G18" s="8"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="18"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="12"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+    </row>
+    <row r="19" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F19" s="38"/>
+      <c r="G19" s="8"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="18"/>
+      <c r="K19" s="19"/>
+      <c r="L19" s="12"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="8"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+    </row>
+    <row r="20" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F20" s="38"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="19"/>
+      <c r="L20" s="12"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="8"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+    </row>
+    <row r="21" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F21" s="38"/>
+      <c r="G21" s="8"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="19"/>
+      <c r="L21" s="12"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="8"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+    </row>
+    <row r="22" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F22" s="38"/>
+      <c r="G22" s="8"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="19"/>
+      <c r="L22" s="12"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="8"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+    </row>
+    <row r="23" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F23" s="38"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="19"/>
+      <c r="L23" s="12"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="8"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+    </row>
+    <row r="24" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F24" s="38"/>
+      <c r="G24" s="8"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="19"/>
+      <c r="L24" s="12"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="8"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+    </row>
+    <row r="25" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F25" s="38"/>
+      <c r="G25" s="8"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="19"/>
+      <c r="L25" s="12"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="8"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+    </row>
+    <row r="26" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F26" s="38"/>
+      <c r="G26" s="8"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="19"/>
+      <c r="L26" s="12"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="8"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+    </row>
+    <row r="27" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F27" s="38"/>
+      <c r="G27" s="8"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="18"/>
+      <c r="K27" s="19"/>
+      <c r="L27" s="12"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="8"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F28" s="38"/>
+      <c r="G28" s="8"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="19"/>
+      <c r="L28" s="12"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="8"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F29" s="38"/>
+      <c r="G29" s="8"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="19"/>
+      <c r="L29" s="12"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+    </row>
+    <row r="30" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F30" s="38"/>
+      <c r="G30" s="8"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="18"/>
+      <c r="K30" s="19"/>
+      <c r="L30" s="12"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="8"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+    </row>
+    <row r="31" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F31" s="38"/>
+      <c r="G31" s="8"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="18"/>
+      <c r="K31" s="19"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="8"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+    </row>
+    <row r="32" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F32" s="38"/>
+      <c r="G32" s="8"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="18"/>
+      <c r="K32" s="19"/>
+      <c r="L32" s="12"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="8"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F33" s="38"/>
+      <c r="G33" s="8"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="18"/>
+      <c r="K33" s="19"/>
+      <c r="L33" s="12"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="8"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F34" s="38"/>
+      <c r="G34" s="8"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="18"/>
+      <c r="K34" s="19"/>
+      <c r="L34" s="12"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="8"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F35" s="38"/>
+      <c r="G35" s="8"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="18"/>
+      <c r="K35" s="19"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="8"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F36" s="38"/>
+      <c r="G36" s="8"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="18"/>
+      <c r="K36" s="19"/>
+      <c r="L36" s="12"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F37" s="38"/>
+      <c r="G37" s="8"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="18"/>
+      <c r="K37" s="19"/>
+      <c r="L37" s="12"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="8"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F38" s="38"/>
+      <c r="G38" s="8"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="18"/>
+      <c r="K38" s="19"/>
+      <c r="L38" s="12"/>
+      <c r="M38" s="10"/>
+      <c r="N38" s="8"/>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F39" s="38"/>
+      <c r="G39" s="8"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="18"/>
+      <c r="K39" s="19"/>
+      <c r="L39" s="12"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="8"/>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F40" s="38"/>
+      <c r="G40" s="8"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="18"/>
+      <c r="K40" s="19"/>
+      <c r="L40" s="12"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="8"/>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F41" s="38"/>
+      <c r="G41" s="8"/>
+      <c r="H41" s="38"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="18"/>
+      <c r="K41" s="19"/>
+      <c r="L41" s="12"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="8"/>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F42" s="38"/>
+      <c r="G42" s="8"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="18"/>
+      <c r="K42" s="19"/>
+      <c r="L42" s="12"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="8"/>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F43" s="38"/>
+      <c r="G43" s="8"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="18"/>
+      <c r="K43" s="19"/>
+      <c r="L43" s="12"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="8"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F44" s="38"/>
+      <c r="G44" s="8"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="10"/>
+      <c r="J44" s="18"/>
+      <c r="K44" s="19"/>
+      <c r="L44" s="12"/>
+      <c r="M44" s="10"/>
+      <c r="N44" s="8"/>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F45" s="38"/>
+      <c r="G45" s="8"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="10"/>
+      <c r="J45" s="18"/>
+      <c r="K45" s="19"/>
+      <c r="L45" s="12"/>
+      <c r="M45" s="10"/>
+      <c r="N45" s="8"/>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F46" s="38"/>
+      <c r="G46" s="8"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="10"/>
+      <c r="J46" s="18"/>
+      <c r="K46" s="19"/>
+      <c r="L46" s="12"/>
+      <c r="M46" s="10"/>
+      <c r="N46" s="8"/>
+      <c r="O46" s="10"/>
+      <c r="P46" s="10"/>
+      <c r="Q46" s="10"/>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F47" s="38"/>
+      <c r="G47" s="8"/>
+      <c r="H47" s="38"/>
+      <c r="I47" s="10"/>
+      <c r="J47" s="18"/>
+      <c r="K47" s="19"/>
+      <c r="L47" s="12"/>
+      <c r="M47" s="10"/>
+      <c r="N47" s="8"/>
+      <c r="O47" s="10"/>
+      <c r="P47" s="10"/>
+      <c r="Q47" s="10"/>
+    </row>
+    <row r="48" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F48" s="38"/>
+      <c r="G48" s="8"/>
+      <c r="H48" s="38"/>
+      <c r="I48" s="10"/>
+      <c r="J48" s="18"/>
+      <c r="K48" s="19"/>
+      <c r="L48" s="12"/>
+      <c r="M48" s="10"/>
+      <c r="N48" s="8"/>
+      <c r="O48" s="10"/>
+      <c r="P48" s="10"/>
+      <c r="Q48" s="10"/>
+    </row>
+    <row r="49" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F49" s="38"/>
+      <c r="G49" s="8"/>
+      <c r="H49" s="38"/>
+      <c r="I49" s="10"/>
+      <c r="J49" s="18"/>
+      <c r="K49" s="19"/>
+      <c r="L49" s="12"/>
+      <c r="M49" s="10"/>
+      <c r="N49" s="8"/>
+      <c r="O49" s="10"/>
+      <c r="P49" s="10"/>
+      <c r="Q49" s="10"/>
+    </row>
+    <row r="50" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F50" s="38"/>
+      <c r="G50" s="8"/>
+      <c r="H50" s="38"/>
+      <c r="I50" s="10"/>
+      <c r="J50" s="18"/>
+      <c r="K50" s="19"/>
+      <c r="L50" s="12"/>
+      <c r="M50" s="10"/>
+      <c r="N50" s="8"/>
+      <c r="O50" s="10"/>
+      <c r="P50" s="10"/>
+      <c r="Q50" s="10"/>
+    </row>
+    <row r="51" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F51" s="38"/>
+      <c r="G51" s="8"/>
+      <c r="H51" s="38"/>
+      <c r="I51" s="10"/>
+      <c r="J51" s="18"/>
+      <c r="K51" s="19"/>
+      <c r="L51" s="12"/>
+      <c r="M51" s="10"/>
+      <c r="N51" s="8"/>
+      <c r="O51" s="10"/>
+      <c r="P51" s="10"/>
+      <c r="Q51" s="10"/>
+    </row>
+    <row r="52" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F52" s="38"/>
+      <c r="G52" s="8"/>
+      <c r="H52" s="38"/>
+      <c r="I52" s="10"/>
+      <c r="J52" s="18"/>
+      <c r="K52" s="19"/>
+      <c r="L52" s="12"/>
+      <c r="M52" s="10"/>
+      <c r="N52" s="8"/>
+      <c r="O52" s="10"/>
+      <c r="P52" s="10"/>
+      <c r="Q52" s="10"/>
+    </row>
+    <row r="53" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F53" s="38"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="38"/>
+      <c r="I53" s="10"/>
+      <c r="J53" s="18"/>
+      <c r="K53" s="19"/>
+      <c r="L53" s="12"/>
+      <c r="M53" s="10"/>
+      <c r="N53" s="8"/>
+      <c r="O53" s="10"/>
+      <c r="P53" s="10"/>
+      <c r="Q53" s="10"/>
+    </row>
+    <row r="54" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F54" s="38"/>
+      <c r="G54" s="8"/>
+      <c r="H54" s="38"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="18"/>
+      <c r="K54" s="19"/>
+      <c r="L54" s="12"/>
+      <c r="M54" s="10"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="10"/>
+      <c r="P54" s="10"/>
+      <c r="Q54" s="10"/>
+    </row>
+    <row r="55" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F55" s="38"/>
+      <c r="G55" s="8"/>
+      <c r="H55" s="38"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="19"/>
+      <c r="L55" s="12"/>
+      <c r="M55" s="10"/>
+      <c r="N55" s="8"/>
+      <c r="O55" s="10"/>
+      <c r="P55" s="10"/>
+      <c r="Q55" s="10"/>
+    </row>
+    <row r="56" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F56" s="38"/>
+      <c r="G56" s="8"/>
+      <c r="H56" s="38"/>
+      <c r="I56" s="10"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="19"/>
+      <c r="L56" s="12"/>
+      <c r="M56" s="10"/>
+      <c r="N56" s="8"/>
+      <c r="O56" s="10"/>
+      <c r="P56" s="10"/>
+      <c r="Q56" s="10"/>
+    </row>
+    <row r="57" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F57" s="38"/>
+      <c r="G57" s="8"/>
+      <c r="H57" s="38"/>
+      <c r="I57" s="10"/>
+      <c r="J57" s="18"/>
+      <c r="K57" s="19"/>
+      <c r="L57" s="12"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="8"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
+    </row>
+    <row r="58" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F58" s="38"/>
+      <c r="G58" s="8"/>
+      <c r="H58" s="38"/>
+      <c r="I58" s="10"/>
+      <c r="J58" s="18"/>
+      <c r="K58" s="19"/>
+      <c r="L58" s="12"/>
+      <c r="M58" s="10"/>
+      <c r="N58" s="8"/>
+      <c r="O58" s="10"/>
+      <c r="P58" s="10"/>
+      <c r="Q58" s="10"/>
+    </row>
+    <row r="59" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F59" s="38"/>
+      <c r="G59" s="8"/>
+      <c r="H59" s="38"/>
+      <c r="I59" s="10"/>
+      <c r="J59" s="18"/>
+      <c r="K59" s="19"/>
+      <c r="L59" s="12"/>
+      <c r="M59" s="10"/>
+      <c r="N59" s="8"/>
+      <c r="O59" s="10"/>
+      <c r="P59" s="10"/>
+      <c r="Q59" s="10"/>
+    </row>
+    <row r="60" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F60" s="38"/>
+      <c r="G60" s="8"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="10"/>
+      <c r="J60" s="18"/>
+      <c r="K60" s="19"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="10"/>
+      <c r="N60" s="8"/>
+      <c r="O60" s="10"/>
+      <c r="P60" s="10"/>
+      <c r="Q60" s="10"/>
+    </row>
+    <row r="61" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F61" s="38"/>
+      <c r="G61" s="8"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="10"/>
+      <c r="J61" s="18"/>
+      <c r="K61" s="19"/>
+      <c r="L61" s="12"/>
+      <c r="M61" s="10"/>
+      <c r="N61" s="8"/>
+      <c r="O61" s="10"/>
+      <c r="P61" s="10"/>
+      <c r="Q61" s="10"/>
+    </row>
+    <row r="62" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F62" s="38"/>
+      <c r="G62" s="8"/>
+      <c r="H62" s="38"/>
+      <c r="I62" s="10"/>
+      <c r="J62" s="18"/>
+      <c r="K62" s="19"/>
+      <c r="L62" s="12"/>
+      <c r="M62" s="10"/>
+      <c r="N62" s="8"/>
+      <c r="O62" s="10"/>
+      <c r="P62" s="10"/>
+      <c r="Q62" s="10"/>
+    </row>
+    <row r="63" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F63" s="38"/>
+      <c r="G63" s="8"/>
+      <c r="H63" s="38"/>
+      <c r="I63" s="10"/>
+      <c r="J63" s="18"/>
+      <c r="K63" s="19"/>
+      <c r="L63" s="12"/>
+      <c r="M63" s="10"/>
+      <c r="N63" s="8"/>
+      <c r="O63" s="10"/>
+      <c r="P63" s="10"/>
+      <c r="Q63" s="10"/>
+    </row>
+    <row r="64" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F64" s="38"/>
+      <c r="G64" s="8"/>
+      <c r="H64" s="38"/>
+      <c r="I64" s="10"/>
+      <c r="J64" s="18"/>
+      <c r="K64" s="19"/>
+      <c r="L64" s="12"/>
+      <c r="M64" s="10"/>
+      <c r="N64" s="8"/>
+      <c r="O64" s="10"/>
+      <c r="P64" s="10"/>
+      <c r="Q64" s="10"/>
+    </row>
+    <row r="65" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F65" s="38"/>
+      <c r="G65" s="8"/>
+      <c r="H65" s="38"/>
+      <c r="I65" s="10"/>
+      <c r="J65" s="18"/>
+      <c r="K65" s="19"/>
+      <c r="L65" s="12"/>
+      <c r="M65" s="10"/>
+      <c r="N65" s="8"/>
+      <c r="O65" s="10"/>
+      <c r="P65" s="10"/>
+      <c r="Q65" s="10"/>
+    </row>
+    <row r="66" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F66" s="38"/>
+      <c r="G66" s="8"/>
+      <c r="H66" s="38"/>
+      <c r="I66" s="10"/>
+      <c r="J66" s="18"/>
+      <c r="K66" s="19"/>
+      <c r="L66" s="12"/>
+      <c r="M66" s="10"/>
+      <c r="N66" s="8"/>
+      <c r="O66" s="10"/>
+      <c r="P66" s="10"/>
+      <c r="Q66" s="10"/>
+    </row>
+    <row r="67" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F67" s="38"/>
+      <c r="G67" s="8"/>
+      <c r="H67" s="38"/>
+      <c r="I67" s="10"/>
+      <c r="J67" s="18"/>
+      <c r="K67" s="19"/>
+      <c r="L67" s="12"/>
+      <c r="M67" s="10"/>
+      <c r="N67" s="8"/>
+      <c r="O67" s="10"/>
+      <c r="P67" s="10"/>
+      <c r="Q67" s="10"/>
+    </row>
+    <row r="68" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F68" s="38"/>
+      <c r="G68" s="8"/>
+      <c r="H68" s="38"/>
+      <c r="I68" s="10"/>
+      <c r="J68" s="18"/>
+      <c r="K68" s="19"/>
+      <c r="L68" s="12"/>
+      <c r="M68" s="10"/>
+      <c r="N68" s="8"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="10"/>
+    </row>
+    <row r="69" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F69" s="38"/>
+      <c r="G69" s="8"/>
+      <c r="H69" s="38"/>
+      <c r="I69" s="10"/>
+      <c r="J69" s="18"/>
+      <c r="K69" s="19"/>
+      <c r="L69" s="12"/>
+      <c r="M69" s="10"/>
+      <c r="N69" s="8"/>
+      <c r="O69" s="10"/>
+      <c r="P69" s="10"/>
+      <c r="Q69" s="10"/>
+    </row>
+    <row r="70" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F70" s="38"/>
+      <c r="G70" s="8"/>
+      <c r="H70" s="38"/>
+      <c r="I70" s="10"/>
+      <c r="J70" s="18"/>
+      <c r="K70" s="19"/>
+      <c r="L70" s="12"/>
+      <c r="M70" s="10"/>
+      <c r="N70" s="8"/>
+      <c r="O70" s="10"/>
+      <c r="P70" s="10"/>
+      <c r="Q70" s="10"/>
+    </row>
+    <row r="71" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F71" s="38"/>
+      <c r="G71" s="8"/>
+      <c r="H71" s="38"/>
+      <c r="I71" s="10"/>
+      <c r="J71" s="18"/>
+      <c r="K71" s="19"/>
+      <c r="L71" s="12"/>
+      <c r="M71" s="10"/>
+      <c r="N71" s="8"/>
+      <c r="O71" s="10"/>
+      <c r="P71" s="10"/>
+      <c r="Q71" s="10"/>
+    </row>
+    <row r="72" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F72" s="38"/>
+      <c r="G72" s="8"/>
+      <c r="H72" s="38"/>
+      <c r="I72" s="10"/>
+      <c r="J72" s="18"/>
+      <c r="K72" s="19"/>
+      <c r="L72" s="12"/>
+      <c r="M72" s="10"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="10"/>
+      <c r="P72" s="10"/>
+      <c r="Q72" s="10"/>
+    </row>
+    <row r="73" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F73" s="38"/>
+      <c r="G73" s="8"/>
+      <c r="H73" s="38"/>
+      <c r="I73" s="10"/>
+      <c r="J73" s="18"/>
+      <c r="K73" s="19"/>
+      <c r="L73" s="12"/>
+      <c r="M73" s="10"/>
+      <c r="N73" s="8"/>
+      <c r="O73" s="10"/>
+      <c r="P73" s="10"/>
+      <c r="Q73" s="10"/>
+    </row>
+    <row r="74" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F74" s="38"/>
+      <c r="G74" s="8"/>
+      <c r="H74" s="38"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="18"/>
+      <c r="K74" s="19"/>
+      <c r="L74" s="12"/>
+      <c r="M74" s="10"/>
+      <c r="N74" s="8"/>
+      <c r="O74" s="10"/>
+      <c r="P74" s="10"/>
+      <c r="Q74" s="10"/>
+    </row>
+    <row r="75" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F75" s="38"/>
+      <c r="G75" s="8"/>
+      <c r="H75" s="38"/>
+      <c r="I75" s="10"/>
+      <c r="J75" s="18"/>
+      <c r="K75" s="19"/>
+      <c r="L75" s="12"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="8"/>
+      <c r="O75" s="10"/>
+      <c r="P75" s="10"/>
+      <c r="Q75" s="10"/>
+    </row>
+    <row r="76" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F76" s="38"/>
+      <c r="G76" s="8"/>
+      <c r="H76" s="38"/>
+      <c r="I76" s="10"/>
+      <c r="J76" s="18"/>
+      <c r="K76" s="19"/>
+      <c r="L76" s="12"/>
+      <c r="M76" s="10"/>
+      <c r="N76" s="8"/>
+      <c r="O76" s="10"/>
+      <c r="P76" s="10"/>
+      <c r="Q76" s="10"/>
+    </row>
+    <row r="77" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F77" s="38"/>
+      <c r="G77" s="8"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="10"/>
+      <c r="J77" s="18"/>
+      <c r="K77" s="19"/>
+      <c r="L77" s="12"/>
+      <c r="M77" s="10"/>
+      <c r="N77" s="8"/>
+      <c r="O77" s="10"/>
+      <c r="P77" s="10"/>
+      <c r="Q77" s="10"/>
+    </row>
+    <row r="78" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F78" s="38"/>
+      <c r="G78" s="8"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="10"/>
+      <c r="J78" s="18"/>
+      <c r="K78" s="19"/>
+      <c r="L78" s="12"/>
+      <c r="M78" s="10"/>
+      <c r="N78" s="8"/>
+      <c r="O78" s="10"/>
+      <c r="P78" s="10"/>
+      <c r="Q78" s="10"/>
+    </row>
+    <row r="79" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F79" s="38"/>
+      <c r="G79" s="8"/>
+      <c r="H79" s="38"/>
+      <c r="I79" s="10"/>
+      <c r="J79" s="18"/>
+      <c r="K79" s="19"/>
+      <c r="L79" s="12"/>
+      <c r="M79" s="10"/>
+      <c r="N79" s="8"/>
+      <c r="O79" s="10"/>
+      <c r="P79" s="10"/>
+      <c r="Q79" s="10"/>
+    </row>
+    <row r="80" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F80" s="38"/>
+      <c r="G80" s="8"/>
+      <c r="H80" s="38"/>
+      <c r="I80" s="10"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="19"/>
+      <c r="L80" s="12"/>
+      <c r="M80" s="10"/>
+      <c r="N80" s="8"/>
+      <c r="O80" s="10"/>
+      <c r="P80" s="10"/>
+      <c r="Q80" s="10"/>
+    </row>
+    <row r="81" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F81" s="38"/>
+      <c r="G81" s="8"/>
+      <c r="H81" s="38"/>
+      <c r="I81" s="10"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="19"/>
+      <c r="L81" s="12"/>
+      <c r="M81" s="10"/>
+      <c r="N81" s="8"/>
+      <c r="O81" s="10"/>
+      <c r="P81" s="10"/>
+      <c r="Q81" s="10"/>
+    </row>
+    <row r="82" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F82" s="38"/>
+      <c r="G82" s="8"/>
+      <c r="H82" s="38"/>
+      <c r="I82" s="10"/>
+      <c r="J82" s="18"/>
+      <c r="K82" s="19"/>
+      <c r="L82" s="12"/>
+      <c r="M82" s="10"/>
+      <c r="N82" s="8"/>
+      <c r="O82" s="10"/>
+      <c r="P82" s="10"/>
+      <c r="Q82" s="10"/>
+    </row>
+    <row r="83" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F83" s="38"/>
+      <c r="G83" s="8"/>
+      <c r="H83" s="38"/>
+      <c r="I83" s="10"/>
+      <c r="J83" s="18"/>
+      <c r="K83" s="19"/>
+      <c r="L83" s="12"/>
+      <c r="M83" s="10"/>
+      <c r="N83" s="8"/>
+      <c r="O83" s="10"/>
+      <c r="P83" s="10"/>
+      <c r="Q83" s="10"/>
+    </row>
+    <row r="84" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F84" s="38"/>
+      <c r="G84" s="8"/>
+      <c r="H84" s="38"/>
+      <c r="I84" s="10"/>
+      <c r="J84" s="18"/>
+      <c r="K84" s="19"/>
+      <c r="L84" s="12"/>
+      <c r="M84" s="10"/>
+      <c r="N84" s="8"/>
+      <c r="O84" s="10"/>
+      <c r="P84" s="10"/>
+      <c r="Q84" s="10"/>
+    </row>
+    <row r="85" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F85" s="38"/>
+      <c r="G85" s="8"/>
+      <c r="H85" s="38"/>
+      <c r="I85" s="10"/>
+      <c r="J85" s="18"/>
+      <c r="K85" s="19"/>
+      <c r="L85" s="12"/>
+      <c r="M85" s="10"/>
+      <c r="N85" s="8"/>
+      <c r="O85" s="10"/>
+      <c r="P85" s="10"/>
+      <c r="Q85" s="10"/>
+    </row>
+    <row r="86" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F86" s="38"/>
+      <c r="G86" s="8"/>
+      <c r="H86" s="38"/>
+      <c r="I86" s="10"/>
+      <c r="J86" s="18"/>
+      <c r="K86" s="19"/>
+      <c r="L86" s="12"/>
+      <c r="M86" s="10"/>
+      <c r="N86" s="8"/>
+      <c r="O86" s="10"/>
+      <c r="P86" s="10"/>
+      <c r="Q86" s="10"/>
+    </row>
+    <row r="87" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F87" s="38"/>
+      <c r="G87" s="8"/>
+      <c r="H87" s="38"/>
+      <c r="I87" s="10"/>
+      <c r="J87" s="18"/>
+      <c r="K87" s="19"/>
+      <c r="L87" s="12"/>
+      <c r="M87" s="10"/>
+      <c r="N87" s="8"/>
+      <c r="O87" s="10"/>
+      <c r="P87" s="10"/>
+      <c r="Q87" s="10"/>
+    </row>
+    <row r="88" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F88" s="38"/>
+      <c r="G88" s="8"/>
+      <c r="H88" s="38"/>
+      <c r="I88" s="10"/>
+      <c r="J88" s="18"/>
+      <c r="K88" s="19"/>
+      <c r="L88" s="12"/>
+      <c r="M88" s="10"/>
+      <c r="N88" s="8"/>
+      <c r="O88" s="10"/>
+      <c r="P88" s="10"/>
+      <c r="Q88" s="10"/>
+    </row>
+    <row r="89" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F89" s="38"/>
+      <c r="G89" s="8"/>
+      <c r="H89" s="38"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="18"/>
+      <c r="K89" s="19"/>
+      <c r="L89" s="12"/>
+      <c r="M89" s="10"/>
+      <c r="N89" s="8"/>
+      <c r="O89" s="10"/>
+      <c r="P89" s="10"/>
+      <c r="Q89" s="10"/>
+    </row>
+    <row r="90" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F90" s="38"/>
+      <c r="G90" s="8"/>
+      <c r="H90" s="38"/>
+      <c r="I90" s="10"/>
+      <c r="J90" s="18"/>
+      <c r="K90" s="19"/>
+      <c r="L90" s="12"/>
+      <c r="M90" s="10"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="10"/>
+      <c r="P90" s="10"/>
+      <c r="Q90" s="10"/>
+    </row>
+    <row r="91" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F91" s="38"/>
+      <c r="G91" s="8"/>
+      <c r="H91" s="38"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="18"/>
+      <c r="K91" s="19"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="8"/>
+      <c r="O91" s="10"/>
+      <c r="P91" s="10"/>
+      <c r="Q91" s="10"/>
+    </row>
+    <row r="92" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F92" s="38"/>
+      <c r="G92" s="8"/>
+      <c r="H92" s="38"/>
+      <c r="I92" s="10"/>
+      <c r="J92" s="18"/>
+      <c r="K92" s="19"/>
+      <c r="L92" s="12"/>
+      <c r="M92" s="10"/>
+      <c r="N92" s="8"/>
+      <c r="O92" s="10"/>
+      <c r="P92" s="10"/>
+      <c r="Q92" s="10"/>
+    </row>
+    <row r="93" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F93" s="38"/>
+      <c r="G93" s="8"/>
+      <c r="H93" s="38"/>
+      <c r="I93" s="10"/>
+      <c r="J93" s="18"/>
+      <c r="K93" s="19"/>
+      <c r="L93" s="12"/>
+      <c r="M93" s="10"/>
+      <c r="N93" s="8"/>
+      <c r="O93" s="10"/>
+      <c r="P93" s="10"/>
+      <c r="Q93" s="10"/>
+    </row>
+    <row r="94" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F94" s="38"/>
+      <c r="G94" s="8"/>
+      <c r="H94" s="38"/>
+      <c r="I94" s="10"/>
+      <c r="J94" s="18"/>
+      <c r="K94" s="19"/>
+      <c r="L94" s="12"/>
+      <c r="M94" s="10"/>
+      <c r="N94" s="8"/>
+      <c r="O94" s="10"/>
+      <c r="P94" s="10"/>
+      <c r="Q94" s="10"/>
+    </row>
+    <row r="95" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F95" s="38"/>
+      <c r="G95" s="8"/>
+      <c r="H95" s="38"/>
+      <c r="I95" s="10"/>
+      <c r="J95" s="18"/>
+      <c r="K95" s="19"/>
+      <c r="L95" s="12"/>
+      <c r="M95" s="10"/>
+      <c r="N95" s="8"/>
+      <c r="O95" s="10"/>
+      <c r="P95" s="10"/>
+      <c r="Q95" s="10"/>
+    </row>
+    <row r="96" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F96" s="38"/>
+      <c r="G96" s="8"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="10"/>
+      <c r="J96" s="18"/>
+      <c r="K96" s="19"/>
+      <c r="L96" s="12"/>
+      <c r="M96" s="10"/>
+      <c r="N96" s="8"/>
+      <c r="O96" s="10"/>
+      <c r="P96" s="10"/>
+      <c r="Q96" s="10"/>
+    </row>
+    <row r="97" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F97" s="38"/>
+      <c r="G97" s="8"/>
+      <c r="H97" s="38"/>
+      <c r="I97" s="10"/>
+      <c r="J97" s="18"/>
+      <c r="K97" s="19"/>
+      <c r="L97" s="12"/>
+      <c r="M97" s="10"/>
+      <c r="N97" s="8"/>
+      <c r="O97" s="10"/>
+      <c r="P97" s="10"/>
+      <c r="Q97" s="10"/>
+    </row>
+    <row r="98" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F98" s="38"/>
+      <c r="G98" s="8"/>
+      <c r="H98" s="38"/>
+      <c r="I98" s="10"/>
+      <c r="J98" s="18"/>
+      <c r="K98" s="19"/>
+      <c r="L98" s="12"/>
+      <c r="M98" s="10"/>
+      <c r="N98" s="8"/>
+      <c r="O98" s="10"/>
+      <c r="P98" s="10"/>
+      <c r="Q98" s="10"/>
+    </row>
+    <row r="99" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F99" s="38"/>
+      <c r="G99" s="8"/>
+      <c r="H99" s="38"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="18"/>
+      <c r="K99" s="19"/>
+      <c r="L99" s="12"/>
+      <c r="M99" s="10"/>
+      <c r="N99" s="8"/>
+      <c r="O99" s="10"/>
+      <c r="P99" s="10"/>
+      <c r="Q99" s="10"/>
+    </row>
+    <row r="100" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F100" s="38"/>
+      <c r="G100" s="8"/>
+      <c r="H100" s="38"/>
+      <c r="I100" s="10"/>
+      <c r="J100" s="18"/>
+      <c r="K100" s="19"/>
+      <c r="L100" s="12"/>
+      <c r="M100" s="10"/>
+      <c r="N100" s="8"/>
+      <c r="O100" s="10"/>
+      <c r="P100" s="10"/>
+      <c r="Q100" s="10"/>
+    </row>
+    <row r="101" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F101" s="38"/>
+      <c r="G101" s="8"/>
+      <c r="H101" s="38"/>
+      <c r="I101" s="10"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="12"/>
+      <c r="L101" s="12"/>
+      <c r="M101" s="10"/>
+      <c r="N101" s="8"/>
+      <c r="O101" s="10"/>
+      <c r="P101" s="10"/>
+      <c r="Q101" s="10"/>
+    </row>
+    <row r="102" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F102" s="38"/>
+      <c r="G102" s="8"/>
+      <c r="H102" s="38"/>
+      <c r="I102" s="10"/>
+      <c r="J102" s="11"/>
+      <c r="K102" s="12"/>
+      <c r="L102" s="12"/>
+      <c r="M102" s="10"/>
+      <c r="N102" s="8"/>
+      <c r="O102" s="10"/>
+      <c r="P102" s="10"/>
+      <c r="Q102" s="10"/>
+    </row>
+    <row r="103" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F103" s="38"/>
+      <c r="G103" s="8"/>
+      <c r="H103" s="38"/>
+      <c r="I103" s="10"/>
+      <c r="J103" s="11"/>
+      <c r="K103" s="12"/>
+      <c r="L103" s="12"/>
+      <c r="M103" s="10"/>
+      <c r="N103" s="8"/>
+      <c r="O103" s="10"/>
+      <c r="P103" s="10"/>
+      <c r="Q103" s="10"/>
+    </row>
+    <row r="104" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F104" s="38"/>
+      <c r="G104" s="8"/>
+      <c r="H104" s="38"/>
+      <c r="I104" s="10"/>
+      <c r="J104" s="11"/>
+      <c r="K104" s="12"/>
+      <c r="L104" s="12"/>
+      <c r="M104" s="10"/>
+      <c r="N104" s="8"/>
+      <c r="O104" s="10"/>
+      <c r="P104" s="10"/>
+      <c r="Q104" s="10"/>
+    </row>
+    <row r="105" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F105" s="38"/>
+      <c r="G105" s="8"/>
+      <c r="H105" s="38"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="11"/>
+      <c r="K105" s="12"/>
+      <c r="L105" s="12"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="8"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
+    </row>
+    <row r="106" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F106" s="38"/>
+      <c r="G106" s="8"/>
+      <c r="H106" s="38"/>
+      <c r="I106" s="10"/>
+      <c r="J106" s="11"/>
+      <c r="K106" s="12"/>
+      <c r="L106" s="12"/>
+      <c r="M106" s="10"/>
+      <c r="N106" s="8"/>
+      <c r="O106" s="10"/>
+      <c r="P106" s="10"/>
+      <c r="Q106" s="10"/>
+    </row>
+    <row r="107" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F107" s="38"/>
+      <c r="G107" s="8"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="10"/>
+      <c r="J107" s="11"/>
+      <c r="K107" s="12"/>
+      <c r="L107" s="12"/>
+      <c r="M107" s="10"/>
+      <c r="N107" s="8"/>
+      <c r="O107" s="10"/>
+      <c r="P107" s="10"/>
+      <c r="Q107" s="10"/>
+    </row>
+    <row r="108" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F108" s="38"/>
+      <c r="G108" s="8"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="10"/>
+      <c r="J108" s="11"/>
+      <c r="K108" s="12"/>
+      <c r="L108" s="12"/>
+      <c r="M108" s="10"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="10"/>
+      <c r="P108" s="10"/>
+      <c r="Q108" s="10"/>
+    </row>
+    <row r="109" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F109" s="38"/>
+      <c r="G109" s="8"/>
+      <c r="H109" s="38"/>
+      <c r="I109" s="10"/>
+      <c r="J109" s="11"/>
+      <c r="K109" s="12"/>
+      <c r="L109" s="12"/>
+      <c r="M109" s="10"/>
+      <c r="N109" s="8"/>
+      <c r="O109" s="10"/>
+      <c r="P109" s="10"/>
+      <c r="Q109" s="10"/>
+    </row>
+    <row r="110" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F110" s="38"/>
+      <c r="G110" s="8"/>
+      <c r="H110" s="38"/>
+      <c r="I110" s="10"/>
+      <c r="J110" s="11"/>
+      <c r="K110" s="12"/>
+      <c r="L110" s="12"/>
+      <c r="M110" s="10"/>
+      <c r="N110" s="8"/>
+      <c r="O110" s="10"/>
+      <c r="P110" s="10"/>
+      <c r="Q110" s="10"/>
+    </row>
+    <row r="111" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F111" s="38"/>
+      <c r="G111" s="8"/>
+      <c r="H111" s="38"/>
+      <c r="I111" s="10"/>
+      <c r="J111" s="11"/>
+      <c r="K111" s="12"/>
+      <c r="L111" s="12"/>
+      <c r="M111" s="10"/>
+      <c r="N111" s="8"/>
+      <c r="O111" s="10"/>
+      <c r="P111" s="10"/>
+      <c r="Q111" s="10"/>
+    </row>
+    <row r="112" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F112" s="38"/>
+      <c r="G112" s="8"/>
+      <c r="H112" s="38"/>
+      <c r="I112" s="10"/>
+      <c r="J112" s="11"/>
+      <c r="K112" s="12"/>
+      <c r="L112" s="12"/>
+      <c r="M112" s="10"/>
+      <c r="N112" s="8"/>
+      <c r="O112" s="10"/>
+      <c r="P112" s="10"/>
+      <c r="Q112" s="10"/>
+    </row>
+    <row r="113" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F113" s="38"/>
+      <c r="G113" s="8"/>
+      <c r="H113" s="38"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="12"/>
+      <c r="L113" s="12"/>
+      <c r="M113" s="10"/>
+      <c r="N113" s="8"/>
+      <c r="O113" s="10"/>
+      <c r="P113" s="10"/>
+      <c r="Q113" s="10"/>
+    </row>
+    <row r="114" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F114" s="38"/>
+      <c r="G114" s="8"/>
+      <c r="H114" s="38"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="12"/>
+      <c r="L114" s="12"/>
+      <c r="M114" s="10"/>
+      <c r="N114" s="8"/>
+      <c r="O114" s="10"/>
+      <c r="P114" s="10"/>
+      <c r="Q114" s="10"/>
+    </row>
+    <row r="115" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F115" s="38"/>
+      <c r="G115" s="8"/>
+      <c r="H115" s="38"/>
+      <c r="I115" s="10"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="12"/>
+      <c r="L115" s="12"/>
+      <c r="M115" s="10"/>
+      <c r="N115" s="8"/>
+      <c r="O115" s="10"/>
+      <c r="P115" s="10"/>
+      <c r="Q115" s="10"/>
+    </row>
+    <row r="116" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F116" s="38"/>
+      <c r="G116" s="8"/>
+      <c r="H116" s="38"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="12"/>
+      <c r="L116" s="12"/>
+      <c r="M116" s="10"/>
+      <c r="N116" s="8"/>
+      <c r="O116" s="10"/>
+      <c r="P116" s="10"/>
+      <c r="Q116" s="10"/>
+    </row>
+    <row r="117" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F117" s="38"/>
+      <c r="G117" s="8"/>
+      <c r="H117" s="38"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
+      <c r="K117" s="12"/>
+      <c r="L117" s="12"/>
+      <c r="M117" s="10"/>
+      <c r="N117" s="8"/>
+      <c r="O117" s="10"/>
+      <c r="P117" s="10"/>
+      <c r="Q117" s="10"/>
+    </row>
+    <row r="118" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F118" s="38"/>
+      <c r="G118" s="8"/>
+      <c r="H118" s="38"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="11"/>
+      <c r="K118" s="12"/>
+      <c r="L118" s="12"/>
+      <c r="M118" s="10"/>
+      <c r="N118" s="8"/>
+      <c r="O118" s="10"/>
+      <c r="P118" s="10"/>
+      <c r="Q118" s="10"/>
+    </row>
+    <row r="119" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F119" s="38"/>
+      <c r="G119" s="8"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="12"/>
+      <c r="L119" s="12"/>
+      <c r="M119" s="10"/>
+      <c r="N119" s="8"/>
+      <c r="O119" s="10"/>
+      <c r="P119" s="10"/>
+      <c r="Q119" s="10"/>
+    </row>
+    <row r="120" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F120" s="38"/>
+      <c r="G120" s="8"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="12"/>
+      <c r="L120" s="12"/>
+      <c r="M120" s="10"/>
+      <c r="N120" s="8"/>
+      <c r="O120" s="10"/>
+      <c r="P120" s="10"/>
+      <c r="Q120" s="10"/>
+    </row>
+    <row r="121" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F121" s="38"/>
+      <c r="G121" s="8"/>
+      <c r="H121" s="38"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="12"/>
+      <c r="L121" s="12"/>
+      <c r="M121" s="10"/>
+      <c r="N121" s="8"/>
+      <c r="O121" s="10"/>
+      <c r="P121" s="10"/>
+      <c r="Q121" s="10"/>
+    </row>
+    <row r="122" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F122" s="38"/>
+      <c r="G122" s="8"/>
+      <c r="H122" s="38"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="10"/>
+      <c r="N122" s="8"/>
+      <c r="O122" s="10"/>
+      <c r="P122" s="10"/>
+      <c r="Q122" s="10"/>
+    </row>
+    <row r="123" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F123" s="38"/>
+      <c r="G123" s="8"/>
+      <c r="H123" s="38"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
+      <c r="K123" s="12"/>
+      <c r="L123" s="12"/>
+      <c r="M123" s="10"/>
+      <c r="N123" s="8"/>
+      <c r="O123" s="10"/>
+      <c r="P123" s="10"/>
+      <c r="Q123" s="10"/>
+    </row>
+    <row r="124" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F124" s="38"/>
+      <c r="G124" s="8"/>
+      <c r="H124" s="38"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="12"/>
+      <c r="L124" s="12"/>
+      <c r="M124" s="10"/>
+      <c r="N124" s="8"/>
+      <c r="O124" s="10"/>
+      <c r="P124" s="10"/>
+      <c r="Q124" s="10"/>
+    </row>
+    <row r="125" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F125" s="38"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="38"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="12"/>
+      <c r="L125" s="12"/>
+      <c r="M125" s="10"/>
+      <c r="N125" s="8"/>
+      <c r="O125" s="10"/>
+      <c r="P125" s="10"/>
+      <c r="Q125" s="10"/>
+    </row>
+    <row r="126" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F126" s="38"/>
+      <c r="G126" s="8"/>
+      <c r="H126" s="38"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="12"/>
+      <c r="L126" s="12"/>
+      <c r="M126" s="10"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="10"/>
+      <c r="P126" s="10"/>
+      <c r="Q126" s="10"/>
+    </row>
+    <row r="127" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F127" s="38"/>
+      <c r="G127" s="8"/>
+      <c r="H127" s="38"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="12"/>
+      <c r="L127" s="12"/>
+      <c r="M127" s="10"/>
+      <c r="N127" s="8"/>
+      <c r="O127" s="10"/>
+      <c r="P127" s="10"/>
+      <c r="Q127" s="10"/>
+    </row>
+    <row r="128" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F128" s="38"/>
+      <c r="G128" s="8"/>
+      <c r="H128" s="38"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
+      <c r="K128" s="12"/>
+      <c r="L128" s="12"/>
+      <c r="M128" s="10"/>
+      <c r="N128" s="8"/>
+      <c r="O128" s="10"/>
+      <c r="P128" s="10"/>
+      <c r="Q128" s="10"/>
+    </row>
+    <row r="129" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F129" s="38"/>
+      <c r="G129" s="8"/>
+      <c r="H129" s="38"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11"/>
+      <c r="K129" s="12"/>
+      <c r="L129" s="12"/>
+      <c r="M129" s="10"/>
+      <c r="N129" s="8"/>
+      <c r="O129" s="10"/>
+      <c r="P129" s="10"/>
+      <c r="Q129" s="10"/>
+    </row>
+    <row r="130" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F130" s="38"/>
+      <c r="G130" s="8"/>
+      <c r="H130" s="38"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="12"/>
+      <c r="L130" s="12"/>
+      <c r="M130" s="10"/>
+      <c r="N130" s="8"/>
+      <c r="O130" s="10"/>
+      <c r="P130" s="10"/>
+      <c r="Q130" s="10"/>
+    </row>
+    <row r="131" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F131" s="38"/>
+      <c r="G131" s="8"/>
+      <c r="H131" s="38"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="12"/>
+      <c r="L131" s="12"/>
+      <c r="M131" s="10"/>
+      <c r="N131" s="8"/>
+      <c r="O131" s="10"/>
+      <c r="P131" s="10"/>
+      <c r="Q131" s="10"/>
+    </row>
+    <row r="132" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F132" s="38"/>
+      <c r="G132" s="8"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="12"/>
+      <c r="L132" s="12"/>
+      <c r="M132" s="10"/>
+      <c r="N132" s="8"/>
+      <c r="O132" s="10"/>
+      <c r="P132" s="10"/>
+      <c r="Q132" s="10"/>
+    </row>
+    <row r="133" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F133" s="38"/>
+      <c r="G133" s="8"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="12"/>
+      <c r="L133" s="12"/>
+      <c r="M133" s="10"/>
+      <c r="N133" s="8"/>
+      <c r="O133" s="10"/>
+      <c r="P133" s="10"/>
+      <c r="Q133" s="10"/>
+    </row>
+    <row r="134" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F134" s="38"/>
+      <c r="G134" s="8"/>
+      <c r="H134" s="38"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="12"/>
+      <c r="L134" s="12"/>
+      <c r="M134" s="10"/>
+      <c r="N134" s="8"/>
+      <c r="O134" s="10"/>
+      <c r="P134" s="10"/>
+      <c r="Q134" s="10"/>
+    </row>
+    <row r="135" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F135" s="38"/>
+      <c r="G135" s="8"/>
+      <c r="H135" s="38"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="12"/>
+      <c r="L135" s="12"/>
+      <c r="M135" s="10"/>
+      <c r="N135" s="8"/>
+      <c r="O135" s="10"/>
+      <c r="P135" s="10"/>
+      <c r="Q135" s="10"/>
+    </row>
+    <row r="136" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F136" s="38"/>
+      <c r="G136" s="8"/>
+      <c r="H136" s="38"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="12"/>
+      <c r="L136" s="12"/>
+      <c r="M136" s="10"/>
+      <c r="N136" s="8"/>
+      <c r="O136" s="10"/>
+      <c r="P136" s="10"/>
+      <c r="Q136" s="10"/>
+    </row>
+    <row r="137" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F137" s="38"/>
+      <c r="G137" s="8"/>
+      <c r="H137" s="38"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="12"/>
+      <c r="L137" s="12"/>
+      <c r="M137" s="10"/>
+      <c r="N137" s="8"/>
+      <c r="O137" s="10"/>
+      <c r="P137" s="10"/>
+      <c r="Q137" s="10"/>
+    </row>
+    <row r="138" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F138" s="38"/>
+      <c r="G138" s="8"/>
+      <c r="H138" s="38"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="12"/>
+      <c r="L138" s="12"/>
+      <c r="M138" s="10"/>
+      <c r="N138" s="8"/>
+      <c r="O138" s="10"/>
+      <c r="P138" s="10"/>
+      <c r="Q138" s="10"/>
+    </row>
+    <row r="139" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F139" s="38"/>
+      <c r="G139" s="8"/>
+      <c r="H139" s="38"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="10"/>
+      <c r="N139" s="8"/>
+      <c r="O139" s="10"/>
+      <c r="P139" s="10"/>
+      <c r="Q139" s="10"/>
+    </row>
+    <row r="140" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F140" s="38"/>
+      <c r="G140" s="8"/>
+      <c r="H140" s="38"/>
+      <c r="I140" s="10"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="12"/>
+      <c r="L140" s="12"/>
+      <c r="M140" s="10"/>
+      <c r="N140" s="8"/>
+      <c r="O140" s="10"/>
+      <c r="P140" s="10"/>
+      <c r="Q140" s="10"/>
+    </row>
+    <row r="141" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F141" s="38"/>
+      <c r="G141" s="8"/>
+      <c r="H141" s="38"/>
+      <c r="I141" s="10"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="12"/>
+      <c r="L141" s="12"/>
+      <c r="M141" s="10"/>
+      <c r="N141" s="8"/>
+      <c r="O141" s="10"/>
+      <c r="P141" s="10"/>
+      <c r="Q141" s="10"/>
+    </row>
+    <row r="142" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F142" s="38"/>
+      <c r="G142" s="8"/>
+      <c r="H142" s="38"/>
+      <c r="I142" s="10"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="12"/>
+      <c r="L142" s="12"/>
+      <c r="M142" s="10"/>
+      <c r="N142" s="8"/>
+      <c r="O142" s="10"/>
+      <c r="P142" s="10"/>
+      <c r="Q142" s="10"/>
+    </row>
+    <row r="143" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F143" s="38"/>
+      <c r="G143" s="8"/>
+      <c r="H143" s="38"/>
+      <c r="I143" s="10"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="12"/>
+      <c r="L143" s="12"/>
+      <c r="M143" s="10"/>
+      <c r="N143" s="8"/>
+      <c r="O143" s="10"/>
+      <c r="P143" s="10"/>
+      <c r="Q143" s="10"/>
+    </row>
+    <row r="144" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F144" s="38"/>
+      <c r="G144" s="8"/>
+      <c r="H144" s="38"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="12"/>
+      <c r="L144" s="12"/>
+      <c r="M144" s="10"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="10"/>
+      <c r="P144" s="10"/>
+      <c r="Q144" s="10"/>
+    </row>
+    <row r="145" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F145" s="38"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="38"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="12"/>
+      <c r="L145" s="12"/>
+      <c r="M145" s="10"/>
+      <c r="N145" s="8"/>
+      <c r="O145" s="10"/>
+      <c r="P145" s="10"/>
+      <c r="Q145" s="10"/>
+    </row>
+    <row r="146" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F146" s="38"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="38"/>
+      <c r="I146" s="10"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="12"/>
+      <c r="L146" s="12"/>
+      <c r="M146" s="10"/>
+      <c r="N146" s="8"/>
+      <c r="O146" s="10"/>
+      <c r="P146" s="10"/>
+      <c r="Q146" s="10"/>
+    </row>
+    <row r="147" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="F147" s="38"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="10"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="12"/>
+      <c r="L147" s="12"/>
+      <c r="M147" s="10"/>
+      <c r="N147" s="8"/>
+      <c r="O147" s="10"/>
+      <c r="P147" s="10"/>
+      <c r="Q147" s="10"/>
+    </row>
+    <row r="148" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G148" s="8"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="10"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="12"/>
+      <c r="L148" s="12"/>
+      <c r="M148" s="10"/>
+      <c r="N148" s="8"/>
+      <c r="O148" s="10"/>
+      <c r="P148" s="10"/>
+      <c r="Q148" s="10"/>
+    </row>
+    <row r="149" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G149" s="8"/>
+      <c r="H149" s="38"/>
+      <c r="I149" s="10"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="12"/>
+      <c r="L149" s="12"/>
+      <c r="M149" s="10"/>
+      <c r="N149" s="8"/>
+      <c r="O149" s="10"/>
+      <c r="P149" s="10"/>
+      <c r="Q149" s="10"/>
+    </row>
+    <row r="150" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G150" s="8"/>
+      <c r="H150" s="38"/>
+      <c r="I150" s="10"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="12"/>
+      <c r="L150" s="12"/>
+      <c r="M150" s="10"/>
+      <c r="N150" s="8"/>
+      <c r="O150" s="10"/>
+      <c r="P150" s="10"/>
+      <c r="Q150" s="10"/>
+    </row>
+    <row r="151" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G151" s="8"/>
+      <c r="H151" s="38"/>
+      <c r="I151" s="10"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="12"/>
+      <c r="L151" s="12"/>
+      <c r="M151" s="10"/>
+      <c r="N151" s="8"/>
+      <c r="O151" s="10"/>
+      <c r="P151" s="10"/>
+      <c r="Q151" s="10"/>
+    </row>
+    <row r="152" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G152" s="8"/>
+      <c r="H152" s="38"/>
+      <c r="I152" s="10"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="12"/>
+      <c r="L152" s="12"/>
+      <c r="M152" s="10"/>
+      <c r="N152" s="8"/>
+      <c r="O152" s="10"/>
+      <c r="P152" s="10"/>
+      <c r="Q152" s="10"/>
+    </row>
+    <row r="153" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G153" s="8"/>
+      <c r="H153" s="38"/>
+      <c r="I153" s="10"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="12"/>
+      <c r="L153" s="12"/>
+      <c r="M153" s="10"/>
+      <c r="N153" s="8"/>
+      <c r="O153" s="10"/>
+      <c r="P153" s="10"/>
+      <c r="Q153" s="10"/>
+    </row>
+    <row r="154" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G154" s="8"/>
+      <c r="H154" s="38"/>
+      <c r="I154" s="10"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="12"/>
+      <c r="L154" s="12"/>
+      <c r="M154" s="10"/>
+      <c r="N154" s="8"/>
+      <c r="O154" s="10"/>
+      <c r="P154" s="10"/>
+      <c r="Q154" s="10"/>
+    </row>
+    <row r="155" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G155" s="8"/>
+      <c r="H155" s="38"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="12"/>
+      <c r="L155" s="12"/>
+      <c r="M155" s="10"/>
+      <c r="N155" s="8"/>
+      <c r="O155" s="10"/>
+      <c r="P155" s="10"/>
+      <c r="Q155" s="10"/>
+    </row>
+    <row r="156" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G156" s="8"/>
+      <c r="H156" s="38"/>
+      <c r="I156" s="10"/>
+      <c r="J156" s="11"/>
+      <c r="K156" s="12"/>
+      <c r="L156" s="12"/>
+      <c r="M156" s="10"/>
+      <c r="N156" s="8"/>
+      <c r="O156" s="10"/>
+      <c r="P156" s="10"/>
+      <c r="Q156" s="10"/>
+    </row>
+    <row r="157" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G157" s="8"/>
+      <c r="H157" s="38"/>
+      <c r="I157" s="10"/>
+      <c r="J157" s="11"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="10"/>
+      <c r="N157" s="8"/>
+      <c r="O157" s="10"/>
+      <c r="P157" s="10"/>
+      <c r="Q157" s="10"/>
+    </row>
+    <row r="158" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G158" s="8"/>
+      <c r="H158" s="38"/>
+      <c r="I158" s="10"/>
+      <c r="J158" s="11"/>
+      <c r="K158" s="12"/>
+      <c r="L158" s="12"/>
+      <c r="M158" s="10"/>
+      <c r="N158" s="8"/>
+      <c r="O158" s="10"/>
+      <c r="P158" s="10"/>
+      <c r="Q158" s="10"/>
+    </row>
+    <row r="159" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G159" s="8"/>
+      <c r="H159" s="38"/>
+      <c r="I159" s="10"/>
+      <c r="J159" s="11"/>
+      <c r="K159" s="12"/>
+      <c r="L159" s="12"/>
+      <c r="M159" s="10"/>
+      <c r="N159" s="8"/>
+      <c r="O159" s="10"/>
+      <c r="P159" s="10"/>
+      <c r="Q159" s="10"/>
+    </row>
+    <row r="160" spans="6:17" x14ac:dyDescent="0.2">
+      <c r="G160" s="8"/>
+      <c r="H160" s="38"/>
+      <c r="I160" s="10"/>
+      <c r="J160" s="11"/>
+      <c r="K160" s="12"/>
+      <c r="L160" s="12"/>
+      <c r="M160" s="10"/>
+      <c r="N160" s="8"/>
+      <c r="O160" s="10"/>
+      <c r="P160" s="10"/>
+      <c r="Q160" s="10"/>
+    </row>
+    <row r="161" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G161" s="8"/>
+      <c r="H161" s="38"/>
+      <c r="I161" s="10"/>
+      <c r="J161" s="11"/>
+      <c r="K161" s="12"/>
+      <c r="L161" s="12"/>
+      <c r="M161" s="10"/>
+      <c r="N161" s="8"/>
+      <c r="O161" s="10"/>
+      <c r="P161" s="10"/>
+      <c r="Q161" s="10"/>
+    </row>
+    <row r="162" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G162" s="8"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="10"/>
+      <c r="J162" s="11"/>
+      <c r="K162" s="12"/>
+      <c r="L162" s="12"/>
+      <c r="M162" s="10"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="10"/>
+      <c r="P162" s="10"/>
+      <c r="Q162" s="10"/>
+    </row>
+    <row r="163" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G163" s="8"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="10"/>
+      <c r="J163" s="11"/>
+      <c r="K163" s="12"/>
+      <c r="L163" s="12"/>
+      <c r="M163" s="10"/>
+      <c r="N163" s="8"/>
+      <c r="O163" s="10"/>
+      <c r="P163" s="10"/>
+      <c r="Q163" s="10"/>
+    </row>
+    <row r="164" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G164" s="8"/>
+      <c r="H164" s="38"/>
+      <c r="I164" s="10"/>
+      <c r="J164" s="11"/>
+      <c r="K164" s="12"/>
+      <c r="L164" s="12"/>
+      <c r="M164" s="10"/>
+      <c r="N164" s="8"/>
+      <c r="O164" s="10"/>
+      <c r="P164" s="10"/>
+      <c r="Q164" s="10"/>
+    </row>
+    <row r="165" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G165" s="8"/>
+      <c r="H165" s="38"/>
+      <c r="I165" s="10"/>
+      <c r="J165" s="11"/>
+      <c r="K165" s="12"/>
+      <c r="L165" s="12"/>
+      <c r="M165" s="10"/>
+      <c r="N165" s="8"/>
+      <c r="O165" s="10"/>
+      <c r="P165" s="10"/>
+      <c r="Q165" s="10"/>
+    </row>
+    <row r="166" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G166" s="8"/>
+      <c r="H166" s="38"/>
+      <c r="I166" s="10"/>
+      <c r="J166" s="11"/>
+      <c r="K166" s="12"/>
+      <c r="L166" s="12"/>
+      <c r="M166" s="10"/>
+      <c r="N166" s="8"/>
+      <c r="O166" s="10"/>
+      <c r="P166" s="10"/>
+      <c r="Q166" s="10"/>
+    </row>
+    <row r="167" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G167" s="8"/>
+      <c r="H167" s="38"/>
+      <c r="I167" s="10"/>
+      <c r="J167" s="11"/>
+      <c r="K167" s="12"/>
+      <c r="L167" s="12"/>
+      <c r="M167" s="10"/>
+      <c r="N167" s="8"/>
+      <c r="O167" s="10"/>
+      <c r="P167" s="10"/>
+      <c r="Q167" s="10"/>
+    </row>
+    <row r="168" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G168" s="8"/>
+      <c r="H168" s="38"/>
+      <c r="I168" s="10"/>
+      <c r="J168" s="11"/>
+      <c r="K168" s="12"/>
+      <c r="L168" s="12"/>
+      <c r="M168" s="10"/>
+      <c r="N168" s="8"/>
+      <c r="O168" s="10"/>
+      <c r="P168" s="10"/>
+      <c r="Q168" s="10"/>
+    </row>
+    <row r="169" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G169" s="8"/>
+      <c r="H169" s="38"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="11"/>
+      <c r="K169" s="12"/>
+      <c r="L169" s="12"/>
+      <c r="M169" s="10"/>
+      <c r="N169" s="8"/>
+      <c r="O169" s="10"/>
+      <c r="P169" s="10"/>
+      <c r="Q169" s="10"/>
+    </row>
+    <row r="170" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G170" s="8"/>
+      <c r="H170" s="38"/>
+      <c r="I170" s="10"/>
+      <c r="J170" s="11"/>
+      <c r="K170" s="12"/>
+      <c r="L170" s="12"/>
+      <c r="M170" s="10"/>
+      <c r="N170" s="8"/>
+      <c r="O170" s="10"/>
+      <c r="P170" s="10"/>
+      <c r="Q170" s="10"/>
+    </row>
+    <row r="171" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G171" s="8"/>
+      <c r="H171" s="38"/>
+      <c r="I171" s="10"/>
+      <c r="J171" s="11"/>
+      <c r="K171" s="12"/>
+      <c r="L171" s="12"/>
+      <c r="M171" s="10"/>
+      <c r="N171" s="8"/>
+      <c r="O171" s="10"/>
+      <c r="P171" s="10"/>
+      <c r="Q171" s="10"/>
+    </row>
+    <row r="172" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G172" s="8"/>
+      <c r="H172" s="38"/>
+      <c r="I172" s="10"/>
+      <c r="J172" s="11"/>
+      <c r="K172" s="12"/>
+      <c r="L172" s="12"/>
+      <c r="M172" s="10"/>
+      <c r="N172" s="8"/>
+      <c r="O172" s="10"/>
+      <c r="P172" s="10"/>
+      <c r="Q172" s="10"/>
+    </row>
+    <row r="173" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G173" s="8"/>
+      <c r="H173" s="38"/>
+      <c r="I173" s="10"/>
+      <c r="J173" s="11"/>
+      <c r="K173" s="12"/>
+      <c r="L173" s="12"/>
+      <c r="M173" s="10"/>
+      <c r="N173" s="8"/>
+      <c r="O173" s="10"/>
+      <c r="P173" s="10"/>
+      <c r="Q173" s="10"/>
+    </row>
+    <row r="174" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G174" s="8"/>
+      <c r="H174" s="38"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="11"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="10"/>
+      <c r="N174" s="8"/>
+      <c r="O174" s="10"/>
+      <c r="P174" s="10"/>
+      <c r="Q174" s="10"/>
+    </row>
+    <row r="175" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G175" s="8"/>
+      <c r="H175" s="38"/>
+      <c r="I175" s="10"/>
+      <c r="J175" s="11"/>
+      <c r="K175" s="12"/>
+      <c r="L175" s="12"/>
+      <c r="M175" s="10"/>
+      <c r="N175" s="8"/>
+      <c r="O175" s="10"/>
+      <c r="P175" s="10"/>
+      <c r="Q175" s="10"/>
+    </row>
+    <row r="176" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G176" s="8"/>
+      <c r="H176" s="38"/>
+      <c r="I176" s="10"/>
+      <c r="J176" s="11"/>
+      <c r="K176" s="12"/>
+      <c r="L176" s="12"/>
+      <c r="M176" s="10"/>
+      <c r="N176" s="8"/>
+      <c r="O176" s="10"/>
+      <c r="P176" s="10"/>
+      <c r="Q176" s="10"/>
+    </row>
+    <row r="177" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G177" s="8"/>
+      <c r="H177" s="38"/>
+      <c r="I177" s="10"/>
+      <c r="J177" s="11"/>
+      <c r="K177" s="12"/>
+      <c r="L177" s="12"/>
+      <c r="M177" s="10"/>
+      <c r="N177" s="8"/>
+      <c r="O177" s="10"/>
+      <c r="P177" s="10"/>
+      <c r="Q177" s="10"/>
+    </row>
+    <row r="178" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G178" s="8"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="10"/>
+      <c r="J178" s="11"/>
+      <c r="K178" s="12"/>
+      <c r="L178" s="12"/>
+      <c r="M178" s="10"/>
+      <c r="N178" s="8"/>
+      <c r="O178" s="10"/>
+      <c r="P178" s="10"/>
+      <c r="Q178" s="10"/>
+    </row>
+    <row r="179" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G179" s="8"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="10"/>
+      <c r="J179" s="11"/>
+      <c r="K179" s="12"/>
+      <c r="L179" s="12"/>
+      <c r="M179" s="10"/>
+      <c r="N179" s="8"/>
+      <c r="O179" s="10"/>
+      <c r="P179" s="10"/>
+      <c r="Q179" s="10"/>
+    </row>
+    <row r="180" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G180" s="8"/>
+      <c r="H180" s="38"/>
+      <c r="I180" s="10"/>
+      <c r="J180" s="11"/>
+      <c r="K180" s="12"/>
+      <c r="L180" s="12"/>
+      <c r="M180" s="10"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="10"/>
+      <c r="P180" s="10"/>
+      <c r="Q180" s="10"/>
+    </row>
+    <row r="181" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G181" s="8"/>
+      <c r="H181" s="38"/>
+      <c r="I181" s="10"/>
+      <c r="J181" s="11"/>
+      <c r="K181" s="12"/>
+      <c r="L181" s="12"/>
+      <c r="M181" s="10"/>
+      <c r="N181" s="8"/>
+      <c r="O181" s="10"/>
+      <c r="P181" s="10"/>
+      <c r="Q181" s="10"/>
+    </row>
+    <row r="182" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G182" s="8"/>
+      <c r="H182" s="38"/>
+      <c r="I182" s="10"/>
+      <c r="J182" s="11"/>
+      <c r="K182" s="12"/>
+      <c r="L182" s="12"/>
+      <c r="M182" s="10"/>
+      <c r="N182" s="8"/>
+      <c r="O182" s="10"/>
+      <c r="P182" s="10"/>
+      <c r="Q182" s="10"/>
+    </row>
+    <row r="183" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G183" s="8"/>
+      <c r="H183" s="38"/>
+      <c r="I183" s="10"/>
+      <c r="J183" s="11"/>
+      <c r="K183" s="12"/>
+      <c r="L183" s="12"/>
+      <c r="M183" s="10"/>
+      <c r="N183" s="8"/>
+      <c r="O183" s="10"/>
+      <c r="P183" s="10"/>
+      <c r="Q183" s="10"/>
+    </row>
+    <row r="184" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G184" s="8"/>
+      <c r="H184" s="38"/>
+      <c r="I184" s="10"/>
+      <c r="J184" s="11"/>
+      <c r="K184" s="12"/>
+      <c r="L184" s="12"/>
+      <c r="M184" s="10"/>
+      <c r="N184" s="8"/>
+      <c r="O184" s="10"/>
+      <c r="P184" s="10"/>
+      <c r="Q184" s="10"/>
+    </row>
+    <row r="185" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G185" s="8"/>
+      <c r="H185" s="38"/>
+      <c r="I185" s="10"/>
+      <c r="J185" s="11"/>
+      <c r="K185" s="12"/>
+      <c r="L185" s="12"/>
+      <c r="M185" s="10"/>
+      <c r="N185" s="8"/>
+      <c r="O185" s="10"/>
+      <c r="P185" s="10"/>
+      <c r="Q185" s="10"/>
+    </row>
+    <row r="186" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G186" s="8"/>
+      <c r="H186" s="38"/>
+      <c r="I186" s="10"/>
+      <c r="J186" s="11"/>
+      <c r="K186" s="12"/>
+      <c r="L186" s="12"/>
+      <c r="M186" s="10"/>
+      <c r="N186" s="8"/>
+      <c r="O186" s="10"/>
+      <c r="P186" s="10"/>
+      <c r="Q186" s="10"/>
+    </row>
+    <row r="187" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G187" s="8"/>
+      <c r="H187" s="38"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="11"/>
+      <c r="K187" s="12"/>
+      <c r="L187" s="12"/>
+      <c r="M187" s="10"/>
+      <c r="N187" s="8"/>
+      <c r="O187" s="10"/>
+      <c r="P187" s="10"/>
+      <c r="Q187" s="10"/>
+    </row>
+    <row r="188" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G188" s="8"/>
+      <c r="H188" s="38"/>
+      <c r="I188" s="10"/>
+      <c r="J188" s="11"/>
+      <c r="K188" s="12"/>
+      <c r="L188" s="12"/>
+      <c r="M188" s="10"/>
+      <c r="N188" s="8"/>
+      <c r="O188" s="10"/>
+      <c r="P188" s="10"/>
+      <c r="Q188" s="10"/>
+    </row>
+    <row r="189" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G189" s="8"/>
+      <c r="H189" s="38"/>
+      <c r="I189" s="10"/>
+      <c r="J189" s="11"/>
+      <c r="K189" s="12"/>
+      <c r="L189" s="12"/>
+      <c r="M189" s="10"/>
+      <c r="N189" s="8"/>
+      <c r="O189" s="10"/>
+      <c r="P189" s="10"/>
+      <c r="Q189" s="10"/>
+    </row>
+    <row r="190" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G190" s="8"/>
+      <c r="H190" s="38"/>
+      <c r="I190" s="10"/>
+      <c r="J190" s="11"/>
+      <c r="K190" s="12"/>
+      <c r="L190" s="12"/>
+      <c r="M190" s="10"/>
+      <c r="N190" s="8"/>
+      <c r="O190" s="10"/>
+      <c r="P190" s="10"/>
+      <c r="Q190" s="10"/>
+    </row>
+    <row r="191" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G191" s="8"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="10"/>
+      <c r="J191" s="11"/>
+      <c r="K191" s="12"/>
+      <c r="L191" s="12"/>
+      <c r="M191" s="10"/>
+      <c r="N191" s="8"/>
+      <c r="O191" s="10"/>
+      <c r="P191" s="10"/>
+      <c r="Q191" s="10"/>
+    </row>
+    <row r="192" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G192" s="8"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="10"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="10"/>
+      <c r="N192" s="8"/>
+      <c r="O192" s="10"/>
+      <c r="P192" s="10"/>
+      <c r="Q192" s="10"/>
+    </row>
+    <row r="193" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G193" s="8"/>
+      <c r="H193" s="38"/>
+      <c r="I193" s="10"/>
+      <c r="J193" s="11"/>
+      <c r="K193" s="12"/>
+      <c r="L193" s="12"/>
+      <c r="M193" s="10"/>
+      <c r="N193" s="8"/>
+      <c r="O193" s="10"/>
+      <c r="P193" s="10"/>
+      <c r="Q193" s="10"/>
+    </row>
+    <row r="194" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G194" s="8"/>
+      <c r="H194" s="38"/>
+      <c r="I194" s="10"/>
+      <c r="J194" s="11"/>
+      <c r="K194" s="12"/>
+      <c r="L194" s="12"/>
+      <c r="M194" s="10"/>
+      <c r="N194" s="8"/>
+      <c r="O194" s="10"/>
+      <c r="P194" s="10"/>
+      <c r="Q194" s="10"/>
+    </row>
+    <row r="195" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G195" s="8"/>
+      <c r="H195" s="38"/>
+      <c r="I195" s="10"/>
+      <c r="J195" s="11"/>
+      <c r="K195" s="12"/>
+      <c r="L195" s="12"/>
+      <c r="M195" s="10"/>
+      <c r="N195" s="8"/>
+      <c r="O195" s="10"/>
+      <c r="P195" s="10"/>
+      <c r="Q195" s="10"/>
+    </row>
+    <row r="196" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G196" s="8"/>
+      <c r="H196" s="38"/>
+      <c r="I196" s="10"/>
+      <c r="J196" s="11"/>
+      <c r="K196" s="12"/>
+      <c r="L196" s="12"/>
+      <c r="M196" s="10"/>
+      <c r="N196" s="8"/>
+      <c r="O196" s="10"/>
+      <c r="P196" s="10"/>
+      <c r="Q196" s="10"/>
+    </row>
+    <row r="197" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G197" s="8"/>
+      <c r="H197" s="38"/>
+      <c r="I197" s="10"/>
+      <c r="J197" s="11"/>
+      <c r="K197" s="12"/>
+      <c r="L197" s="12"/>
+      <c r="M197" s="10"/>
+      <c r="N197" s="8"/>
+      <c r="O197" s="10"/>
+      <c r="P197" s="10"/>
+      <c r="Q197" s="10"/>
+    </row>
+    <row r="198" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G198" s="8"/>
+      <c r="H198" s="38"/>
+      <c r="I198" s="10"/>
+      <c r="J198" s="11"/>
+      <c r="K198" s="12"/>
+      <c r="L198" s="12"/>
+      <c r="M198" s="10"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="10"/>
+      <c r="P198" s="10"/>
+      <c r="Q198" s="10"/>
+    </row>
+    <row r="199" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G199" s="8"/>
+      <c r="H199" s="38"/>
+      <c r="I199" s="10"/>
+      <c r="J199" s="11"/>
+      <c r="K199" s="12"/>
+      <c r="L199" s="12"/>
+      <c r="M199" s="10"/>
+      <c r="N199" s="8"/>
+      <c r="O199" s="10"/>
+      <c r="P199" s="10"/>
+      <c r="Q199" s="10"/>
+    </row>
+    <row r="200" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G200" s="8"/>
+      <c r="H200" s="38"/>
+      <c r="I200" s="10"/>
+      <c r="J200" s="11"/>
+      <c r="K200" s="12"/>
+      <c r="L200" s="12"/>
+      <c r="M200" s="10"/>
+      <c r="N200" s="8"/>
+      <c r="O200" s="10"/>
+      <c r="P200" s="10"/>
+      <c r="Q200" s="10"/>
+    </row>
+    <row r="201" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G201" s="8"/>
+      <c r="H201" s="38"/>
+      <c r="I201" s="10"/>
+      <c r="J201" s="11"/>
+      <c r="K201" s="12"/>
+      <c r="L201" s="12"/>
+      <c r="M201" s="10"/>
+      <c r="N201" s="8"/>
+      <c r="O201" s="10"/>
+      <c r="P201" s="10"/>
+      <c r="Q201" s="10"/>
+    </row>
+    <row r="202" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G202" s="8"/>
+      <c r="H202" s="38"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="11"/>
+      <c r="K202" s="12"/>
+      <c r="L202" s="12"/>
+      <c r="M202" s="10"/>
+      <c r="N202" s="8"/>
+      <c r="O202" s="10"/>
+      <c r="P202" s="10"/>
+      <c r="Q202" s="10"/>
+    </row>
+    <row r="203" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G203" s="8"/>
+      <c r="H203" s="38"/>
+      <c r="I203" s="10"/>
+      <c r="J203" s="11"/>
+      <c r="K203" s="12"/>
+      <c r="L203" s="12"/>
+      <c r="M203" s="10"/>
+      <c r="N203" s="8"/>
+      <c r="O203" s="10"/>
+      <c r="P203" s="10"/>
+      <c r="Q203" s="10"/>
+    </row>
+    <row r="204" spans="7:17" x14ac:dyDescent="0.2">
+      <c r="G204" s="8"/>
+      <c r="H204" s="38"/>
+      <c r="I204" s="10"/>
+      <c r="J204" s="11"/>
+      <c r="K204" s="12"/>
+      <c r="L204" s="12"/>
+      <c r="M204" s="10"/>
+      <c r="N204" s="8"/>
+      <c r="O204" s="10"/>
+      <c r="P204" s="10"/>
+      <c r="Q204" s="10"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD7FF3-3014-E540-B371-93725F8A5AE7}">
+  <dimension ref="B2:Z204"/>
+  <sheetViews>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11.83203125" style="29" customWidth="1"/>
+    <col min="3" max="3" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="6" customWidth="1"/>
+    <col min="6" max="6" width="13.6640625" style="15" customWidth="1"/>
+    <col min="7" max="7" width="12.83203125" style="6" customWidth="1"/>
+    <col min="8" max="8" width="13.1640625" style="15" customWidth="1"/>
+    <col min="9" max="9" width="16.5" style="24" customWidth="1"/>
+    <col min="10" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.83203125" style="6" customWidth="1"/>
+    <col min="13" max="13" width="14.33203125" style="24" customWidth="1"/>
+    <col min="14" max="14" width="12.33203125" style="6" customWidth="1"/>
+    <col min="15" max="15" width="13.5" style="24" customWidth="1"/>
+    <col min="16" max="16" width="14.33203125" style="24" customWidth="1"/>
+    <col min="17" max="17" width="15.33203125" style="24" customWidth="1"/>
+    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="13.1640625" style="23" customWidth="1"/>
+    <col min="24" max="24" width="16.33203125" style="15" customWidth="1"/>
+    <col min="25" max="25" width="18" style="15" customWidth="1"/>
+    <col min="26" max="26" width="12" style="15" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:26" ht="19" x14ac:dyDescent="0.25">
+      <c r="G2" s="56" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="2:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="V3" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="W3" s="20"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
+    </row>
+    <row r="4" spans="2:26" s="1" customFormat="1" ht="115" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="H4" s="36" t="s">
         <v>28</v>
       </c>
       <c r="I4" s="25" t="s">
@@ -4324,13 +7276,13 @@
       <c r="W4" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="X4" s="41" t="s">
+      <c r="X4" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="Z4" s="42" t="s">
+      <c r="Z4" s="41" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4339,9 +7291,9 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5" s="38"/>
+      <c r="F5" s="37"/>
       <c r="G5" s="4"/>
-      <c r="H5" s="38"/>
+      <c r="H5" s="37"/>
       <c r="I5" s="27" t="s">
         <v>6</v>
       </c>
@@ -4368,9 +7320,9 @@
       <c r="Z5" s="14"/>
     </row>
     <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
+      <c r="F6" s="38"/>
       <c r="G6" s="8"/>
-      <c r="H6" s="39"/>
+      <c r="H6" s="38"/>
       <c r="I6" s="10"/>
       <c r="J6" s="18"/>
       <c r="K6" s="19"/>
@@ -4384,9 +7336,9 @@
       <c r="T6" s="2"/>
     </row>
     <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
+      <c r="F7" s="38"/>
       <c r="G7" s="8"/>
-      <c r="H7" s="39"/>
+      <c r="H7" s="38"/>
       <c r="I7" s="10"/>
       <c r="J7" s="18"/>
       <c r="K7" s="19"/>
@@ -4398,9 +7350,9 @@
       <c r="Q7" s="10"/>
     </row>
     <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="8"/>
-      <c r="H8" s="39"/>
+      <c r="H8" s="38"/>
       <c r="I8" s="10"/>
       <c r="J8" s="18"/>
       <c r="K8" s="19"/>
@@ -4412,9 +7364,9 @@
       <c r="Q8" s="10"/>
     </row>
     <row r="9" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="8"/>
-      <c r="H9" s="39"/>
+      <c r="H9" s="38"/>
       <c r="I9" s="10"/>
       <c r="J9" s="18"/>
       <c r="K9" s="19"/>
@@ -4426,9 +7378,9 @@
       <c r="Q9" s="10"/>
     </row>
     <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="8"/>
-      <c r="H10" s="39"/>
+      <c r="H10" s="38"/>
       <c r="I10" s="10"/>
       <c r="J10" s="18"/>
       <c r="K10" s="19"/>
@@ -4440,9 +7392,9 @@
       <c r="Q10" s="10"/>
     </row>
     <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="8"/>
-      <c r="H11" s="39"/>
+      <c r="H11" s="38"/>
       <c r="I11" s="10"/>
       <c r="J11" s="18"/>
       <c r="K11" s="19"/>
@@ -4454,9 +7406,9 @@
       <c r="Q11" s="10"/>
     </row>
     <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
+      <c r="F12" s="38"/>
       <c r="G12" s="8"/>
-      <c r="H12" s="39"/>
+      <c r="H12" s="38"/>
       <c r="I12" s="10"/>
       <c r="J12" s="18"/>
       <c r="K12" s="19"/>
@@ -4468,9 +7420,9 @@
       <c r="Q12" s="10"/>
     </row>
     <row r="13" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
+      <c r="F13" s="38"/>
       <c r="G13" s="8"/>
-      <c r="H13" s="39"/>
+      <c r="H13" s="38"/>
       <c r="I13" s="10"/>
       <c r="J13" s="18"/>
       <c r="K13" s="19"/>
@@ -4482,9 +7434,9 @@
       <c r="Q13" s="10"/>
     </row>
     <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
+      <c r="F14" s="38"/>
       <c r="G14" s="8"/>
-      <c r="H14" s="39"/>
+      <c r="H14" s="38"/>
       <c r="I14" s="10"/>
       <c r="J14" s="18"/>
       <c r="K14" s="19"/>
@@ -4496,9 +7448,9 @@
       <c r="Q14" s="10"/>
     </row>
     <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
+      <c r="F15" s="38"/>
       <c r="G15" s="8"/>
-      <c r="H15" s="39"/>
+      <c r="H15" s="38"/>
       <c r="I15" s="10"/>
       <c r="J15" s="18"/>
       <c r="K15" s="19"/>
@@ -4510,9 +7462,9 @@
       <c r="Q15" s="10"/>
     </row>
     <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
+      <c r="F16" s="38"/>
       <c r="G16" s="8"/>
-      <c r="H16" s="39"/>
+      <c r="H16" s="38"/>
       <c r="I16" s="10"/>
       <c r="J16" s="18"/>
       <c r="K16" s="19"/>
@@ -4524,9 +7476,9 @@
       <c r="Q16" s="10"/>
     </row>
     <row r="17" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
+      <c r="F17" s="38"/>
       <c r="G17" s="8"/>
-      <c r="H17" s="39"/>
+      <c r="H17" s="38"/>
       <c r="I17" s="10"/>
       <c r="J17" s="18"/>
       <c r="K17" s="19"/>
@@ -4538,9 +7490,9 @@
       <c r="Q17" s="10"/>
     </row>
     <row r="18" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
+      <c r="F18" s="38"/>
       <c r="G18" s="8"/>
-      <c r="H18" s="39"/>
+      <c r="H18" s="38"/>
       <c r="I18" s="10"/>
       <c r="J18" s="18"/>
       <c r="K18" s="19"/>
@@ -4552,9 +7504,9 @@
       <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
+      <c r="F19" s="38"/>
       <c r="G19" s="8"/>
-      <c r="H19" s="39"/>
+      <c r="H19" s="38"/>
       <c r="I19" s="10"/>
       <c r="J19" s="18"/>
       <c r="K19" s="19"/>
@@ -4566,9 +7518,9 @@
       <c r="Q19" s="10"/>
     </row>
     <row r="20" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
+      <c r="F20" s="38"/>
       <c r="G20" s="8"/>
-      <c r="H20" s="39"/>
+      <c r="H20" s="38"/>
       <c r="I20" s="10"/>
       <c r="J20" s="18"/>
       <c r="K20" s="19"/>
@@ -4580,9 +7532,9 @@
       <c r="Q20" s="10"/>
     </row>
     <row r="21" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
+      <c r="F21" s="38"/>
       <c r="G21" s="8"/>
-      <c r="H21" s="39"/>
+      <c r="H21" s="38"/>
       <c r="I21" s="10"/>
       <c r="J21" s="18"/>
       <c r="K21" s="19"/>
@@ -4594,9 +7546,9 @@
       <c r="Q21" s="10"/>
     </row>
     <row r="22" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
+      <c r="F22" s="38"/>
       <c r="G22" s="8"/>
-      <c r="H22" s="39"/>
+      <c r="H22" s="38"/>
       <c r="I22" s="10"/>
       <c r="J22" s="18"/>
       <c r="K22" s="19"/>
@@ -4608,9 +7560,9 @@
       <c r="Q22" s="10"/>
     </row>
     <row r="23" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
+      <c r="F23" s="38"/>
       <c r="G23" s="8"/>
-      <c r="H23" s="39"/>
+      <c r="H23" s="38"/>
       <c r="I23" s="10"/>
       <c r="J23" s="18"/>
       <c r="K23" s="19"/>
@@ -4622,9 +7574,9 @@
       <c r="Q23" s="10"/>
     </row>
     <row r="24" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
+      <c r="F24" s="38"/>
       <c r="G24" s="8"/>
-      <c r="H24" s="39"/>
+      <c r="H24" s="38"/>
       <c r="I24" s="10"/>
       <c r="J24" s="18"/>
       <c r="K24" s="19"/>
@@ -4636,9 +7588,9 @@
       <c r="Q24" s="10"/>
     </row>
     <row r="25" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
+      <c r="F25" s="38"/>
       <c r="G25" s="8"/>
-      <c r="H25" s="39"/>
+      <c r="H25" s="38"/>
       <c r="I25" s="10"/>
       <c r="J25" s="18"/>
       <c r="K25" s="19"/>
@@ -4650,9 +7602,9 @@
       <c r="Q25" s="10"/>
     </row>
     <row r="26" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
+      <c r="F26" s="38"/>
       <c r="G26" s="8"/>
-      <c r="H26" s="39"/>
+      <c r="H26" s="38"/>
       <c r="I26" s="10"/>
       <c r="J26" s="18"/>
       <c r="K26" s="19"/>
@@ -4664,9 +7616,9 @@
       <c r="Q26" s="10"/>
     </row>
     <row r="27" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
+      <c r="F27" s="38"/>
       <c r="G27" s="8"/>
-      <c r="H27" s="39"/>
+      <c r="H27" s="38"/>
       <c r="I27" s="10"/>
       <c r="J27" s="18"/>
       <c r="K27" s="19"/>
@@ -4678,9 +7630,9 @@
       <c r="Q27" s="10"/>
     </row>
     <row r="28" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
+      <c r="F28" s="38"/>
       <c r="G28" s="8"/>
-      <c r="H28" s="39"/>
+      <c r="H28" s="38"/>
       <c r="I28" s="10"/>
       <c r="J28" s="18"/>
       <c r="K28" s="19"/>
@@ -4692,9 +7644,9 @@
       <c r="Q28" s="10"/>
     </row>
     <row r="29" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
+      <c r="F29" s="38"/>
       <c r="G29" s="8"/>
-      <c r="H29" s="39"/>
+      <c r="H29" s="38"/>
       <c r="I29" s="10"/>
       <c r="J29" s="18"/>
       <c r="K29" s="19"/>
@@ -4706,9 +7658,9 @@
       <c r="Q29" s="10"/>
     </row>
     <row r="30" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F30" s="39"/>
+      <c r="F30" s="38"/>
       <c r="G30" s="8"/>
-      <c r="H30" s="39"/>
+      <c r="H30" s="38"/>
       <c r="I30" s="10"/>
       <c r="J30" s="18"/>
       <c r="K30" s="19"/>
@@ -4720,9 +7672,9 @@
       <c r="Q30" s="10"/>
     </row>
     <row r="31" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F31" s="39"/>
+      <c r="F31" s="38"/>
       <c r="G31" s="8"/>
-      <c r="H31" s="39"/>
+      <c r="H31" s="38"/>
       <c r="I31" s="10"/>
       <c r="J31" s="18"/>
       <c r="K31" s="19"/>
@@ -4734,9 +7686,9 @@
       <c r="Q31" s="10"/>
     </row>
     <row r="32" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F32" s="39"/>
+      <c r="F32" s="38"/>
       <c r="G32" s="8"/>
-      <c r="H32" s="39"/>
+      <c r="H32" s="38"/>
       <c r="I32" s="10"/>
       <c r="J32" s="18"/>
       <c r="K32" s="19"/>
@@ -4748,9 +7700,9 @@
       <c r="Q32" s="10"/>
     </row>
     <row r="33" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F33" s="39"/>
+      <c r="F33" s="38"/>
       <c r="G33" s="8"/>
-      <c r="H33" s="39"/>
+      <c r="H33" s="38"/>
       <c r="I33" s="10"/>
       <c r="J33" s="18"/>
       <c r="K33" s="19"/>
@@ -4762,9 +7714,9 @@
       <c r="Q33" s="10"/>
     </row>
     <row r="34" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F34" s="39"/>
+      <c r="F34" s="38"/>
       <c r="G34" s="8"/>
-      <c r="H34" s="39"/>
+      <c r="H34" s="38"/>
       <c r="I34" s="10"/>
       <c r="J34" s="18"/>
       <c r="K34" s="19"/>
@@ -4776,9 +7728,9 @@
       <c r="Q34" s="10"/>
     </row>
     <row r="35" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F35" s="39"/>
+      <c r="F35" s="38"/>
       <c r="G35" s="8"/>
-      <c r="H35" s="39"/>
+      <c r="H35" s="38"/>
       <c r="I35" s="10"/>
       <c r="J35" s="18"/>
       <c r="K35" s="19"/>
@@ -4790,9 +7742,9 @@
       <c r="Q35" s="10"/>
     </row>
     <row r="36" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F36" s="39"/>
+      <c r="F36" s="38"/>
       <c r="G36" s="8"/>
-      <c r="H36" s="39"/>
+      <c r="H36" s="38"/>
       <c r="I36" s="10"/>
       <c r="J36" s="18"/>
       <c r="K36" s="19"/>
@@ -4804,9 +7756,9 @@
       <c r="Q36" s="10"/>
     </row>
     <row r="37" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F37" s="39"/>
+      <c r="F37" s="38"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="39"/>
+      <c r="H37" s="38"/>
       <c r="I37" s="10"/>
       <c r="J37" s="18"/>
       <c r="K37" s="19"/>
@@ -4818,9 +7770,9 @@
       <c r="Q37" s="10"/>
     </row>
     <row r="38" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F38" s="39"/>
+      <c r="F38" s="38"/>
       <c r="G38" s="8"/>
-      <c r="H38" s="39"/>
+      <c r="H38" s="38"/>
       <c r="I38" s="10"/>
       <c r="J38" s="18"/>
       <c r="K38" s="19"/>
@@ -4832,9 +7784,9 @@
       <c r="Q38" s="10"/>
     </row>
     <row r="39" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F39" s="39"/>
+      <c r="F39" s="38"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="39"/>
+      <c r="H39" s="38"/>
       <c r="I39" s="10"/>
       <c r="J39" s="18"/>
       <c r="K39" s="19"/>
@@ -4846,9 +7798,9 @@
       <c r="Q39" s="10"/>
     </row>
     <row r="40" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F40" s="39"/>
+      <c r="F40" s="38"/>
       <c r="G40" s="8"/>
-      <c r="H40" s="39"/>
+      <c r="H40" s="38"/>
       <c r="I40" s="10"/>
       <c r="J40" s="18"/>
       <c r="K40" s="19"/>
@@ -4860,9 +7812,9 @@
       <c r="Q40" s="10"/>
     </row>
     <row r="41" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F41" s="39"/>
+      <c r="F41" s="38"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="39"/>
+      <c r="H41" s="38"/>
       <c r="I41" s="10"/>
       <c r="J41" s="18"/>
       <c r="K41" s="19"/>
@@ -4874,9 +7826,9 @@
       <c r="Q41" s="10"/>
     </row>
     <row r="42" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F42" s="39"/>
+      <c r="F42" s="38"/>
       <c r="G42" s="8"/>
-      <c r="H42" s="39"/>
+      <c r="H42" s="38"/>
       <c r="I42" s="10"/>
       <c r="J42" s="18"/>
       <c r="K42" s="19"/>
@@ -4888,9 +7840,9 @@
       <c r="Q42" s="10"/>
     </row>
     <row r="43" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F43" s="39"/>
+      <c r="F43" s="38"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="39"/>
+      <c r="H43" s="38"/>
       <c r="I43" s="10"/>
       <c r="J43" s="18"/>
       <c r="K43" s="19"/>
@@ -4902,9 +7854,9 @@
       <c r="Q43" s="10"/>
     </row>
     <row r="44" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F44" s="39"/>
+      <c r="F44" s="38"/>
       <c r="G44" s="8"/>
-      <c r="H44" s="39"/>
+      <c r="H44" s="38"/>
       <c r="I44" s="10"/>
       <c r="J44" s="18"/>
       <c r="K44" s="19"/>
@@ -4916,9 +7868,9 @@
       <c r="Q44" s="10"/>
     </row>
     <row r="45" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F45" s="39"/>
+      <c r="F45" s="38"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="39"/>
+      <c r="H45" s="38"/>
       <c r="I45" s="10"/>
       <c r="J45" s="18"/>
       <c r="K45" s="19"/>
@@ -4930,9 +7882,9 @@
       <c r="Q45" s="10"/>
     </row>
     <row r="46" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F46" s="39"/>
+      <c r="F46" s="38"/>
       <c r="G46" s="8"/>
-      <c r="H46" s="39"/>
+      <c r="H46" s="38"/>
       <c r="I46" s="10"/>
       <c r="J46" s="18"/>
       <c r="K46" s="19"/>
@@ -4944,9 +7896,9 @@
       <c r="Q46" s="10"/>
     </row>
     <row r="47" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F47" s="39"/>
+      <c r="F47" s="38"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="39"/>
+      <c r="H47" s="38"/>
       <c r="I47" s="10"/>
       <c r="J47" s="18"/>
       <c r="K47" s="19"/>
@@ -4958,9 +7910,9 @@
       <c r="Q47" s="10"/>
     </row>
     <row r="48" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F48" s="39"/>
+      <c r="F48" s="38"/>
       <c r="G48" s="8"/>
-      <c r="H48" s="39"/>
+      <c r="H48" s="38"/>
       <c r="I48" s="10"/>
       <c r="J48" s="18"/>
       <c r="K48" s="19"/>
@@ -4972,9 +7924,9 @@
       <c r="Q48" s="10"/>
     </row>
     <row r="49" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F49" s="39"/>
+      <c r="F49" s="38"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="39"/>
+      <c r="H49" s="38"/>
       <c r="I49" s="10"/>
       <c r="J49" s="18"/>
       <c r="K49" s="19"/>
@@ -4986,9 +7938,9 @@
       <c r="Q49" s="10"/>
     </row>
     <row r="50" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F50" s="39"/>
+      <c r="F50" s="38"/>
       <c r="G50" s="8"/>
-      <c r="H50" s="39"/>
+      <c r="H50" s="38"/>
       <c r="I50" s="10"/>
       <c r="J50" s="18"/>
       <c r="K50" s="19"/>
@@ -5000,9 +7952,9 @@
       <c r="Q50" s="10"/>
     </row>
     <row r="51" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F51" s="39"/>
+      <c r="F51" s="38"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="39"/>
+      <c r="H51" s="38"/>
       <c r="I51" s="10"/>
       <c r="J51" s="18"/>
       <c r="K51" s="19"/>
@@ -5014,9 +7966,9 @@
       <c r="Q51" s="10"/>
     </row>
     <row r="52" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F52" s="39"/>
+      <c r="F52" s="38"/>
       <c r="G52" s="8"/>
-      <c r="H52" s="39"/>
+      <c r="H52" s="38"/>
       <c r="I52" s="10"/>
       <c r="J52" s="18"/>
       <c r="K52" s="19"/>
@@ -5028,9 +7980,9 @@
       <c r="Q52" s="10"/>
     </row>
     <row r="53" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F53" s="39"/>
+      <c r="F53" s="38"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="39"/>
+      <c r="H53" s="38"/>
       <c r="I53" s="10"/>
       <c r="J53" s="18"/>
       <c r="K53" s="19"/>
@@ -5042,9 +7994,9 @@
       <c r="Q53" s="10"/>
     </row>
     <row r="54" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F54" s="39"/>
+      <c r="F54" s="38"/>
       <c r="G54" s="8"/>
-      <c r="H54" s="39"/>
+      <c r="H54" s="38"/>
       <c r="I54" s="10"/>
       <c r="J54" s="18"/>
       <c r="K54" s="19"/>
@@ -5056,9 +8008,9 @@
       <c r="Q54" s="10"/>
     </row>
     <row r="55" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F55" s="39"/>
+      <c r="F55" s="38"/>
       <c r="G55" s="8"/>
-      <c r="H55" s="39"/>
+      <c r="H55" s="38"/>
       <c r="I55" s="10"/>
       <c r="J55" s="18"/>
       <c r="K55" s="19"/>
@@ -5070,9 +8022,9 @@
       <c r="Q55" s="10"/>
     </row>
     <row r="56" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F56" s="39"/>
+      <c r="F56" s="38"/>
       <c r="G56" s="8"/>
-      <c r="H56" s="39"/>
+      <c r="H56" s="38"/>
       <c r="I56" s="10"/>
       <c r="J56" s="18"/>
       <c r="K56" s="19"/>
@@ -5084,9 +8036,9 @@
       <c r="Q56" s="10"/>
     </row>
     <row r="57" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F57" s="39"/>
+      <c r="F57" s="38"/>
       <c r="G57" s="8"/>
-      <c r="H57" s="39"/>
+      <c r="H57" s="38"/>
       <c r="I57" s="10"/>
       <c r="J57" s="18"/>
       <c r="K57" s="19"/>
@@ -5098,9 +8050,9 @@
       <c r="Q57" s="10"/>
     </row>
     <row r="58" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F58" s="39"/>
+      <c r="F58" s="38"/>
       <c r="G58" s="8"/>
-      <c r="H58" s="39"/>
+      <c r="H58" s="38"/>
       <c r="I58" s="10"/>
       <c r="J58" s="18"/>
       <c r="K58" s="19"/>
@@ -5112,9 +8064,9 @@
       <c r="Q58" s="10"/>
     </row>
     <row r="59" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F59" s="39"/>
+      <c r="F59" s="38"/>
       <c r="G59" s="8"/>
-      <c r="H59" s="39"/>
+      <c r="H59" s="38"/>
       <c r="I59" s="10"/>
       <c r="J59" s="18"/>
       <c r="K59" s="19"/>
@@ -5126,9 +8078,9 @@
       <c r="Q59" s="10"/>
     </row>
     <row r="60" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F60" s="39"/>
+      <c r="F60" s="38"/>
       <c r="G60" s="8"/>
-      <c r="H60" s="39"/>
+      <c r="H60" s="38"/>
       <c r="I60" s="10"/>
       <c r="J60" s="18"/>
       <c r="K60" s="19"/>
@@ -5140,9 +8092,9 @@
       <c r="Q60" s="10"/>
     </row>
     <row r="61" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F61" s="39"/>
+      <c r="F61" s="38"/>
       <c r="G61" s="8"/>
-      <c r="H61" s="39"/>
+      <c r="H61" s="38"/>
       <c r="I61" s="10"/>
       <c r="J61" s="18"/>
       <c r="K61" s="19"/>
@@ -5154,9 +8106,9 @@
       <c r="Q61" s="10"/>
     </row>
     <row r="62" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F62" s="39"/>
+      <c r="F62" s="38"/>
       <c r="G62" s="8"/>
-      <c r="H62" s="39"/>
+      <c r="H62" s="38"/>
       <c r="I62" s="10"/>
       <c r="J62" s="18"/>
       <c r="K62" s="19"/>
@@ -5168,9 +8120,9 @@
       <c r="Q62" s="10"/>
     </row>
     <row r="63" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F63" s="39"/>
+      <c r="F63" s="38"/>
       <c r="G63" s="8"/>
-      <c r="H63" s="39"/>
+      <c r="H63" s="38"/>
       <c r="I63" s="10"/>
       <c r="J63" s="18"/>
       <c r="K63" s="19"/>
@@ -5182,9 +8134,9 @@
       <c r="Q63" s="10"/>
     </row>
     <row r="64" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F64" s="39"/>
+      <c r="F64" s="38"/>
       <c r="G64" s="8"/>
-      <c r="H64" s="39"/>
+      <c r="H64" s="38"/>
       <c r="I64" s="10"/>
       <c r="J64" s="18"/>
       <c r="K64" s="19"/>
@@ -5196,9 +8148,9 @@
       <c r="Q64" s="10"/>
     </row>
     <row r="65" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F65" s="39"/>
+      <c r="F65" s="38"/>
       <c r="G65" s="8"/>
-      <c r="H65" s="39"/>
+      <c r="H65" s="38"/>
       <c r="I65" s="10"/>
       <c r="J65" s="18"/>
       <c r="K65" s="19"/>
@@ -5210,9 +8162,9 @@
       <c r="Q65" s="10"/>
     </row>
     <row r="66" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F66" s="39"/>
+      <c r="F66" s="38"/>
       <c r="G66" s="8"/>
-      <c r="H66" s="39"/>
+      <c r="H66" s="38"/>
       <c r="I66" s="10"/>
       <c r="J66" s="18"/>
       <c r="K66" s="19"/>
@@ -5224,9 +8176,9 @@
       <c r="Q66" s="10"/>
     </row>
     <row r="67" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F67" s="39"/>
+      <c r="F67" s="38"/>
       <c r="G67" s="8"/>
-      <c r="H67" s="39"/>
+      <c r="H67" s="38"/>
       <c r="I67" s="10"/>
       <c r="J67" s="18"/>
       <c r="K67" s="19"/>
@@ -5238,9 +8190,9 @@
       <c r="Q67" s="10"/>
     </row>
     <row r="68" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F68" s="39"/>
+      <c r="F68" s="38"/>
       <c r="G68" s="8"/>
-      <c r="H68" s="39"/>
+      <c r="H68" s="38"/>
       <c r="I68" s="10"/>
       <c r="J68" s="18"/>
       <c r="K68" s="19"/>
@@ -5252,9 +8204,9 @@
       <c r="Q68" s="10"/>
     </row>
     <row r="69" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F69" s="39"/>
+      <c r="F69" s="38"/>
       <c r="G69" s="8"/>
-      <c r="H69" s="39"/>
+      <c r="H69" s="38"/>
       <c r="I69" s="10"/>
       <c r="J69" s="18"/>
       <c r="K69" s="19"/>
@@ -5266,9 +8218,9 @@
       <c r="Q69" s="10"/>
     </row>
     <row r="70" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F70" s="39"/>
+      <c r="F70" s="38"/>
       <c r="G70" s="8"/>
-      <c r="H70" s="39"/>
+      <c r="H70" s="38"/>
       <c r="I70" s="10"/>
       <c r="J70" s="18"/>
       <c r="K70" s="19"/>
@@ -5280,9 +8232,9 @@
       <c r="Q70" s="10"/>
     </row>
     <row r="71" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F71" s="39"/>
+      <c r="F71" s="38"/>
       <c r="G71" s="8"/>
-      <c r="H71" s="39"/>
+      <c r="H71" s="38"/>
       <c r="I71" s="10"/>
       <c r="J71" s="18"/>
       <c r="K71" s="19"/>
@@ -5294,9 +8246,9 @@
       <c r="Q71" s="10"/>
     </row>
     <row r="72" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F72" s="39"/>
+      <c r="F72" s="38"/>
       <c r="G72" s="8"/>
-      <c r="H72" s="39"/>
+      <c r="H72" s="38"/>
       <c r="I72" s="10"/>
       <c r="J72" s="18"/>
       <c r="K72" s="19"/>
@@ -5308,9 +8260,9 @@
       <c r="Q72" s="10"/>
     </row>
     <row r="73" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F73" s="39"/>
+      <c r="F73" s="38"/>
       <c r="G73" s="8"/>
-      <c r="H73" s="39"/>
+      <c r="H73" s="38"/>
       <c r="I73" s="10"/>
       <c r="J73" s="18"/>
       <c r="K73" s="19"/>
@@ -5322,9 +8274,9 @@
       <c r="Q73" s="10"/>
     </row>
     <row r="74" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F74" s="39"/>
+      <c r="F74" s="38"/>
       <c r="G74" s="8"/>
-      <c r="H74" s="39"/>
+      <c r="H74" s="38"/>
       <c r="I74" s="10"/>
       <c r="J74" s="18"/>
       <c r="K74" s="19"/>
@@ -5336,9 +8288,9 @@
       <c r="Q74" s="10"/>
     </row>
     <row r="75" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F75" s="39"/>
+      <c r="F75" s="38"/>
       <c r="G75" s="8"/>
-      <c r="H75" s="39"/>
+      <c r="H75" s="38"/>
       <c r="I75" s="10"/>
       <c r="J75" s="18"/>
       <c r="K75" s="19"/>
@@ -5350,9 +8302,9 @@
       <c r="Q75" s="10"/>
     </row>
     <row r="76" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F76" s="39"/>
+      <c r="F76" s="38"/>
       <c r="G76" s="8"/>
-      <c r="H76" s="39"/>
+      <c r="H76" s="38"/>
       <c r="I76" s="10"/>
       <c r="J76" s="18"/>
       <c r="K76" s="19"/>
@@ -5364,9 +8316,9 @@
       <c r="Q76" s="10"/>
     </row>
     <row r="77" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F77" s="39"/>
+      <c r="F77" s="38"/>
       <c r="G77" s="8"/>
-      <c r="H77" s="39"/>
+      <c r="H77" s="38"/>
       <c r="I77" s="10"/>
       <c r="J77" s="18"/>
       <c r="K77" s="19"/>
@@ -5378,9 +8330,9 @@
       <c r="Q77" s="10"/>
     </row>
     <row r="78" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F78" s="39"/>
+      <c r="F78" s="38"/>
       <c r="G78" s="8"/>
-      <c r="H78" s="39"/>
+      <c r="H78" s="38"/>
       <c r="I78" s="10"/>
       <c r="J78" s="18"/>
       <c r="K78" s="19"/>
@@ -5392,9 +8344,9 @@
       <c r="Q78" s="10"/>
     </row>
     <row r="79" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F79" s="39"/>
+      <c r="F79" s="38"/>
       <c r="G79" s="8"/>
-      <c r="H79" s="39"/>
+      <c r="H79" s="38"/>
       <c r="I79" s="10"/>
       <c r="J79" s="18"/>
       <c r="K79" s="19"/>
@@ -5406,9 +8358,9 @@
       <c r="Q79" s="10"/>
     </row>
     <row r="80" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F80" s="39"/>
+      <c r="F80" s="38"/>
       <c r="G80" s="8"/>
-      <c r="H80" s="39"/>
+      <c r="H80" s="38"/>
       <c r="I80" s="10"/>
       <c r="J80" s="18"/>
       <c r="K80" s="19"/>
@@ -5420,9 +8372,9 @@
       <c r="Q80" s="10"/>
     </row>
     <row r="81" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F81" s="39"/>
+      <c r="F81" s="38"/>
       <c r="G81" s="8"/>
-      <c r="H81" s="39"/>
+      <c r="H81" s="38"/>
       <c r="I81" s="10"/>
       <c r="J81" s="18"/>
       <c r="K81" s="19"/>
@@ -5434,9 +8386,9 @@
       <c r="Q81" s="10"/>
     </row>
     <row r="82" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F82" s="39"/>
+      <c r="F82" s="38"/>
       <c r="G82" s="8"/>
-      <c r="H82" s="39"/>
+      <c r="H82" s="38"/>
       <c r="I82" s="10"/>
       <c r="J82" s="18"/>
       <c r="K82" s="19"/>
@@ -5448,9 +8400,9 @@
       <c r="Q82" s="10"/>
     </row>
     <row r="83" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F83" s="39"/>
+      <c r="F83" s="38"/>
       <c r="G83" s="8"/>
-      <c r="H83" s="39"/>
+      <c r="H83" s="38"/>
       <c r="I83" s="10"/>
       <c r="J83" s="18"/>
       <c r="K83" s="19"/>
@@ -5462,9 +8414,9 @@
       <c r="Q83" s="10"/>
     </row>
     <row r="84" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F84" s="39"/>
+      <c r="F84" s="38"/>
       <c r="G84" s="8"/>
-      <c r="H84" s="39"/>
+      <c r="H84" s="38"/>
       <c r="I84" s="10"/>
       <c r="J84" s="18"/>
       <c r="K84" s="19"/>
@@ -5476,9 +8428,9 @@
       <c r="Q84" s="10"/>
     </row>
     <row r="85" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F85" s="39"/>
+      <c r="F85" s="38"/>
       <c r="G85" s="8"/>
-      <c r="H85" s="39"/>
+      <c r="H85" s="38"/>
       <c r="I85" s="10"/>
       <c r="J85" s="18"/>
       <c r="K85" s="19"/>
@@ -5490,9 +8442,9 @@
       <c r="Q85" s="10"/>
     </row>
     <row r="86" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F86" s="39"/>
+      <c r="F86" s="38"/>
       <c r="G86" s="8"/>
-      <c r="H86" s="39"/>
+      <c r="H86" s="38"/>
       <c r="I86" s="10"/>
       <c r="J86" s="18"/>
       <c r="K86" s="19"/>
@@ -5504,9 +8456,9 @@
       <c r="Q86" s="10"/>
     </row>
     <row r="87" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F87" s="39"/>
+      <c r="F87" s="38"/>
       <c r="G87" s="8"/>
-      <c r="H87" s="39"/>
+      <c r="H87" s="38"/>
       <c r="I87" s="10"/>
       <c r="J87" s="18"/>
       <c r="K87" s="19"/>
@@ -5518,9 +8470,9 @@
       <c r="Q87" s="10"/>
     </row>
     <row r="88" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F88" s="39"/>
+      <c r="F88" s="38"/>
       <c r="G88" s="8"/>
-      <c r="H88" s="39"/>
+      <c r="H88" s="38"/>
       <c r="I88" s="10"/>
       <c r="J88" s="18"/>
       <c r="K88" s="19"/>
@@ -5532,9 +8484,9 @@
       <c r="Q88" s="10"/>
     </row>
     <row r="89" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F89" s="39"/>
+      <c r="F89" s="38"/>
       <c r="G89" s="8"/>
-      <c r="H89" s="39"/>
+      <c r="H89" s="38"/>
       <c r="I89" s="10"/>
       <c r="J89" s="18"/>
       <c r="K89" s="19"/>
@@ -5546,9 +8498,9 @@
       <c r="Q89" s="10"/>
     </row>
     <row r="90" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F90" s="39"/>
+      <c r="F90" s="38"/>
       <c r="G90" s="8"/>
-      <c r="H90" s="39"/>
+      <c r="H90" s="38"/>
       <c r="I90" s="10"/>
       <c r="J90" s="18"/>
       <c r="K90" s="19"/>
@@ -5560,9 +8512,9 @@
       <c r="Q90" s="10"/>
     </row>
     <row r="91" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F91" s="39"/>
+      <c r="F91" s="38"/>
       <c r="G91" s="8"/>
-      <c r="H91" s="39"/>
+      <c r="H91" s="38"/>
       <c r="I91" s="10"/>
       <c r="J91" s="18"/>
       <c r="K91" s="19"/>
@@ -5574,9 +8526,9 @@
       <c r="Q91" s="10"/>
     </row>
     <row r="92" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F92" s="39"/>
+      <c r="F92" s="38"/>
       <c r="G92" s="8"/>
-      <c r="H92" s="39"/>
+      <c r="H92" s="38"/>
       <c r="I92" s="10"/>
       <c r="J92" s="18"/>
       <c r="K92" s="19"/>
@@ -5588,9 +8540,9 @@
       <c r="Q92" s="10"/>
     </row>
     <row r="93" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F93" s="39"/>
+      <c r="F93" s="38"/>
       <c r="G93" s="8"/>
-      <c r="H93" s="39"/>
+      <c r="H93" s="38"/>
       <c r="I93" s="10"/>
       <c r="J93" s="18"/>
       <c r="K93" s="19"/>
@@ -5602,9 +8554,9 @@
       <c r="Q93" s="10"/>
     </row>
     <row r="94" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F94" s="39"/>
+      <c r="F94" s="38"/>
       <c r="G94" s="8"/>
-      <c r="H94" s="39"/>
+      <c r="H94" s="38"/>
       <c r="I94" s="10"/>
       <c r="J94" s="18"/>
       <c r="K94" s="19"/>
@@ -5616,9 +8568,9 @@
       <c r="Q94" s="10"/>
     </row>
     <row r="95" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F95" s="39"/>
+      <c r="F95" s="38"/>
       <c r="G95" s="8"/>
-      <c r="H95" s="39"/>
+      <c r="H95" s="38"/>
       <c r="I95" s="10"/>
       <c r="J95" s="18"/>
       <c r="K95" s="19"/>
@@ -5630,9 +8582,9 @@
       <c r="Q95" s="10"/>
     </row>
     <row r="96" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F96" s="39"/>
+      <c r="F96" s="38"/>
       <c r="G96" s="8"/>
-      <c r="H96" s="39"/>
+      <c r="H96" s="38"/>
       <c r="I96" s="10"/>
       <c r="J96" s="18"/>
       <c r="K96" s="19"/>
@@ -5644,9 +8596,9 @@
       <c r="Q96" s="10"/>
     </row>
     <row r="97" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F97" s="39"/>
+      <c r="F97" s="38"/>
       <c r="G97" s="8"/>
-      <c r="H97" s="39"/>
+      <c r="H97" s="38"/>
       <c r="I97" s="10"/>
       <c r="J97" s="18"/>
       <c r="K97" s="19"/>
@@ -5658,9 +8610,9 @@
       <c r="Q97" s="10"/>
     </row>
     <row r="98" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F98" s="39"/>
+      <c r="F98" s="38"/>
       <c r="G98" s="8"/>
-      <c r="H98" s="39"/>
+      <c r="H98" s="38"/>
       <c r="I98" s="10"/>
       <c r="J98" s="18"/>
       <c r="K98" s="19"/>
@@ -5672,9 +8624,9 @@
       <c r="Q98" s="10"/>
     </row>
     <row r="99" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F99" s="39"/>
+      <c r="F99" s="38"/>
       <c r="G99" s="8"/>
-      <c r="H99" s="39"/>
+      <c r="H99" s="38"/>
       <c r="I99" s="10"/>
       <c r="J99" s="18"/>
       <c r="K99" s="19"/>
@@ -5686,9 +8638,9 @@
       <c r="Q99" s="10"/>
     </row>
     <row r="100" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F100" s="39"/>
+      <c r="F100" s="38"/>
       <c r="G100" s="8"/>
-      <c r="H100" s="39"/>
+      <c r="H100" s="38"/>
       <c r="I100" s="10"/>
       <c r="J100" s="18"/>
       <c r="K100" s="19"/>
@@ -5700,9 +8652,9 @@
       <c r="Q100" s="10"/>
     </row>
     <row r="101" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F101" s="39"/>
+      <c r="F101" s="38"/>
       <c r="G101" s="8"/>
-      <c r="H101" s="39"/>
+      <c r="H101" s="38"/>
       <c r="I101" s="10"/>
       <c r="J101" s="11"/>
       <c r="K101" s="12"/>
@@ -5714,9 +8666,9 @@
       <c r="Q101" s="10"/>
     </row>
     <row r="102" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F102" s="39"/>
+      <c r="F102" s="38"/>
       <c r="G102" s="8"/>
-      <c r="H102" s="39"/>
+      <c r="H102" s="38"/>
       <c r="I102" s="10"/>
       <c r="J102" s="11"/>
       <c r="K102" s="12"/>
@@ -5728,9 +8680,9 @@
       <c r="Q102" s="10"/>
     </row>
     <row r="103" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F103" s="39"/>
+      <c r="F103" s="38"/>
       <c r="G103" s="8"/>
-      <c r="H103" s="39"/>
+      <c r="H103" s="38"/>
       <c r="I103" s="10"/>
       <c r="J103" s="11"/>
       <c r="K103" s="12"/>
@@ -5742,9 +8694,9 @@
       <c r="Q103" s="10"/>
     </row>
     <row r="104" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F104" s="39"/>
+      <c r="F104" s="38"/>
       <c r="G104" s="8"/>
-      <c r="H104" s="39"/>
+      <c r="H104" s="38"/>
       <c r="I104" s="10"/>
       <c r="J104" s="11"/>
       <c r="K104" s="12"/>
@@ -5756,9 +8708,9 @@
       <c r="Q104" s="10"/>
     </row>
     <row r="105" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F105" s="39"/>
+      <c r="F105" s="38"/>
       <c r="G105" s="8"/>
-      <c r="H105" s="39"/>
+      <c r="H105" s="38"/>
       <c r="I105" s="10"/>
       <c r="J105" s="11"/>
       <c r="K105" s="12"/>
@@ -5770,9 +8722,9 @@
       <c r="Q105" s="10"/>
     </row>
     <row r="106" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F106" s="39"/>
+      <c r="F106" s="38"/>
       <c r="G106" s="8"/>
-      <c r="H106" s="39"/>
+      <c r="H106" s="38"/>
       <c r="I106" s="10"/>
       <c r="J106" s="11"/>
       <c r="K106" s="12"/>
@@ -5784,9 +8736,9 @@
       <c r="Q106" s="10"/>
     </row>
     <row r="107" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F107" s="39"/>
+      <c r="F107" s="38"/>
       <c r="G107" s="8"/>
-      <c r="H107" s="39"/>
+      <c r="H107" s="38"/>
       <c r="I107" s="10"/>
       <c r="J107" s="11"/>
       <c r="K107" s="12"/>
@@ -5798,9 +8750,9 @@
       <c r="Q107" s="10"/>
     </row>
     <row r="108" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F108" s="39"/>
+      <c r="F108" s="38"/>
       <c r="G108" s="8"/>
-      <c r="H108" s="39"/>
+      <c r="H108" s="38"/>
       <c r="I108" s="10"/>
       <c r="J108" s="11"/>
       <c r="K108" s="12"/>
@@ -5812,9 +8764,9 @@
       <c r="Q108" s="10"/>
     </row>
     <row r="109" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F109" s="39"/>
+      <c r="F109" s="38"/>
       <c r="G109" s="8"/>
-      <c r="H109" s="39"/>
+      <c r="H109" s="38"/>
       <c r="I109" s="10"/>
       <c r="J109" s="11"/>
       <c r="K109" s="12"/>
@@ -5826,9 +8778,9 @@
       <c r="Q109" s="10"/>
     </row>
     <row r="110" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F110" s="39"/>
+      <c r="F110" s="38"/>
       <c r="G110" s="8"/>
-      <c r="H110" s="39"/>
+      <c r="H110" s="38"/>
       <c r="I110" s="10"/>
       <c r="J110" s="11"/>
       <c r="K110" s="12"/>
@@ -5840,9 +8792,9 @@
       <c r="Q110" s="10"/>
     </row>
     <row r="111" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F111" s="39"/>
+      <c r="F111" s="38"/>
       <c r="G111" s="8"/>
-      <c r="H111" s="39"/>
+      <c r="H111" s="38"/>
       <c r="I111" s="10"/>
       <c r="J111" s="11"/>
       <c r="K111" s="12"/>
@@ -5854,9 +8806,9 @@
       <c r="Q111" s="10"/>
     </row>
     <row r="112" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F112" s="39"/>
+      <c r="F112" s="38"/>
       <c r="G112" s="8"/>
-      <c r="H112" s="39"/>
+      <c r="H112" s="38"/>
       <c r="I112" s="10"/>
       <c r="J112" s="11"/>
       <c r="K112" s="12"/>
@@ -5868,9 +8820,9 @@
       <c r="Q112" s="10"/>
     </row>
     <row r="113" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F113" s="39"/>
+      <c r="F113" s="38"/>
       <c r="G113" s="8"/>
-      <c r="H113" s="39"/>
+      <c r="H113" s="38"/>
       <c r="I113" s="10"/>
       <c r="J113" s="11"/>
       <c r="K113" s="12"/>
@@ -5882,9 +8834,9 @@
       <c r="Q113" s="10"/>
     </row>
     <row r="114" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F114" s="39"/>
+      <c r="F114" s="38"/>
       <c r="G114" s="8"/>
-      <c r="H114" s="39"/>
+      <c r="H114" s="38"/>
       <c r="I114" s="10"/>
       <c r="J114" s="11"/>
       <c r="K114" s="12"/>
@@ -5896,9 +8848,9 @@
       <c r="Q114" s="10"/>
     </row>
     <row r="115" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F115" s="39"/>
+      <c r="F115" s="38"/>
       <c r="G115" s="8"/>
-      <c r="H115" s="39"/>
+      <c r="H115" s="38"/>
       <c r="I115" s="10"/>
       <c r="J115" s="11"/>
       <c r="K115" s="12"/>
@@ -5910,9 +8862,9 @@
       <c r="Q115" s="10"/>
     </row>
     <row r="116" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F116" s="39"/>
+      <c r="F116" s="38"/>
       <c r="G116" s="8"/>
-      <c r="H116" s="39"/>
+      <c r="H116" s="38"/>
       <c r="I116" s="10"/>
       <c r="J116" s="11"/>
       <c r="K116" s="12"/>
@@ -5924,9 +8876,9 @@
       <c r="Q116" s="10"/>
     </row>
     <row r="117" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F117" s="39"/>
+      <c r="F117" s="38"/>
       <c r="G117" s="8"/>
-      <c r="H117" s="39"/>
+      <c r="H117" s="38"/>
       <c r="I117" s="10"/>
       <c r="J117" s="11"/>
       <c r="K117" s="12"/>
@@ -5938,9 +8890,9 @@
       <c r="Q117" s="10"/>
     </row>
     <row r="118" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F118" s="39"/>
+      <c r="F118" s="38"/>
       <c r="G118" s="8"/>
-      <c r="H118" s="39"/>
+      <c r="H118" s="38"/>
       <c r="I118" s="10"/>
       <c r="J118" s="11"/>
       <c r="K118" s="12"/>
@@ -5952,9 +8904,9 @@
       <c r="Q118" s="10"/>
     </row>
     <row r="119" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F119" s="39"/>
+      <c r="F119" s="38"/>
       <c r="G119" s="8"/>
-      <c r="H119" s="39"/>
+      <c r="H119" s="38"/>
       <c r="I119" s="10"/>
       <c r="J119" s="11"/>
       <c r="K119" s="12"/>
@@ -5966,9 +8918,9 @@
       <c r="Q119" s="10"/>
     </row>
     <row r="120" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F120" s="39"/>
+      <c r="F120" s="38"/>
       <c r="G120" s="8"/>
-      <c r="H120" s="39"/>
+      <c r="H120" s="38"/>
       <c r="I120" s="10"/>
       <c r="J120" s="11"/>
       <c r="K120" s="12"/>
@@ -5980,9 +8932,9 @@
       <c r="Q120" s="10"/>
     </row>
     <row r="121" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F121" s="39"/>
+      <c r="F121" s="38"/>
       <c r="G121" s="8"/>
-      <c r="H121" s="39"/>
+      <c r="H121" s="38"/>
       <c r="I121" s="10"/>
       <c r="J121" s="11"/>
       <c r="K121" s="12"/>
@@ -5994,9 +8946,9 @@
       <c r="Q121" s="10"/>
     </row>
     <row r="122" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F122" s="39"/>
+      <c r="F122" s="38"/>
       <c r="G122" s="8"/>
-      <c r="H122" s="39"/>
+      <c r="H122" s="38"/>
       <c r="I122" s="10"/>
       <c r="J122" s="11"/>
       <c r="K122" s="12"/>
@@ -6008,9 +8960,9 @@
       <c r="Q122" s="10"/>
     </row>
     <row r="123" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F123" s="39"/>
+      <c r="F123" s="38"/>
       <c r="G123" s="8"/>
-      <c r="H123" s="39"/>
+      <c r="H123" s="38"/>
       <c r="I123" s="10"/>
       <c r="J123" s="11"/>
       <c r="K123" s="12"/>
@@ -6022,9 +8974,9 @@
       <c r="Q123" s="10"/>
     </row>
     <row r="124" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F124" s="39"/>
+      <c r="F124" s="38"/>
       <c r="G124" s="8"/>
-      <c r="H124" s="39"/>
+      <c r="H124" s="38"/>
       <c r="I124" s="10"/>
       <c r="J124" s="11"/>
       <c r="K124" s="12"/>
@@ -6036,9 +8988,9 @@
       <c r="Q124" s="10"/>
     </row>
     <row r="125" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F125" s="39"/>
+      <c r="F125" s="38"/>
       <c r="G125" s="8"/>
-      <c r="H125" s="39"/>
+      <c r="H125" s="38"/>
       <c r="I125" s="10"/>
       <c r="J125" s="11"/>
       <c r="K125" s="12"/>
@@ -6050,9 +9002,9 @@
       <c r="Q125" s="10"/>
     </row>
     <row r="126" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F126" s="39"/>
+      <c r="F126" s="38"/>
       <c r="G126" s="8"/>
-      <c r="H126" s="39"/>
+      <c r="H126" s="38"/>
       <c r="I126" s="10"/>
       <c r="J126" s="11"/>
       <c r="K126" s="12"/>
@@ -6064,9 +9016,9 @@
       <c r="Q126" s="10"/>
     </row>
     <row r="127" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F127" s="39"/>
+      <c r="F127" s="38"/>
       <c r="G127" s="8"/>
-      <c r="H127" s="39"/>
+      <c r="H127" s="38"/>
       <c r="I127" s="10"/>
       <c r="J127" s="11"/>
       <c r="K127" s="12"/>
@@ -6078,9 +9030,9 @@
       <c r="Q127" s="10"/>
     </row>
     <row r="128" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F128" s="39"/>
+      <c r="F128" s="38"/>
       <c r="G128" s="8"/>
-      <c r="H128" s="39"/>
+      <c r="H128" s="38"/>
       <c r="I128" s="10"/>
       <c r="J128" s="11"/>
       <c r="K128" s="12"/>
@@ -6092,9 +9044,9 @@
       <c r="Q128" s="10"/>
     </row>
     <row r="129" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F129" s="39"/>
+      <c r="F129" s="38"/>
       <c r="G129" s="8"/>
-      <c r="H129" s="39"/>
+      <c r="H129" s="38"/>
       <c r="I129" s="10"/>
       <c r="J129" s="11"/>
       <c r="K129" s="12"/>
@@ -6106,9 +9058,9 @@
       <c r="Q129" s="10"/>
     </row>
     <row r="130" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F130" s="39"/>
+      <c r="F130" s="38"/>
       <c r="G130" s="8"/>
-      <c r="H130" s="39"/>
+      <c r="H130" s="38"/>
       <c r="I130" s="10"/>
       <c r="J130" s="11"/>
       <c r="K130" s="12"/>
@@ -6120,9 +9072,9 @@
       <c r="Q130" s="10"/>
     </row>
     <row r="131" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F131" s="39"/>
+      <c r="F131" s="38"/>
       <c r="G131" s="8"/>
-      <c r="H131" s="39"/>
+      <c r="H131" s="38"/>
       <c r="I131" s="10"/>
       <c r="J131" s="11"/>
       <c r="K131" s="12"/>
@@ -6134,9 +9086,9 @@
       <c r="Q131" s="10"/>
     </row>
     <row r="132" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F132" s="39"/>
+      <c r="F132" s="38"/>
       <c r="G132" s="8"/>
-      <c r="H132" s="39"/>
+      <c r="H132" s="38"/>
       <c r="I132" s="10"/>
       <c r="J132" s="11"/>
       <c r="K132" s="12"/>
@@ -6148,9 +9100,9 @@
       <c r="Q132" s="10"/>
     </row>
     <row r="133" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F133" s="39"/>
+      <c r="F133" s="38"/>
       <c r="G133" s="8"/>
-      <c r="H133" s="39"/>
+      <c r="H133" s="38"/>
       <c r="I133" s="10"/>
       <c r="J133" s="11"/>
       <c r="K133" s="12"/>
@@ -6162,9 +9114,9 @@
       <c r="Q133" s="10"/>
     </row>
     <row r="134" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F134" s="39"/>
+      <c r="F134" s="38"/>
       <c r="G134" s="8"/>
-      <c r="H134" s="39"/>
+      <c r="H134" s="38"/>
       <c r="I134" s="10"/>
       <c r="J134" s="11"/>
       <c r="K134" s="12"/>
@@ -6176,9 +9128,9 @@
       <c r="Q134" s="10"/>
     </row>
     <row r="135" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F135" s="39"/>
+      <c r="F135" s="38"/>
       <c r="G135" s="8"/>
-      <c r="H135" s="39"/>
+      <c r="H135" s="38"/>
       <c r="I135" s="10"/>
       <c r="J135" s="11"/>
       <c r="K135" s="12"/>
@@ -6190,9 +9142,9 @@
       <c r="Q135" s="10"/>
     </row>
     <row r="136" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F136" s="39"/>
+      <c r="F136" s="38"/>
       <c r="G136" s="8"/>
-      <c r="H136" s="39"/>
+      <c r="H136" s="38"/>
       <c r="I136" s="10"/>
       <c r="J136" s="11"/>
       <c r="K136" s="12"/>
@@ -6204,9 +9156,9 @@
       <c r="Q136" s="10"/>
     </row>
     <row r="137" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F137" s="39"/>
+      <c r="F137" s="38"/>
       <c r="G137" s="8"/>
-      <c r="H137" s="39"/>
+      <c r="H137" s="38"/>
       <c r="I137" s="10"/>
       <c r="J137" s="11"/>
       <c r="K137" s="12"/>
@@ -6218,9 +9170,9 @@
       <c r="Q137" s="10"/>
     </row>
     <row r="138" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F138" s="39"/>
+      <c r="F138" s="38"/>
       <c r="G138" s="8"/>
-      <c r="H138" s="39"/>
+      <c r="H138" s="38"/>
       <c r="I138" s="10"/>
       <c r="J138" s="11"/>
       <c r="K138" s="12"/>
@@ -6232,9 +9184,9 @@
       <c r="Q138" s="10"/>
     </row>
     <row r="139" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F139" s="39"/>
+      <c r="F139" s="38"/>
       <c r="G139" s="8"/>
-      <c r="H139" s="39"/>
+      <c r="H139" s="38"/>
       <c r="I139" s="10"/>
       <c r="J139" s="11"/>
       <c r="K139" s="12"/>
@@ -6246,9 +9198,9 @@
       <c r="Q139" s="10"/>
     </row>
     <row r="140" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F140" s="39"/>
+      <c r="F140" s="38"/>
       <c r="G140" s="8"/>
-      <c r="H140" s="39"/>
+      <c r="H140" s="38"/>
       <c r="I140" s="10"/>
       <c r="J140" s="11"/>
       <c r="K140" s="12"/>
@@ -6260,9 +9212,9 @@
       <c r="Q140" s="10"/>
     </row>
     <row r="141" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F141" s="39"/>
+      <c r="F141" s="38"/>
       <c r="G141" s="8"/>
-      <c r="H141" s="39"/>
+      <c r="H141" s="38"/>
       <c r="I141" s="10"/>
       <c r="J141" s="11"/>
       <c r="K141" s="12"/>
@@ -6274,9 +9226,9 @@
       <c r="Q141" s="10"/>
     </row>
     <row r="142" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F142" s="39"/>
+      <c r="F142" s="38"/>
       <c r="G142" s="8"/>
-      <c r="H142" s="39"/>
+      <c r="H142" s="38"/>
       <c r="I142" s="10"/>
       <c r="J142" s="11"/>
       <c r="K142" s="12"/>
@@ -6288,9 +9240,9 @@
       <c r="Q142" s="10"/>
     </row>
     <row r="143" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F143" s="39"/>
+      <c r="F143" s="38"/>
       <c r="G143" s="8"/>
-      <c r="H143" s="39"/>
+      <c r="H143" s="38"/>
       <c r="I143" s="10"/>
       <c r="J143" s="11"/>
       <c r="K143" s="12"/>
@@ -6302,9 +9254,9 @@
       <c r="Q143" s="10"/>
     </row>
     <row r="144" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F144" s="39"/>
+      <c r="F144" s="38"/>
       <c r="G144" s="8"/>
-      <c r="H144" s="39"/>
+      <c r="H144" s="38"/>
       <c r="I144" s="10"/>
       <c r="J144" s="11"/>
       <c r="K144" s="12"/>
@@ -6316,9 +9268,9 @@
       <c r="Q144" s="10"/>
     </row>
     <row r="145" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F145" s="39"/>
+      <c r="F145" s="38"/>
       <c r="G145" s="8"/>
-      <c r="H145" s="39"/>
+      <c r="H145" s="38"/>
       <c r="I145" s="10"/>
       <c r="J145" s="11"/>
       <c r="K145" s="12"/>
@@ -6330,9 +9282,9 @@
       <c r="Q145" s="10"/>
     </row>
     <row r="146" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F146" s="39"/>
+      <c r="F146" s="38"/>
       <c r="G146" s="8"/>
-      <c r="H146" s="39"/>
+      <c r="H146" s="38"/>
       <c r="I146" s="10"/>
       <c r="J146" s="11"/>
       <c r="K146" s="12"/>
@@ -6344,9 +9296,9 @@
       <c r="Q146" s="10"/>
     </row>
     <row r="147" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F147" s="39"/>
+      <c r="F147" s="38"/>
       <c r="G147" s="8"/>
-      <c r="H147" s="39"/>
+      <c r="H147" s="38"/>
       <c r="I147" s="10"/>
       <c r="J147" s="11"/>
       <c r="K147" s="12"/>
@@ -6359,7 +9311,7 @@
     </row>
     <row r="148" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G148" s="8"/>
-      <c r="H148" s="39"/>
+      <c r="H148" s="38"/>
       <c r="I148" s="10"/>
       <c r="J148" s="11"/>
       <c r="K148" s="12"/>
@@ -6372,7 +9324,7 @@
     </row>
     <row r="149" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G149" s="8"/>
-      <c r="H149" s="39"/>
+      <c r="H149" s="38"/>
       <c r="I149" s="10"/>
       <c r="J149" s="11"/>
       <c r="K149" s="12"/>
@@ -6385,7 +9337,7 @@
     </row>
     <row r="150" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G150" s="8"/>
-      <c r="H150" s="39"/>
+      <c r="H150" s="38"/>
       <c r="I150" s="10"/>
       <c r="J150" s="11"/>
       <c r="K150" s="12"/>
@@ -6398,7 +9350,7 @@
     </row>
     <row r="151" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G151" s="8"/>
-      <c r="H151" s="39"/>
+      <c r="H151" s="38"/>
       <c r="I151" s="10"/>
       <c r="J151" s="11"/>
       <c r="K151" s="12"/>
@@ -6411,7 +9363,7 @@
     </row>
     <row r="152" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G152" s="8"/>
-      <c r="H152" s="39"/>
+      <c r="H152" s="38"/>
       <c r="I152" s="10"/>
       <c r="J152" s="11"/>
       <c r="K152" s="12"/>
@@ -6424,7 +9376,7 @@
     </row>
     <row r="153" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G153" s="8"/>
-      <c r="H153" s="39"/>
+      <c r="H153" s="38"/>
       <c r="I153" s="10"/>
       <c r="J153" s="11"/>
       <c r="K153" s="12"/>
@@ -6437,7 +9389,7 @@
     </row>
     <row r="154" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G154" s="8"/>
-      <c r="H154" s="39"/>
+      <c r="H154" s="38"/>
       <c r="I154" s="10"/>
       <c r="J154" s="11"/>
       <c r="K154" s="12"/>
@@ -6450,7 +9402,7 @@
     </row>
     <row r="155" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G155" s="8"/>
-      <c r="H155" s="39"/>
+      <c r="H155" s="38"/>
       <c r="I155" s="10"/>
       <c r="J155" s="11"/>
       <c r="K155" s="12"/>
@@ -6463,7 +9415,7 @@
     </row>
     <row r="156" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G156" s="8"/>
-      <c r="H156" s="39"/>
+      <c r="H156" s="38"/>
       <c r="I156" s="10"/>
       <c r="J156" s="11"/>
       <c r="K156" s="12"/>
@@ -6476,7 +9428,7 @@
     </row>
     <row r="157" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G157" s="8"/>
-      <c r="H157" s="39"/>
+      <c r="H157" s="38"/>
       <c r="I157" s="10"/>
       <c r="J157" s="11"/>
       <c r="K157" s="12"/>
@@ -6489,7 +9441,7 @@
     </row>
     <row r="158" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G158" s="8"/>
-      <c r="H158" s="39"/>
+      <c r="H158" s="38"/>
       <c r="I158" s="10"/>
       <c r="J158" s="11"/>
       <c r="K158" s="12"/>
@@ -6502,7 +9454,7 @@
     </row>
     <row r="159" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G159" s="8"/>
-      <c r="H159" s="39"/>
+      <c r="H159" s="38"/>
       <c r="I159" s="10"/>
       <c r="J159" s="11"/>
       <c r="K159" s="12"/>
@@ -6515,7 +9467,7 @@
     </row>
     <row r="160" spans="6:17" x14ac:dyDescent="0.2">
       <c r="G160" s="8"/>
-      <c r="H160" s="39"/>
+      <c r="H160" s="38"/>
       <c r="I160" s="10"/>
       <c r="J160" s="11"/>
       <c r="K160" s="12"/>
@@ -6528,7 +9480,7 @@
     </row>
     <row r="161" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G161" s="8"/>
-      <c r="H161" s="39"/>
+      <c r="H161" s="38"/>
       <c r="I161" s="10"/>
       <c r="J161" s="11"/>
       <c r="K161" s="12"/>
@@ -6541,7 +9493,7 @@
     </row>
     <row r="162" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G162" s="8"/>
-      <c r="H162" s="39"/>
+      <c r="H162" s="38"/>
       <c r="I162" s="10"/>
       <c r="J162" s="11"/>
       <c r="K162" s="12"/>
@@ -6554,7 +9506,7 @@
     </row>
     <row r="163" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G163" s="8"/>
-      <c r="H163" s="39"/>
+      <c r="H163" s="38"/>
       <c r="I163" s="10"/>
       <c r="J163" s="11"/>
       <c r="K163" s="12"/>
@@ -6567,7 +9519,7 @@
     </row>
     <row r="164" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G164" s="8"/>
-      <c r="H164" s="39"/>
+      <c r="H164" s="38"/>
       <c r="I164" s="10"/>
       <c r="J164" s="11"/>
       <c r="K164" s="12"/>
@@ -6580,7 +9532,7 @@
     </row>
     <row r="165" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G165" s="8"/>
-      <c r="H165" s="39"/>
+      <c r="H165" s="38"/>
       <c r="I165" s="10"/>
       <c r="J165" s="11"/>
       <c r="K165" s="12"/>
@@ -6593,7 +9545,7 @@
     </row>
     <row r="166" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G166" s="8"/>
-      <c r="H166" s="39"/>
+      <c r="H166" s="38"/>
       <c r="I166" s="10"/>
       <c r="J166" s="11"/>
       <c r="K166" s="12"/>
@@ -6606,7 +9558,7 @@
     </row>
     <row r="167" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G167" s="8"/>
-      <c r="H167" s="39"/>
+      <c r="H167" s="38"/>
       <c r="I167" s="10"/>
       <c r="J167" s="11"/>
       <c r="K167" s="12"/>
@@ -6619,7 +9571,7 @@
     </row>
     <row r="168" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G168" s="8"/>
-      <c r="H168" s="39"/>
+      <c r="H168" s="38"/>
       <c r="I168" s="10"/>
       <c r="J168" s="11"/>
       <c r="K168" s="12"/>
@@ -6632,7 +9584,7 @@
     </row>
     <row r="169" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G169" s="8"/>
-      <c r="H169" s="39"/>
+      <c r="H169" s="38"/>
       <c r="I169" s="10"/>
       <c r="J169" s="11"/>
       <c r="K169" s="12"/>
@@ -6645,7 +9597,7 @@
     </row>
     <row r="170" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G170" s="8"/>
-      <c r="H170" s="39"/>
+      <c r="H170" s="38"/>
       <c r="I170" s="10"/>
       <c r="J170" s="11"/>
       <c r="K170" s="12"/>
@@ -6658,7 +9610,7 @@
     </row>
     <row r="171" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G171" s="8"/>
-      <c r="H171" s="39"/>
+      <c r="H171" s="38"/>
       <c r="I171" s="10"/>
       <c r="J171" s="11"/>
       <c r="K171" s="12"/>
@@ -6671,7 +9623,7 @@
     </row>
     <row r="172" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G172" s="8"/>
-      <c r="H172" s="39"/>
+      <c r="H172" s="38"/>
       <c r="I172" s="10"/>
       <c r="J172" s="11"/>
       <c r="K172" s="12"/>
@@ -6684,7 +9636,7 @@
     </row>
     <row r="173" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G173" s="8"/>
-      <c r="H173" s="39"/>
+      <c r="H173" s="38"/>
       <c r="I173" s="10"/>
       <c r="J173" s="11"/>
       <c r="K173" s="12"/>
@@ -6697,7 +9649,7 @@
     </row>
     <row r="174" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G174" s="8"/>
-      <c r="H174" s="39"/>
+      <c r="H174" s="38"/>
       <c r="I174" s="10"/>
       <c r="J174" s="11"/>
       <c r="K174" s="12"/>
@@ -6710,7 +9662,7 @@
     </row>
     <row r="175" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G175" s="8"/>
-      <c r="H175" s="39"/>
+      <c r="H175" s="38"/>
       <c r="I175" s="10"/>
       <c r="J175" s="11"/>
       <c r="K175" s="12"/>
@@ -6723,7 +9675,7 @@
     </row>
     <row r="176" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G176" s="8"/>
-      <c r="H176" s="39"/>
+      <c r="H176" s="38"/>
       <c r="I176" s="10"/>
       <c r="J176" s="11"/>
       <c r="K176" s="12"/>
@@ -6736,7 +9688,7 @@
     </row>
     <row r="177" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G177" s="8"/>
-      <c r="H177" s="39"/>
+      <c r="H177" s="38"/>
       <c r="I177" s="10"/>
       <c r="J177" s="11"/>
       <c r="K177" s="12"/>
@@ -6749,7 +9701,7 @@
     </row>
     <row r="178" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G178" s="8"/>
-      <c r="H178" s="39"/>
+      <c r="H178" s="38"/>
       <c r="I178" s="10"/>
       <c r="J178" s="11"/>
       <c r="K178" s="12"/>
@@ -6762,7 +9714,7 @@
     </row>
     <row r="179" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G179" s="8"/>
-      <c r="H179" s="39"/>
+      <c r="H179" s="38"/>
       <c r="I179" s="10"/>
       <c r="J179" s="11"/>
       <c r="K179" s="12"/>
@@ -6775,7 +9727,7 @@
     </row>
     <row r="180" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G180" s="8"/>
-      <c r="H180" s="39"/>
+      <c r="H180" s="38"/>
       <c r="I180" s="10"/>
       <c r="J180" s="11"/>
       <c r="K180" s="12"/>
@@ -6788,7 +9740,7 @@
     </row>
     <row r="181" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G181" s="8"/>
-      <c r="H181" s="39"/>
+      <c r="H181" s="38"/>
       <c r="I181" s="10"/>
       <c r="J181" s="11"/>
       <c r="K181" s="12"/>
@@ -6801,7 +9753,7 @@
     </row>
     <row r="182" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G182" s="8"/>
-      <c r="H182" s="39"/>
+      <c r="H182" s="38"/>
       <c r="I182" s="10"/>
       <c r="J182" s="11"/>
       <c r="K182" s="12"/>
@@ -6814,7 +9766,7 @@
     </row>
     <row r="183" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G183" s="8"/>
-      <c r="H183" s="39"/>
+      <c r="H183" s="38"/>
       <c r="I183" s="10"/>
       <c r="J183" s="11"/>
       <c r="K183" s="12"/>
@@ -6827,7 +9779,7 @@
     </row>
     <row r="184" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G184" s="8"/>
-      <c r="H184" s="39"/>
+      <c r="H184" s="38"/>
       <c r="I184" s="10"/>
       <c r="J184" s="11"/>
       <c r="K184" s="12"/>
@@ -6840,7 +9792,7 @@
     </row>
     <row r="185" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G185" s="8"/>
-      <c r="H185" s="39"/>
+      <c r="H185" s="38"/>
       <c r="I185" s="10"/>
       <c r="J185" s="11"/>
       <c r="K185" s="12"/>
@@ -6853,7 +9805,7 @@
     </row>
     <row r="186" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G186" s="8"/>
-      <c r="H186" s="39"/>
+      <c r="H186" s="38"/>
       <c r="I186" s="10"/>
       <c r="J186" s="11"/>
       <c r="K186" s="12"/>
@@ -6866,7 +9818,7 @@
     </row>
     <row r="187" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G187" s="8"/>
-      <c r="H187" s="39"/>
+      <c r="H187" s="38"/>
       <c r="I187" s="10"/>
       <c r="J187" s="11"/>
       <c r="K187" s="12"/>
@@ -6879,7 +9831,7 @@
     </row>
     <row r="188" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G188" s="8"/>
-      <c r="H188" s="39"/>
+      <c r="H188" s="38"/>
       <c r="I188" s="10"/>
       <c r="J188" s="11"/>
       <c r="K188" s="12"/>
@@ -6892,7 +9844,7 @@
     </row>
     <row r="189" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G189" s="8"/>
-      <c r="H189" s="39"/>
+      <c r="H189" s="38"/>
       <c r="I189" s="10"/>
       <c r="J189" s="11"/>
       <c r="K189" s="12"/>
@@ -6905,7 +9857,7 @@
     </row>
     <row r="190" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G190" s="8"/>
-      <c r="H190" s="39"/>
+      <c r="H190" s="38"/>
       <c r="I190" s="10"/>
       <c r="J190" s="11"/>
       <c r="K190" s="12"/>
@@ -6918,7 +9870,7 @@
     </row>
     <row r="191" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G191" s="8"/>
-      <c r="H191" s="39"/>
+      <c r="H191" s="38"/>
       <c r="I191" s="10"/>
       <c r="J191" s="11"/>
       <c r="K191" s="12"/>
@@ -6931,7 +9883,7 @@
     </row>
     <row r="192" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G192" s="8"/>
-      <c r="H192" s="39"/>
+      <c r="H192" s="38"/>
       <c r="I192" s="10"/>
       <c r="J192" s="11"/>
       <c r="K192" s="12"/>
@@ -6944,7 +9896,7 @@
     </row>
     <row r="193" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G193" s="8"/>
-      <c r="H193" s="39"/>
+      <c r="H193" s="38"/>
       <c r="I193" s="10"/>
       <c r="J193" s="11"/>
       <c r="K193" s="12"/>
@@ -6957,7 +9909,7 @@
     </row>
     <row r="194" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G194" s="8"/>
-      <c r="H194" s="39"/>
+      <c r="H194" s="38"/>
       <c r="I194" s="10"/>
       <c r="J194" s="11"/>
       <c r="K194" s="12"/>
@@ -6970,7 +9922,7 @@
     </row>
     <row r="195" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G195" s="8"/>
-      <c r="H195" s="39"/>
+      <c r="H195" s="38"/>
       <c r="I195" s="10"/>
       <c r="J195" s="11"/>
       <c r="K195" s="12"/>
@@ -6983,7 +9935,7 @@
     </row>
     <row r="196" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G196" s="8"/>
-      <c r="H196" s="39"/>
+      <c r="H196" s="38"/>
       <c r="I196" s="10"/>
       <c r="J196" s="11"/>
       <c r="K196" s="12"/>
@@ -6996,7 +9948,7 @@
     </row>
     <row r="197" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G197" s="8"/>
-      <c r="H197" s="39"/>
+      <c r="H197" s="38"/>
       <c r="I197" s="10"/>
       <c r="J197" s="11"/>
       <c r="K197" s="12"/>
@@ -7009,7 +9961,7 @@
     </row>
     <row r="198" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G198" s="8"/>
-      <c r="H198" s="39"/>
+      <c r="H198" s="38"/>
       <c r="I198" s="10"/>
       <c r="J198" s="11"/>
       <c r="K198" s="12"/>
@@ -7022,7 +9974,7 @@
     </row>
     <row r="199" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G199" s="8"/>
-      <c r="H199" s="39"/>
+      <c r="H199" s="38"/>
       <c r="I199" s="10"/>
       <c r="J199" s="11"/>
       <c r="K199" s="12"/>
@@ -7035,7 +9987,7 @@
     </row>
     <row r="200" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G200" s="8"/>
-      <c r="H200" s="39"/>
+      <c r="H200" s="38"/>
       <c r="I200" s="10"/>
       <c r="J200" s="11"/>
       <c r="K200" s="12"/>
@@ -7048,7 +10000,7 @@
     </row>
     <row r="201" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G201" s="8"/>
-      <c r="H201" s="39"/>
+      <c r="H201" s="38"/>
       <c r="I201" s="10"/>
       <c r="J201" s="11"/>
       <c r="K201" s="12"/>
@@ -7061,7 +10013,7 @@
     </row>
     <row r="202" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G202" s="8"/>
-      <c r="H202" s="39"/>
+      <c r="H202" s="38"/>
       <c r="I202" s="10"/>
       <c r="J202" s="11"/>
       <c r="K202" s="12"/>
@@ -7074,7 +10026,7 @@
     </row>
     <row r="203" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G203" s="8"/>
-      <c r="H203" s="39"/>
+      <c r="H203" s="38"/>
       <c r="I203" s="10"/>
       <c r="J203" s="11"/>
       <c r="K203" s="12"/>
@@ -7087,7 +10039,7 @@
     </row>
     <row r="204" spans="7:17" x14ac:dyDescent="0.2">
       <c r="G204" s="8"/>
-      <c r="H204" s="39"/>
+      <c r="H204" s="38"/>
       <c r="I204" s="10"/>
       <c r="J204" s="11"/>
       <c r="K204" s="12"/>
@@ -7102,2891 +10054,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD7FF3-3014-E540-B371-93725F8A5AE7}">
-  <dimension ref="B3:Z204"/>
-  <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.83203125" customWidth="1"/>
-    <col min="2" max="2" width="11.83203125" style="29" customWidth="1"/>
-    <col min="3" max="3" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9" style="6" customWidth="1"/>
-    <col min="6" max="6" width="13.6640625" style="15" customWidth="1"/>
-    <col min="7" max="7" width="12.83203125" style="6" customWidth="1"/>
-    <col min="8" max="8" width="13.1640625" style="15" customWidth="1"/>
-    <col min="9" max="9" width="16.5" style="24" customWidth="1"/>
-    <col min="10" max="11" width="10.33203125" style="6" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.83203125" style="6" customWidth="1"/>
-    <col min="13" max="13" width="14.33203125" style="24" customWidth="1"/>
-    <col min="14" max="14" width="12.33203125" style="6" customWidth="1"/>
-    <col min="15" max="15" width="13.5" style="24" customWidth="1"/>
-    <col min="16" max="16" width="14.33203125" style="24" customWidth="1"/>
-    <col min="17" max="17" width="15.33203125" style="24" customWidth="1"/>
-    <col min="19" max="19" width="16.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="16.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.83203125" style="15" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="13.1640625" style="23" customWidth="1"/>
-    <col min="24" max="24" width="16.33203125" style="15" customWidth="1"/>
-    <col min="25" max="25" width="18" style="15" customWidth="1"/>
-    <col min="26" max="26" width="12" style="15" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:26" ht="20" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="36" t="s">
-        <v>0</v>
-      </c>
-      <c r="V3" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="W3" s="20"/>
-      <c r="X3" s="40"/>
-      <c r="Y3" s="40"/>
-    </row>
-    <row r="4" spans="2:26" s="1" customFormat="1" ht="115" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="34" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="F4" s="37" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="25" t="s">
-        <v>10</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M4" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="O4" s="25" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q4" s="26" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="V4" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="X4" s="41" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y4" s="41" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z4" s="42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="5" spans="2:26" s="1" customFormat="1" ht="39" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="35"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="27" t="s">
-        <v>6</v>
-      </c>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="M5" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="27" t="s">
-        <v>9</v>
-      </c>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="28"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="V5" s="14"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="14"/>
-      <c r="Y5" s="14"/>
-      <c r="Z5" s="14"/>
-    </row>
-    <row r="6" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F6" s="39"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="39"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="18"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="S6" s="2"/>
-      <c r="T6" s="2"/>
-    </row>
-    <row r="7" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F7" s="39"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="39"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="19"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-    </row>
-    <row r="8" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F8" s="39"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="39"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="12"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-    </row>
-    <row r="9" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F9" s="39"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-    </row>
-    <row r="10" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F10" s="39"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="39"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="19"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-    </row>
-    <row r="11" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F11" s="39"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="39"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="19"/>
-      <c r="L11" s="12"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="8"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-    </row>
-    <row r="12" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F12" s="39"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="39"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="19"/>
-      <c r="L12" s="12"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="8"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-    </row>
-    <row r="13" spans="2:26" ht="16" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="F13" s="39"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="19"/>
-      <c r="L13" s="12"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="8"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-    </row>
-    <row r="14" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F14" s="39"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="39"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="19"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="8"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-    </row>
-    <row r="15" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F15" s="39"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="19"/>
-      <c r="L15" s="12"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="8"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-    </row>
-    <row r="16" spans="2:26" x14ac:dyDescent="0.2">
-      <c r="F16" s="39"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="39"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="18"/>
-      <c r="K16" s="19"/>
-      <c r="L16" s="12"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="8"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-    </row>
-    <row r="17" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F17" s="39"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="18"/>
-      <c r="K17" s="19"/>
-      <c r="L17" s="12"/>
-      <c r="M17" s="10"/>
-      <c r="N17" s="8"/>
-      <c r="O17" s="10"/>
-      <c r="P17" s="10"/>
-      <c r="Q17" s="10"/>
-    </row>
-    <row r="18" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F18" s="39"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="39"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="18"/>
-      <c r="K18" s="19"/>
-      <c r="L18" s="12"/>
-      <c r="M18" s="10"/>
-      <c r="N18" s="8"/>
-      <c r="O18" s="10"/>
-      <c r="P18" s="10"/>
-      <c r="Q18" s="10"/>
-    </row>
-    <row r="19" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F19" s="39"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="18"/>
-      <c r="K19" s="19"/>
-      <c r="L19" s="12"/>
-      <c r="M19" s="10"/>
-      <c r="N19" s="8"/>
-      <c r="O19" s="10"/>
-      <c r="P19" s="10"/>
-      <c r="Q19" s="10"/>
-    </row>
-    <row r="20" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F20" s="39"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="39"/>
-      <c r="I20" s="10"/>
-      <c r="J20" s="18"/>
-      <c r="K20" s="19"/>
-      <c r="L20" s="12"/>
-      <c r="M20" s="10"/>
-      <c r="N20" s="8"/>
-      <c r="O20" s="10"/>
-      <c r="P20" s="10"/>
-      <c r="Q20" s="10"/>
-    </row>
-    <row r="21" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F21" s="39"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="10"/>
-      <c r="J21" s="18"/>
-      <c r="K21" s="19"/>
-      <c r="L21" s="12"/>
-      <c r="M21" s="10"/>
-      <c r="N21" s="8"/>
-      <c r="O21" s="10"/>
-      <c r="P21" s="10"/>
-      <c r="Q21" s="10"/>
-    </row>
-    <row r="22" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F22" s="39"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="39"/>
-      <c r="I22" s="10"/>
-      <c r="J22" s="18"/>
-      <c r="K22" s="19"/>
-      <c r="L22" s="12"/>
-      <c r="M22" s="10"/>
-      <c r="N22" s="8"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="Q22" s="10"/>
-    </row>
-    <row r="23" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F23" s="39"/>
-      <c r="G23" s="8"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="10"/>
-      <c r="J23" s="18"/>
-      <c r="K23" s="19"/>
-      <c r="L23" s="12"/>
-      <c r="M23" s="10"/>
-      <c r="N23" s="8"/>
-      <c r="O23" s="10"/>
-      <c r="P23" s="10"/>
-      <c r="Q23" s="10"/>
-    </row>
-    <row r="24" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F24" s="39"/>
-      <c r="G24" s="8"/>
-      <c r="H24" s="39"/>
-      <c r="I24" s="10"/>
-      <c r="J24" s="18"/>
-      <c r="K24" s="19"/>
-      <c r="L24" s="12"/>
-      <c r="M24" s="10"/>
-      <c r="N24" s="8"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="10"/>
-      <c r="Q24" s="10"/>
-    </row>
-    <row r="25" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F25" s="39"/>
-      <c r="G25" s="8"/>
-      <c r="H25" s="39"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="19"/>
-      <c r="L25" s="12"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="8"/>
-      <c r="O25" s="10"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-    </row>
-    <row r="26" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F26" s="39"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="19"/>
-      <c r="L26" s="12"/>
-      <c r="M26" s="10"/>
-      <c r="N26" s="8"/>
-      <c r="O26" s="10"/>
-      <c r="P26" s="10"/>
-      <c r="Q26" s="10"/>
-    </row>
-    <row r="27" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F27" s="39"/>
-      <c r="G27" s="8"/>
-      <c r="H27" s="39"/>
-      <c r="I27" s="10"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="12"/>
-      <c r="M27" s="10"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="10"/>
-      <c r="P27" s="10"/>
-      <c r="Q27" s="10"/>
-    </row>
-    <row r="28" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F28" s="39"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="10"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="19"/>
-      <c r="L28" s="12"/>
-      <c r="M28" s="10"/>
-      <c r="N28" s="8"/>
-      <c r="O28" s="10"/>
-      <c r="P28" s="10"/>
-      <c r="Q28" s="10"/>
-    </row>
-    <row r="29" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F29" s="39"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="39"/>
-      <c r="I29" s="10"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="19"/>
-      <c r="L29" s="12"/>
-      <c r="M29" s="10"/>
-      <c r="N29" s="8"/>
-      <c r="O29" s="10"/>
-      <c r="P29" s="10"/>
-      <c r="Q29" s="10"/>
-    </row>
-    <row r="30" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F30" s="39"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="39"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="12"/>
-      <c r="M30" s="10"/>
-      <c r="N30" s="8"/>
-      <c r="O30" s="10"/>
-      <c r="P30" s="10"/>
-      <c r="Q30" s="10"/>
-    </row>
-    <row r="31" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F31" s="39"/>
-      <c r="G31" s="8"/>
-      <c r="H31" s="39"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="19"/>
-      <c r="L31" s="12"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="8"/>
-      <c r="O31" s="10"/>
-      <c r="P31" s="10"/>
-      <c r="Q31" s="10"/>
-    </row>
-    <row r="32" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F32" s="39"/>
-      <c r="G32" s="8"/>
-      <c r="H32" s="39"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="19"/>
-      <c r="L32" s="12"/>
-      <c r="M32" s="10"/>
-      <c r="N32" s="8"/>
-      <c r="O32" s="10"/>
-      <c r="P32" s="10"/>
-      <c r="Q32" s="10"/>
-    </row>
-    <row r="33" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F33" s="39"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="39"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="12"/>
-      <c r="M33" s="10"/>
-      <c r="N33" s="8"/>
-      <c r="O33" s="10"/>
-      <c r="P33" s="10"/>
-      <c r="Q33" s="10"/>
-    </row>
-    <row r="34" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F34" s="39"/>
-      <c r="G34" s="8"/>
-      <c r="H34" s="39"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="19"/>
-      <c r="L34" s="12"/>
-      <c r="M34" s="10"/>
-      <c r="N34" s="8"/>
-      <c r="O34" s="10"/>
-      <c r="P34" s="10"/>
-      <c r="Q34" s="10"/>
-    </row>
-    <row r="35" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F35" s="39"/>
-      <c r="G35" s="8"/>
-      <c r="H35" s="39"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="19"/>
-      <c r="L35" s="12"/>
-      <c r="M35" s="10"/>
-      <c r="N35" s="8"/>
-      <c r="O35" s="10"/>
-      <c r="P35" s="10"/>
-      <c r="Q35" s="10"/>
-    </row>
-    <row r="36" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F36" s="39"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="39"/>
-      <c r="I36" s="10"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="12"/>
-      <c r="M36" s="10"/>
-      <c r="N36" s="8"/>
-      <c r="O36" s="10"/>
-      <c r="P36" s="10"/>
-      <c r="Q36" s="10"/>
-    </row>
-    <row r="37" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F37" s="39"/>
-      <c r="G37" s="8"/>
-      <c r="H37" s="39"/>
-      <c r="I37" s="10"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="19"/>
-      <c r="L37" s="12"/>
-      <c r="M37" s="10"/>
-      <c r="N37" s="8"/>
-      <c r="O37" s="10"/>
-      <c r="P37" s="10"/>
-      <c r="Q37" s="10"/>
-    </row>
-    <row r="38" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F38" s="39"/>
-      <c r="G38" s="8"/>
-      <c r="H38" s="39"/>
-      <c r="I38" s="10"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="19"/>
-      <c r="L38" s="12"/>
-      <c r="M38" s="10"/>
-      <c r="N38" s="8"/>
-      <c r="O38" s="10"/>
-      <c r="P38" s="10"/>
-      <c r="Q38" s="10"/>
-    </row>
-    <row r="39" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F39" s="39"/>
-      <c r="G39" s="8"/>
-      <c r="H39" s="39"/>
-      <c r="I39" s="10"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="12"/>
-      <c r="M39" s="10"/>
-      <c r="N39" s="8"/>
-      <c r="O39" s="10"/>
-      <c r="P39" s="10"/>
-      <c r="Q39" s="10"/>
-    </row>
-    <row r="40" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F40" s="39"/>
-      <c r="G40" s="8"/>
-      <c r="H40" s="39"/>
-      <c r="I40" s="10"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="12"/>
-      <c r="M40" s="10"/>
-      <c r="N40" s="8"/>
-      <c r="O40" s="10"/>
-      <c r="P40" s="10"/>
-      <c r="Q40" s="10"/>
-    </row>
-    <row r="41" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F41" s="39"/>
-      <c r="G41" s="8"/>
-      <c r="H41" s="39"/>
-      <c r="I41" s="10"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="12"/>
-      <c r="M41" s="10"/>
-      <c r="N41" s="8"/>
-      <c r="O41" s="10"/>
-      <c r="P41" s="10"/>
-      <c r="Q41" s="10"/>
-    </row>
-    <row r="42" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F42" s="39"/>
-      <c r="G42" s="8"/>
-      <c r="H42" s="39"/>
-      <c r="I42" s="10"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="12"/>
-      <c r="M42" s="10"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="10"/>
-      <c r="P42" s="10"/>
-      <c r="Q42" s="10"/>
-    </row>
-    <row r="43" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F43" s="39"/>
-      <c r="G43" s="8"/>
-      <c r="H43" s="39"/>
-      <c r="I43" s="10"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="12"/>
-      <c r="M43" s="10"/>
-      <c r="N43" s="8"/>
-      <c r="O43" s="10"/>
-      <c r="P43" s="10"/>
-      <c r="Q43" s="10"/>
-    </row>
-    <row r="44" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F44" s="39"/>
-      <c r="G44" s="8"/>
-      <c r="H44" s="39"/>
-      <c r="I44" s="10"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="12"/>
-      <c r="M44" s="10"/>
-      <c r="N44" s="8"/>
-      <c r="O44" s="10"/>
-      <c r="P44" s="10"/>
-      <c r="Q44" s="10"/>
-    </row>
-    <row r="45" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F45" s="39"/>
-      <c r="G45" s="8"/>
-      <c r="H45" s="39"/>
-      <c r="I45" s="10"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="19"/>
-      <c r="L45" s="12"/>
-      <c r="M45" s="10"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="10"/>
-      <c r="P45" s="10"/>
-      <c r="Q45" s="10"/>
-    </row>
-    <row r="46" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F46" s="39"/>
-      <c r="G46" s="8"/>
-      <c r="H46" s="39"/>
-      <c r="I46" s="10"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="19"/>
-      <c r="L46" s="12"/>
-      <c r="M46" s="10"/>
-      <c r="N46" s="8"/>
-      <c r="O46" s="10"/>
-      <c r="P46" s="10"/>
-      <c r="Q46" s="10"/>
-    </row>
-    <row r="47" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F47" s="39"/>
-      <c r="G47" s="8"/>
-      <c r="H47" s="39"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="19"/>
-      <c r="L47" s="12"/>
-      <c r="M47" s="10"/>
-      <c r="N47" s="8"/>
-      <c r="O47" s="10"/>
-      <c r="P47" s="10"/>
-      <c r="Q47" s="10"/>
-    </row>
-    <row r="48" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F48" s="39"/>
-      <c r="G48" s="8"/>
-      <c r="H48" s="39"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="18"/>
-      <c r="K48" s="19"/>
-      <c r="L48" s="12"/>
-      <c r="M48" s="10"/>
-      <c r="N48" s="8"/>
-      <c r="O48" s="10"/>
-      <c r="P48" s="10"/>
-      <c r="Q48" s="10"/>
-    </row>
-    <row r="49" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F49" s="39"/>
-      <c r="G49" s="8"/>
-      <c r="H49" s="39"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="18"/>
-      <c r="K49" s="19"/>
-      <c r="L49" s="12"/>
-      <c r="M49" s="10"/>
-      <c r="N49" s="8"/>
-      <c r="O49" s="10"/>
-      <c r="P49" s="10"/>
-      <c r="Q49" s="10"/>
-    </row>
-    <row r="50" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F50" s="39"/>
-      <c r="G50" s="8"/>
-      <c r="H50" s="39"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="18"/>
-      <c r="K50" s="19"/>
-      <c r="L50" s="12"/>
-      <c r="M50" s="10"/>
-      <c r="N50" s="8"/>
-      <c r="O50" s="10"/>
-      <c r="P50" s="10"/>
-      <c r="Q50" s="10"/>
-    </row>
-    <row r="51" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F51" s="39"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="39"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="18"/>
-      <c r="K51" s="19"/>
-      <c r="L51" s="12"/>
-      <c r="M51" s="10"/>
-      <c r="N51" s="8"/>
-      <c r="O51" s="10"/>
-      <c r="P51" s="10"/>
-      <c r="Q51" s="10"/>
-    </row>
-    <row r="52" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F52" s="39"/>
-      <c r="G52" s="8"/>
-      <c r="H52" s="39"/>
-      <c r="I52" s="10"/>
-      <c r="J52" s="18"/>
-      <c r="K52" s="19"/>
-      <c r="L52" s="12"/>
-      <c r="M52" s="10"/>
-      <c r="N52" s="8"/>
-      <c r="O52" s="10"/>
-      <c r="P52" s="10"/>
-      <c r="Q52" s="10"/>
-    </row>
-    <row r="53" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F53" s="39"/>
-      <c r="G53" s="8"/>
-      <c r="H53" s="39"/>
-      <c r="I53" s="10"/>
-      <c r="J53" s="18"/>
-      <c r="K53" s="19"/>
-      <c r="L53" s="12"/>
-      <c r="M53" s="10"/>
-      <c r="N53" s="8"/>
-      <c r="O53" s="10"/>
-      <c r="P53" s="10"/>
-      <c r="Q53" s="10"/>
-    </row>
-    <row r="54" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F54" s="39"/>
-      <c r="G54" s="8"/>
-      <c r="H54" s="39"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="18"/>
-      <c r="K54" s="19"/>
-      <c r="L54" s="12"/>
-      <c r="M54" s="10"/>
-      <c r="N54" s="8"/>
-      <c r="O54" s="10"/>
-      <c r="P54" s="10"/>
-      <c r="Q54" s="10"/>
-    </row>
-    <row r="55" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F55" s="39"/>
-      <c r="G55" s="8"/>
-      <c r="H55" s="39"/>
-      <c r="I55" s="10"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="19"/>
-      <c r="L55" s="12"/>
-      <c r="M55" s="10"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="10"/>
-      <c r="P55" s="10"/>
-      <c r="Q55" s="10"/>
-    </row>
-    <row r="56" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F56" s="39"/>
-      <c r="G56" s="8"/>
-      <c r="H56" s="39"/>
-      <c r="I56" s="10"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="19"/>
-      <c r="L56" s="12"/>
-      <c r="M56" s="10"/>
-      <c r="N56" s="8"/>
-      <c r="O56" s="10"/>
-      <c r="P56" s="10"/>
-      <c r="Q56" s="10"/>
-    </row>
-    <row r="57" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F57" s="39"/>
-      <c r="G57" s="8"/>
-      <c r="H57" s="39"/>
-      <c r="I57" s="10"/>
-      <c r="J57" s="18"/>
-      <c r="K57" s="19"/>
-      <c r="L57" s="12"/>
-      <c r="M57" s="10"/>
-      <c r="N57" s="8"/>
-      <c r="O57" s="10"/>
-      <c r="P57" s="10"/>
-      <c r="Q57" s="10"/>
-    </row>
-    <row r="58" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F58" s="39"/>
-      <c r="G58" s="8"/>
-      <c r="H58" s="39"/>
-      <c r="I58" s="10"/>
-      <c r="J58" s="18"/>
-      <c r="K58" s="19"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="10"/>
-      <c r="N58" s="8"/>
-      <c r="O58" s="10"/>
-      <c r="P58" s="10"/>
-      <c r="Q58" s="10"/>
-    </row>
-    <row r="59" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F59" s="39"/>
-      <c r="G59" s="8"/>
-      <c r="H59" s="39"/>
-      <c r="I59" s="10"/>
-      <c r="J59" s="18"/>
-      <c r="K59" s="19"/>
-      <c r="L59" s="12"/>
-      <c r="M59" s="10"/>
-      <c r="N59" s="8"/>
-      <c r="O59" s="10"/>
-      <c r="P59" s="10"/>
-      <c r="Q59" s="10"/>
-    </row>
-    <row r="60" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F60" s="39"/>
-      <c r="G60" s="8"/>
-      <c r="H60" s="39"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="18"/>
-      <c r="K60" s="19"/>
-      <c r="L60" s="12"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="10"/>
-      <c r="Q60" s="10"/>
-    </row>
-    <row r="61" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F61" s="39"/>
-      <c r="G61" s="8"/>
-      <c r="H61" s="39"/>
-      <c r="I61" s="10"/>
-      <c r="J61" s="18"/>
-      <c r="K61" s="19"/>
-      <c r="L61" s="12"/>
-      <c r="M61" s="10"/>
-      <c r="N61" s="8"/>
-      <c r="O61" s="10"/>
-      <c r="P61" s="10"/>
-      <c r="Q61" s="10"/>
-    </row>
-    <row r="62" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F62" s="39"/>
-      <c r="G62" s="8"/>
-      <c r="H62" s="39"/>
-      <c r="I62" s="10"/>
-      <c r="J62" s="18"/>
-      <c r="K62" s="19"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="10"/>
-      <c r="N62" s="8"/>
-      <c r="O62" s="10"/>
-      <c r="P62" s="10"/>
-      <c r="Q62" s="10"/>
-    </row>
-    <row r="63" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F63" s="39"/>
-      <c r="G63" s="8"/>
-      <c r="H63" s="39"/>
-      <c r="I63" s="10"/>
-      <c r="J63" s="18"/>
-      <c r="K63" s="19"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="10"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="10"/>
-      <c r="P63" s="10"/>
-      <c r="Q63" s="10"/>
-    </row>
-    <row r="64" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F64" s="39"/>
-      <c r="G64" s="8"/>
-      <c r="H64" s="39"/>
-      <c r="I64" s="10"/>
-      <c r="J64" s="18"/>
-      <c r="K64" s="19"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="10"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="10"/>
-      <c r="P64" s="10"/>
-      <c r="Q64" s="10"/>
-    </row>
-    <row r="65" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F65" s="39"/>
-      <c r="G65" s="8"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="18"/>
-      <c r="K65" s="19"/>
-      <c r="L65" s="12"/>
-      <c r="M65" s="10"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="10"/>
-      <c r="P65" s="10"/>
-      <c r="Q65" s="10"/>
-    </row>
-    <row r="66" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F66" s="39"/>
-      <c r="G66" s="8"/>
-      <c r="H66" s="39"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="18"/>
-      <c r="K66" s="19"/>
-      <c r="L66" s="12"/>
-      <c r="M66" s="10"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="10"/>
-      <c r="P66" s="10"/>
-      <c r="Q66" s="10"/>
-    </row>
-    <row r="67" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F67" s="39"/>
-      <c r="G67" s="8"/>
-      <c r="H67" s="39"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="18"/>
-      <c r="K67" s="19"/>
-      <c r="L67" s="12"/>
-      <c r="M67" s="10"/>
-      <c r="N67" s="8"/>
-      <c r="O67" s="10"/>
-      <c r="P67" s="10"/>
-      <c r="Q67" s="10"/>
-    </row>
-    <row r="68" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F68" s="39"/>
-      <c r="G68" s="8"/>
-      <c r="H68" s="39"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="18"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="12"/>
-      <c r="M68" s="10"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="10"/>
-      <c r="P68" s="10"/>
-      <c r="Q68" s="10"/>
-    </row>
-    <row r="69" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F69" s="39"/>
-      <c r="G69" s="8"/>
-      <c r="H69" s="39"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="18"/>
-      <c r="K69" s="19"/>
-      <c r="L69" s="12"/>
-      <c r="M69" s="10"/>
-      <c r="N69" s="8"/>
-      <c r="O69" s="10"/>
-      <c r="P69" s="10"/>
-      <c r="Q69" s="10"/>
-    </row>
-    <row r="70" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F70" s="39"/>
-      <c r="G70" s="8"/>
-      <c r="H70" s="39"/>
-      <c r="I70" s="10"/>
-      <c r="J70" s="18"/>
-      <c r="K70" s="19"/>
-      <c r="L70" s="12"/>
-      <c r="M70" s="10"/>
-      <c r="N70" s="8"/>
-      <c r="O70" s="10"/>
-      <c r="P70" s="10"/>
-      <c r="Q70" s="10"/>
-    </row>
-    <row r="71" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F71" s="39"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="39"/>
-      <c r="I71" s="10"/>
-      <c r="J71" s="18"/>
-      <c r="K71" s="19"/>
-      <c r="L71" s="12"/>
-      <c r="M71" s="10"/>
-      <c r="N71" s="8"/>
-      <c r="O71" s="10"/>
-      <c r="P71" s="10"/>
-      <c r="Q71" s="10"/>
-    </row>
-    <row r="72" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F72" s="39"/>
-      <c r="G72" s="8"/>
-      <c r="H72" s="39"/>
-      <c r="I72" s="10"/>
-      <c r="J72" s="18"/>
-      <c r="K72" s="19"/>
-      <c r="L72" s="12"/>
-      <c r="M72" s="10"/>
-      <c r="N72" s="8"/>
-      <c r="O72" s="10"/>
-      <c r="P72" s="10"/>
-      <c r="Q72" s="10"/>
-    </row>
-    <row r="73" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F73" s="39"/>
-      <c r="G73" s="8"/>
-      <c r="H73" s="39"/>
-      <c r="I73" s="10"/>
-      <c r="J73" s="18"/>
-      <c r="K73" s="19"/>
-      <c r="L73" s="12"/>
-      <c r="M73" s="10"/>
-      <c r="N73" s="8"/>
-      <c r="O73" s="10"/>
-      <c r="P73" s="10"/>
-      <c r="Q73" s="10"/>
-    </row>
-    <row r="74" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F74" s="39"/>
-      <c r="G74" s="8"/>
-      <c r="H74" s="39"/>
-      <c r="I74" s="10"/>
-      <c r="J74" s="18"/>
-      <c r="K74" s="19"/>
-      <c r="L74" s="12"/>
-      <c r="M74" s="10"/>
-      <c r="N74" s="8"/>
-      <c r="O74" s="10"/>
-      <c r="P74" s="10"/>
-      <c r="Q74" s="10"/>
-    </row>
-    <row r="75" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F75" s="39"/>
-      <c r="G75" s="8"/>
-      <c r="H75" s="39"/>
-      <c r="I75" s="10"/>
-      <c r="J75" s="18"/>
-      <c r="K75" s="19"/>
-      <c r="L75" s="12"/>
-      <c r="M75" s="10"/>
-      <c r="N75" s="8"/>
-      <c r="O75" s="10"/>
-      <c r="P75" s="10"/>
-      <c r="Q75" s="10"/>
-    </row>
-    <row r="76" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F76" s="39"/>
-      <c r="G76" s="8"/>
-      <c r="H76" s="39"/>
-      <c r="I76" s="10"/>
-      <c r="J76" s="18"/>
-      <c r="K76" s="19"/>
-      <c r="L76" s="12"/>
-      <c r="M76" s="10"/>
-      <c r="N76" s="8"/>
-      <c r="O76" s="10"/>
-      <c r="P76" s="10"/>
-      <c r="Q76" s="10"/>
-    </row>
-    <row r="77" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F77" s="39"/>
-      <c r="G77" s="8"/>
-      <c r="H77" s="39"/>
-      <c r="I77" s="10"/>
-      <c r="J77" s="18"/>
-      <c r="K77" s="19"/>
-      <c r="L77" s="12"/>
-      <c r="M77" s="10"/>
-      <c r="N77" s="8"/>
-      <c r="O77" s="10"/>
-      <c r="P77" s="10"/>
-      <c r="Q77" s="10"/>
-    </row>
-    <row r="78" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F78" s="39"/>
-      <c r="G78" s="8"/>
-      <c r="H78" s="39"/>
-      <c r="I78" s="10"/>
-      <c r="J78" s="18"/>
-      <c r="K78" s="19"/>
-      <c r="L78" s="12"/>
-      <c r="M78" s="10"/>
-      <c r="N78" s="8"/>
-      <c r="O78" s="10"/>
-      <c r="P78" s="10"/>
-      <c r="Q78" s="10"/>
-    </row>
-    <row r="79" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F79" s="39"/>
-      <c r="G79" s="8"/>
-      <c r="H79" s="39"/>
-      <c r="I79" s="10"/>
-      <c r="J79" s="18"/>
-      <c r="K79" s="19"/>
-      <c r="L79" s="12"/>
-      <c r="M79" s="10"/>
-      <c r="N79" s="8"/>
-      <c r="O79" s="10"/>
-      <c r="P79" s="10"/>
-      <c r="Q79" s="10"/>
-    </row>
-    <row r="80" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F80" s="39"/>
-      <c r="G80" s="8"/>
-      <c r="H80" s="39"/>
-      <c r="I80" s="10"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="19"/>
-      <c r="L80" s="12"/>
-      <c r="M80" s="10"/>
-      <c r="N80" s="8"/>
-      <c r="O80" s="10"/>
-      <c r="P80" s="10"/>
-      <c r="Q80" s="10"/>
-    </row>
-    <row r="81" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F81" s="39"/>
-      <c r="G81" s="8"/>
-      <c r="H81" s="39"/>
-      <c r="I81" s="10"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="19"/>
-      <c r="L81" s="12"/>
-      <c r="M81" s="10"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="10"/>
-      <c r="P81" s="10"/>
-      <c r="Q81" s="10"/>
-    </row>
-    <row r="82" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F82" s="39"/>
-      <c r="G82" s="8"/>
-      <c r="H82" s="39"/>
-      <c r="I82" s="10"/>
-      <c r="J82" s="18"/>
-      <c r="K82" s="19"/>
-      <c r="L82" s="12"/>
-      <c r="M82" s="10"/>
-      <c r="N82" s="8"/>
-      <c r="O82" s="10"/>
-      <c r="P82" s="10"/>
-      <c r="Q82" s="10"/>
-    </row>
-    <row r="83" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F83" s="39"/>
-      <c r="G83" s="8"/>
-      <c r="H83" s="39"/>
-      <c r="I83" s="10"/>
-      <c r="J83" s="18"/>
-      <c r="K83" s="19"/>
-      <c r="L83" s="12"/>
-      <c r="M83" s="10"/>
-      <c r="N83" s="8"/>
-      <c r="O83" s="10"/>
-      <c r="P83" s="10"/>
-      <c r="Q83" s="10"/>
-    </row>
-    <row r="84" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F84" s="39"/>
-      <c r="G84" s="8"/>
-      <c r="H84" s="39"/>
-      <c r="I84" s="10"/>
-      <c r="J84" s="18"/>
-      <c r="K84" s="19"/>
-      <c r="L84" s="12"/>
-      <c r="M84" s="10"/>
-      <c r="N84" s="8"/>
-      <c r="O84" s="10"/>
-      <c r="P84" s="10"/>
-      <c r="Q84" s="10"/>
-    </row>
-    <row r="85" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F85" s="39"/>
-      <c r="G85" s="8"/>
-      <c r="H85" s="39"/>
-      <c r="I85" s="10"/>
-      <c r="J85" s="18"/>
-      <c r="K85" s="19"/>
-      <c r="L85" s="12"/>
-      <c r="M85" s="10"/>
-      <c r="N85" s="8"/>
-      <c r="O85" s="10"/>
-      <c r="P85" s="10"/>
-      <c r="Q85" s="10"/>
-    </row>
-    <row r="86" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F86" s="39"/>
-      <c r="G86" s="8"/>
-      <c r="H86" s="39"/>
-      <c r="I86" s="10"/>
-      <c r="J86" s="18"/>
-      <c r="K86" s="19"/>
-      <c r="L86" s="12"/>
-      <c r="M86" s="10"/>
-      <c r="N86" s="8"/>
-      <c r="O86" s="10"/>
-      <c r="P86" s="10"/>
-      <c r="Q86" s="10"/>
-    </row>
-    <row r="87" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F87" s="39"/>
-      <c r="G87" s="8"/>
-      <c r="H87" s="39"/>
-      <c r="I87" s="10"/>
-      <c r="J87" s="18"/>
-      <c r="K87" s="19"/>
-      <c r="L87" s="12"/>
-      <c r="M87" s="10"/>
-      <c r="N87" s="8"/>
-      <c r="O87" s="10"/>
-      <c r="P87" s="10"/>
-      <c r="Q87" s="10"/>
-    </row>
-    <row r="88" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F88" s="39"/>
-      <c r="G88" s="8"/>
-      <c r="H88" s="39"/>
-      <c r="I88" s="10"/>
-      <c r="J88" s="18"/>
-      <c r="K88" s="19"/>
-      <c r="L88" s="12"/>
-      <c r="M88" s="10"/>
-      <c r="N88" s="8"/>
-      <c r="O88" s="10"/>
-      <c r="P88" s="10"/>
-      <c r="Q88" s="10"/>
-    </row>
-    <row r="89" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F89" s="39"/>
-      <c r="G89" s="8"/>
-      <c r="H89" s="39"/>
-      <c r="I89" s="10"/>
-      <c r="J89" s="18"/>
-      <c r="K89" s="19"/>
-      <c r="L89" s="12"/>
-      <c r="M89" s="10"/>
-      <c r="N89" s="8"/>
-      <c r="O89" s="10"/>
-      <c r="P89" s="10"/>
-      <c r="Q89" s="10"/>
-    </row>
-    <row r="90" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F90" s="39"/>
-      <c r="G90" s="8"/>
-      <c r="H90" s="39"/>
-      <c r="I90" s="10"/>
-      <c r="J90" s="18"/>
-      <c r="K90" s="19"/>
-      <c r="L90" s="12"/>
-      <c r="M90" s="10"/>
-      <c r="N90" s="8"/>
-      <c r="O90" s="10"/>
-      <c r="P90" s="10"/>
-      <c r="Q90" s="10"/>
-    </row>
-    <row r="91" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F91" s="39"/>
-      <c r="G91" s="8"/>
-      <c r="H91" s="39"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="18"/>
-      <c r="K91" s="19"/>
-      <c r="L91" s="12"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="8"/>
-      <c r="O91" s="10"/>
-      <c r="P91" s="10"/>
-      <c r="Q91" s="10"/>
-    </row>
-    <row r="92" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F92" s="39"/>
-      <c r="G92" s="8"/>
-      <c r="H92" s="39"/>
-      <c r="I92" s="10"/>
-      <c r="J92" s="18"/>
-      <c r="K92" s="19"/>
-      <c r="L92" s="12"/>
-      <c r="M92" s="10"/>
-      <c r="N92" s="8"/>
-      <c r="O92" s="10"/>
-      <c r="P92" s="10"/>
-      <c r="Q92" s="10"/>
-    </row>
-    <row r="93" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F93" s="39"/>
-      <c r="G93" s="8"/>
-      <c r="H93" s="39"/>
-      <c r="I93" s="10"/>
-      <c r="J93" s="18"/>
-      <c r="K93" s="19"/>
-      <c r="L93" s="12"/>
-      <c r="M93" s="10"/>
-      <c r="N93" s="8"/>
-      <c r="O93" s="10"/>
-      <c r="P93" s="10"/>
-      <c r="Q93" s="10"/>
-    </row>
-    <row r="94" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F94" s="39"/>
-      <c r="G94" s="8"/>
-      <c r="H94" s="39"/>
-      <c r="I94" s="10"/>
-      <c r="J94" s="18"/>
-      <c r="K94" s="19"/>
-      <c r="L94" s="12"/>
-      <c r="M94" s="10"/>
-      <c r="N94" s="8"/>
-      <c r="O94" s="10"/>
-      <c r="P94" s="10"/>
-      <c r="Q94" s="10"/>
-    </row>
-    <row r="95" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F95" s="39"/>
-      <c r="G95" s="8"/>
-      <c r="H95" s="39"/>
-      <c r="I95" s="10"/>
-      <c r="J95" s="18"/>
-      <c r="K95" s="19"/>
-      <c r="L95" s="12"/>
-      <c r="M95" s="10"/>
-      <c r="N95" s="8"/>
-      <c r="O95" s="10"/>
-      <c r="P95" s="10"/>
-      <c r="Q95" s="10"/>
-    </row>
-    <row r="96" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F96" s="39"/>
-      <c r="G96" s="8"/>
-      <c r="H96" s="39"/>
-      <c r="I96" s="10"/>
-      <c r="J96" s="18"/>
-      <c r="K96" s="19"/>
-      <c r="L96" s="12"/>
-      <c r="M96" s="10"/>
-      <c r="N96" s="8"/>
-      <c r="O96" s="10"/>
-      <c r="P96" s="10"/>
-      <c r="Q96" s="10"/>
-    </row>
-    <row r="97" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F97" s="39"/>
-      <c r="G97" s="8"/>
-      <c r="H97" s="39"/>
-      <c r="I97" s="10"/>
-      <c r="J97" s="18"/>
-      <c r="K97" s="19"/>
-      <c r="L97" s="12"/>
-      <c r="M97" s="10"/>
-      <c r="N97" s="8"/>
-      <c r="O97" s="10"/>
-      <c r="P97" s="10"/>
-      <c r="Q97" s="10"/>
-    </row>
-    <row r="98" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F98" s="39"/>
-      <c r="G98" s="8"/>
-      <c r="H98" s="39"/>
-      <c r="I98" s="10"/>
-      <c r="J98" s="18"/>
-      <c r="K98" s="19"/>
-      <c r="L98" s="12"/>
-      <c r="M98" s="10"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="10"/>
-      <c r="P98" s="10"/>
-      <c r="Q98" s="10"/>
-    </row>
-    <row r="99" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F99" s="39"/>
-      <c r="G99" s="8"/>
-      <c r="H99" s="39"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="18"/>
-      <c r="K99" s="19"/>
-      <c r="L99" s="12"/>
-      <c r="M99" s="10"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="10"/>
-      <c r="P99" s="10"/>
-      <c r="Q99" s="10"/>
-    </row>
-    <row r="100" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F100" s="39"/>
-      <c r="G100" s="8"/>
-      <c r="H100" s="39"/>
-      <c r="I100" s="10"/>
-      <c r="J100" s="18"/>
-      <c r="K100" s="19"/>
-      <c r="L100" s="12"/>
-      <c r="M100" s="10"/>
-      <c r="N100" s="8"/>
-      <c r="O100" s="10"/>
-      <c r="P100" s="10"/>
-      <c r="Q100" s="10"/>
-    </row>
-    <row r="101" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F101" s="39"/>
-      <c r="G101" s="8"/>
-      <c r="H101" s="39"/>
-      <c r="I101" s="10"/>
-      <c r="J101" s="11"/>
-      <c r="K101" s="12"/>
-      <c r="L101" s="12"/>
-      <c r="M101" s="10"/>
-      <c r="N101" s="8"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="10"/>
-      <c r="Q101" s="10"/>
-    </row>
-    <row r="102" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F102" s="39"/>
-      <c r="G102" s="8"/>
-      <c r="H102" s="39"/>
-      <c r="I102" s="10"/>
-      <c r="J102" s="11"/>
-      <c r="K102" s="12"/>
-      <c r="L102" s="12"/>
-      <c r="M102" s="10"/>
-      <c r="N102" s="8"/>
-      <c r="O102" s="10"/>
-      <c r="P102" s="10"/>
-      <c r="Q102" s="10"/>
-    </row>
-    <row r="103" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F103" s="39"/>
-      <c r="G103" s="8"/>
-      <c r="H103" s="39"/>
-      <c r="I103" s="10"/>
-      <c r="J103" s="11"/>
-      <c r="K103" s="12"/>
-      <c r="L103" s="12"/>
-      <c r="M103" s="10"/>
-      <c r="N103" s="8"/>
-      <c r="O103" s="10"/>
-      <c r="P103" s="10"/>
-      <c r="Q103" s="10"/>
-    </row>
-    <row r="104" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F104" s="39"/>
-      <c r="G104" s="8"/>
-      <c r="H104" s="39"/>
-      <c r="I104" s="10"/>
-      <c r="J104" s="11"/>
-      <c r="K104" s="12"/>
-      <c r="L104" s="12"/>
-      <c r="M104" s="10"/>
-      <c r="N104" s="8"/>
-      <c r="O104" s="10"/>
-      <c r="P104" s="10"/>
-      <c r="Q104" s="10"/>
-    </row>
-    <row r="105" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F105" s="39"/>
-      <c r="G105" s="8"/>
-      <c r="H105" s="39"/>
-      <c r="I105" s="10"/>
-      <c r="J105" s="11"/>
-      <c r="K105" s="12"/>
-      <c r="L105" s="12"/>
-      <c r="M105" s="10"/>
-      <c r="N105" s="8"/>
-      <c r="O105" s="10"/>
-      <c r="P105" s="10"/>
-      <c r="Q105" s="10"/>
-    </row>
-    <row r="106" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F106" s="39"/>
-      <c r="G106" s="8"/>
-      <c r="H106" s="39"/>
-      <c r="I106" s="10"/>
-      <c r="J106" s="11"/>
-      <c r="K106" s="12"/>
-      <c r="L106" s="12"/>
-      <c r="M106" s="10"/>
-      <c r="N106" s="8"/>
-      <c r="O106" s="10"/>
-      <c r="P106" s="10"/>
-      <c r="Q106" s="10"/>
-    </row>
-    <row r="107" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F107" s="39"/>
-      <c r="G107" s="8"/>
-      <c r="H107" s="39"/>
-      <c r="I107" s="10"/>
-      <c r="J107" s="11"/>
-      <c r="K107" s="12"/>
-      <c r="L107" s="12"/>
-      <c r="M107" s="10"/>
-      <c r="N107" s="8"/>
-      <c r="O107" s="10"/>
-      <c r="P107" s="10"/>
-      <c r="Q107" s="10"/>
-    </row>
-    <row r="108" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F108" s="39"/>
-      <c r="G108" s="8"/>
-      <c r="H108" s="39"/>
-      <c r="I108" s="10"/>
-      <c r="J108" s="11"/>
-      <c r="K108" s="12"/>
-      <c r="L108" s="12"/>
-      <c r="M108" s="10"/>
-      <c r="N108" s="8"/>
-      <c r="O108" s="10"/>
-      <c r="P108" s="10"/>
-      <c r="Q108" s="10"/>
-    </row>
-    <row r="109" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F109" s="39"/>
-      <c r="G109" s="8"/>
-      <c r="H109" s="39"/>
-      <c r="I109" s="10"/>
-      <c r="J109" s="11"/>
-      <c r="K109" s="12"/>
-      <c r="L109" s="12"/>
-      <c r="M109" s="10"/>
-      <c r="N109" s="8"/>
-      <c r="O109" s="10"/>
-      <c r="P109" s="10"/>
-      <c r="Q109" s="10"/>
-    </row>
-    <row r="110" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F110" s="39"/>
-      <c r="G110" s="8"/>
-      <c r="H110" s="39"/>
-      <c r="I110" s="10"/>
-      <c r="J110" s="11"/>
-      <c r="K110" s="12"/>
-      <c r="L110" s="12"/>
-      <c r="M110" s="10"/>
-      <c r="N110" s="8"/>
-      <c r="O110" s="10"/>
-      <c r="P110" s="10"/>
-      <c r="Q110" s="10"/>
-    </row>
-    <row r="111" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F111" s="39"/>
-      <c r="G111" s="8"/>
-      <c r="H111" s="39"/>
-      <c r="I111" s="10"/>
-      <c r="J111" s="11"/>
-      <c r="K111" s="12"/>
-      <c r="L111" s="12"/>
-      <c r="M111" s="10"/>
-      <c r="N111" s="8"/>
-      <c r="O111" s="10"/>
-      <c r="P111" s="10"/>
-      <c r="Q111" s="10"/>
-    </row>
-    <row r="112" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F112" s="39"/>
-      <c r="G112" s="8"/>
-      <c r="H112" s="39"/>
-      <c r="I112" s="10"/>
-      <c r="J112" s="11"/>
-      <c r="K112" s="12"/>
-      <c r="L112" s="12"/>
-      <c r="M112" s="10"/>
-      <c r="N112" s="8"/>
-      <c r="O112" s="10"/>
-      <c r="P112" s="10"/>
-      <c r="Q112" s="10"/>
-    </row>
-    <row r="113" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F113" s="39"/>
-      <c r="G113" s="8"/>
-      <c r="H113" s="39"/>
-      <c r="I113" s="10"/>
-      <c r="J113" s="11"/>
-      <c r="K113" s="12"/>
-      <c r="L113" s="12"/>
-      <c r="M113" s="10"/>
-      <c r="N113" s="8"/>
-      <c r="O113" s="10"/>
-      <c r="P113" s="10"/>
-      <c r="Q113" s="10"/>
-    </row>
-    <row r="114" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F114" s="39"/>
-      <c r="G114" s="8"/>
-      <c r="H114" s="39"/>
-      <c r="I114" s="10"/>
-      <c r="J114" s="11"/>
-      <c r="K114" s="12"/>
-      <c r="L114" s="12"/>
-      <c r="M114" s="10"/>
-      <c r="N114" s="8"/>
-      <c r="O114" s="10"/>
-      <c r="P114" s="10"/>
-      <c r="Q114" s="10"/>
-    </row>
-    <row r="115" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F115" s="39"/>
-      <c r="G115" s="8"/>
-      <c r="H115" s="39"/>
-      <c r="I115" s="10"/>
-      <c r="J115" s="11"/>
-      <c r="K115" s="12"/>
-      <c r="L115" s="12"/>
-      <c r="M115" s="10"/>
-      <c r="N115" s="8"/>
-      <c r="O115" s="10"/>
-      <c r="P115" s="10"/>
-      <c r="Q115" s="10"/>
-    </row>
-    <row r="116" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F116" s="39"/>
-      <c r="G116" s="8"/>
-      <c r="H116" s="39"/>
-      <c r="I116" s="10"/>
-      <c r="J116" s="11"/>
-      <c r="K116" s="12"/>
-      <c r="L116" s="12"/>
-      <c r="M116" s="10"/>
-      <c r="N116" s="8"/>
-      <c r="O116" s="10"/>
-      <c r="P116" s="10"/>
-      <c r="Q116" s="10"/>
-    </row>
-    <row r="117" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F117" s="39"/>
-      <c r="G117" s="8"/>
-      <c r="H117" s="39"/>
-      <c r="I117" s="10"/>
-      <c r="J117" s="11"/>
-      <c r="K117" s="12"/>
-      <c r="L117" s="12"/>
-      <c r="M117" s="10"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="10"/>
-      <c r="P117" s="10"/>
-      <c r="Q117" s="10"/>
-    </row>
-    <row r="118" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F118" s="39"/>
-      <c r="G118" s="8"/>
-      <c r="H118" s="39"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="11"/>
-      <c r="K118" s="12"/>
-      <c r="L118" s="12"/>
-      <c r="M118" s="10"/>
-      <c r="N118" s="8"/>
-      <c r="O118" s="10"/>
-      <c r="P118" s="10"/>
-      <c r="Q118" s="10"/>
-    </row>
-    <row r="119" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F119" s="39"/>
-      <c r="G119" s="8"/>
-      <c r="H119" s="39"/>
-      <c r="I119" s="10"/>
-      <c r="J119" s="11"/>
-      <c r="K119" s="12"/>
-      <c r="L119" s="12"/>
-      <c r="M119" s="10"/>
-      <c r="N119" s="8"/>
-      <c r="O119" s="10"/>
-      <c r="P119" s="10"/>
-      <c r="Q119" s="10"/>
-    </row>
-    <row r="120" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F120" s="39"/>
-      <c r="G120" s="8"/>
-      <c r="H120" s="39"/>
-      <c r="I120" s="10"/>
-      <c r="J120" s="11"/>
-      <c r="K120" s="12"/>
-      <c r="L120" s="12"/>
-      <c r="M120" s="10"/>
-      <c r="N120" s="8"/>
-      <c r="O120" s="10"/>
-      <c r="P120" s="10"/>
-      <c r="Q120" s="10"/>
-    </row>
-    <row r="121" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F121" s="39"/>
-      <c r="G121" s="8"/>
-      <c r="H121" s="39"/>
-      <c r="I121" s="10"/>
-      <c r="J121" s="11"/>
-      <c r="K121" s="12"/>
-      <c r="L121" s="12"/>
-      <c r="M121" s="10"/>
-      <c r="N121" s="8"/>
-      <c r="O121" s="10"/>
-      <c r="P121" s="10"/>
-      <c r="Q121" s="10"/>
-    </row>
-    <row r="122" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F122" s="39"/>
-      <c r="G122" s="8"/>
-      <c r="H122" s="39"/>
-      <c r="I122" s="10"/>
-      <c r="J122" s="11"/>
-      <c r="K122" s="12"/>
-      <c r="L122" s="12"/>
-      <c r="M122" s="10"/>
-      <c r="N122" s="8"/>
-      <c r="O122" s="10"/>
-      <c r="P122" s="10"/>
-      <c r="Q122" s="10"/>
-    </row>
-    <row r="123" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F123" s="39"/>
-      <c r="G123" s="8"/>
-      <c r="H123" s="39"/>
-      <c r="I123" s="10"/>
-      <c r="J123" s="11"/>
-      <c r="K123" s="12"/>
-      <c r="L123" s="12"/>
-      <c r="M123" s="10"/>
-      <c r="N123" s="8"/>
-      <c r="O123" s="10"/>
-      <c r="P123" s="10"/>
-      <c r="Q123" s="10"/>
-    </row>
-    <row r="124" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F124" s="39"/>
-      <c r="G124" s="8"/>
-      <c r="H124" s="39"/>
-      <c r="I124" s="10"/>
-      <c r="J124" s="11"/>
-      <c r="K124" s="12"/>
-      <c r="L124" s="12"/>
-      <c r="M124" s="10"/>
-      <c r="N124" s="8"/>
-      <c r="O124" s="10"/>
-      <c r="P124" s="10"/>
-      <c r="Q124" s="10"/>
-    </row>
-    <row r="125" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F125" s="39"/>
-      <c r="G125" s="8"/>
-      <c r="H125" s="39"/>
-      <c r="I125" s="10"/>
-      <c r="J125" s="11"/>
-      <c r="K125" s="12"/>
-      <c r="L125" s="12"/>
-      <c r="M125" s="10"/>
-      <c r="N125" s="8"/>
-      <c r="O125" s="10"/>
-      <c r="P125" s="10"/>
-      <c r="Q125" s="10"/>
-    </row>
-    <row r="126" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F126" s="39"/>
-      <c r="G126" s="8"/>
-      <c r="H126" s="39"/>
-      <c r="I126" s="10"/>
-      <c r="J126" s="11"/>
-      <c r="K126" s="12"/>
-      <c r="L126" s="12"/>
-      <c r="M126" s="10"/>
-      <c r="N126" s="8"/>
-      <c r="O126" s="10"/>
-      <c r="P126" s="10"/>
-      <c r="Q126" s="10"/>
-    </row>
-    <row r="127" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F127" s="39"/>
-      <c r="G127" s="8"/>
-      <c r="H127" s="39"/>
-      <c r="I127" s="10"/>
-      <c r="J127" s="11"/>
-      <c r="K127" s="12"/>
-      <c r="L127" s="12"/>
-      <c r="M127" s="10"/>
-      <c r="N127" s="8"/>
-      <c r="O127" s="10"/>
-      <c r="P127" s="10"/>
-      <c r="Q127" s="10"/>
-    </row>
-    <row r="128" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F128" s="39"/>
-      <c r="G128" s="8"/>
-      <c r="H128" s="39"/>
-      <c r="I128" s="10"/>
-      <c r="J128" s="11"/>
-      <c r="K128" s="12"/>
-      <c r="L128" s="12"/>
-      <c r="M128" s="10"/>
-      <c r="N128" s="8"/>
-      <c r="O128" s="10"/>
-      <c r="P128" s="10"/>
-      <c r="Q128" s="10"/>
-    </row>
-    <row r="129" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F129" s="39"/>
-      <c r="G129" s="8"/>
-      <c r="H129" s="39"/>
-      <c r="I129" s="10"/>
-      <c r="J129" s="11"/>
-      <c r="K129" s="12"/>
-      <c r="L129" s="12"/>
-      <c r="M129" s="10"/>
-      <c r="N129" s="8"/>
-      <c r="O129" s="10"/>
-      <c r="P129" s="10"/>
-      <c r="Q129" s="10"/>
-    </row>
-    <row r="130" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F130" s="39"/>
-      <c r="G130" s="8"/>
-      <c r="H130" s="39"/>
-      <c r="I130" s="10"/>
-      <c r="J130" s="11"/>
-      <c r="K130" s="12"/>
-      <c r="L130" s="12"/>
-      <c r="M130" s="10"/>
-      <c r="N130" s="8"/>
-      <c r="O130" s="10"/>
-      <c r="P130" s="10"/>
-      <c r="Q130" s="10"/>
-    </row>
-    <row r="131" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F131" s="39"/>
-      <c r="G131" s="8"/>
-      <c r="H131" s="39"/>
-      <c r="I131" s="10"/>
-      <c r="J131" s="11"/>
-      <c r="K131" s="12"/>
-      <c r="L131" s="12"/>
-      <c r="M131" s="10"/>
-      <c r="N131" s="8"/>
-      <c r="O131" s="10"/>
-      <c r="P131" s="10"/>
-      <c r="Q131" s="10"/>
-    </row>
-    <row r="132" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F132" s="39"/>
-      <c r="G132" s="8"/>
-      <c r="H132" s="39"/>
-      <c r="I132" s="10"/>
-      <c r="J132" s="11"/>
-      <c r="K132" s="12"/>
-      <c r="L132" s="12"/>
-      <c r="M132" s="10"/>
-      <c r="N132" s="8"/>
-      <c r="O132" s="10"/>
-      <c r="P132" s="10"/>
-      <c r="Q132" s="10"/>
-    </row>
-    <row r="133" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F133" s="39"/>
-      <c r="G133" s="8"/>
-      <c r="H133" s="39"/>
-      <c r="I133" s="10"/>
-      <c r="J133" s="11"/>
-      <c r="K133" s="12"/>
-      <c r="L133" s="12"/>
-      <c r="M133" s="10"/>
-      <c r="N133" s="8"/>
-      <c r="O133" s="10"/>
-      <c r="P133" s="10"/>
-      <c r="Q133" s="10"/>
-    </row>
-    <row r="134" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F134" s="39"/>
-      <c r="G134" s="8"/>
-      <c r="H134" s="39"/>
-      <c r="I134" s="10"/>
-      <c r="J134" s="11"/>
-      <c r="K134" s="12"/>
-      <c r="L134" s="12"/>
-      <c r="M134" s="10"/>
-      <c r="N134" s="8"/>
-      <c r="O134" s="10"/>
-      <c r="P134" s="10"/>
-      <c r="Q134" s="10"/>
-    </row>
-    <row r="135" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F135" s="39"/>
-      <c r="G135" s="8"/>
-      <c r="H135" s="39"/>
-      <c r="I135" s="10"/>
-      <c r="J135" s="11"/>
-      <c r="K135" s="12"/>
-      <c r="L135" s="12"/>
-      <c r="M135" s="10"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="10"/>
-      <c r="P135" s="10"/>
-      <c r="Q135" s="10"/>
-    </row>
-    <row r="136" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F136" s="39"/>
-      <c r="G136" s="8"/>
-      <c r="H136" s="39"/>
-      <c r="I136" s="10"/>
-      <c r="J136" s="11"/>
-      <c r="K136" s="12"/>
-      <c r="L136" s="12"/>
-      <c r="M136" s="10"/>
-      <c r="N136" s="8"/>
-      <c r="O136" s="10"/>
-      <c r="P136" s="10"/>
-      <c r="Q136" s="10"/>
-    </row>
-    <row r="137" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F137" s="39"/>
-      <c r="G137" s="8"/>
-      <c r="H137" s="39"/>
-      <c r="I137" s="10"/>
-      <c r="J137" s="11"/>
-      <c r="K137" s="12"/>
-      <c r="L137" s="12"/>
-      <c r="M137" s="10"/>
-      <c r="N137" s="8"/>
-      <c r="O137" s="10"/>
-      <c r="P137" s="10"/>
-      <c r="Q137" s="10"/>
-    </row>
-    <row r="138" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F138" s="39"/>
-      <c r="G138" s="8"/>
-      <c r="H138" s="39"/>
-      <c r="I138" s="10"/>
-      <c r="J138" s="11"/>
-      <c r="K138" s="12"/>
-      <c r="L138" s="12"/>
-      <c r="M138" s="10"/>
-      <c r="N138" s="8"/>
-      <c r="O138" s="10"/>
-      <c r="P138" s="10"/>
-      <c r="Q138" s="10"/>
-    </row>
-    <row r="139" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F139" s="39"/>
-      <c r="G139" s="8"/>
-      <c r="H139" s="39"/>
-      <c r="I139" s="10"/>
-      <c r="J139" s="11"/>
-      <c r="K139" s="12"/>
-      <c r="L139" s="12"/>
-      <c r="M139" s="10"/>
-      <c r="N139" s="8"/>
-      <c r="O139" s="10"/>
-      <c r="P139" s="10"/>
-      <c r="Q139" s="10"/>
-    </row>
-    <row r="140" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F140" s="39"/>
-      <c r="G140" s="8"/>
-      <c r="H140" s="39"/>
-      <c r="I140" s="10"/>
-      <c r="J140" s="11"/>
-      <c r="K140" s="12"/>
-      <c r="L140" s="12"/>
-      <c r="M140" s="10"/>
-      <c r="N140" s="8"/>
-      <c r="O140" s="10"/>
-      <c r="P140" s="10"/>
-      <c r="Q140" s="10"/>
-    </row>
-    <row r="141" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F141" s="39"/>
-      <c r="G141" s="8"/>
-      <c r="H141" s="39"/>
-      <c r="I141" s="10"/>
-      <c r="J141" s="11"/>
-      <c r="K141" s="12"/>
-      <c r="L141" s="12"/>
-      <c r="M141" s="10"/>
-      <c r="N141" s="8"/>
-      <c r="O141" s="10"/>
-      <c r="P141" s="10"/>
-      <c r="Q141" s="10"/>
-    </row>
-    <row r="142" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F142" s="39"/>
-      <c r="G142" s="8"/>
-      <c r="H142" s="39"/>
-      <c r="I142" s="10"/>
-      <c r="J142" s="11"/>
-      <c r="K142" s="12"/>
-      <c r="L142" s="12"/>
-      <c r="M142" s="10"/>
-      <c r="N142" s="8"/>
-      <c r="O142" s="10"/>
-      <c r="P142" s="10"/>
-      <c r="Q142" s="10"/>
-    </row>
-    <row r="143" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F143" s="39"/>
-      <c r="G143" s="8"/>
-      <c r="H143" s="39"/>
-      <c r="I143" s="10"/>
-      <c r="J143" s="11"/>
-      <c r="K143" s="12"/>
-      <c r="L143" s="12"/>
-      <c r="M143" s="10"/>
-      <c r="N143" s="8"/>
-      <c r="O143" s="10"/>
-      <c r="P143" s="10"/>
-      <c r="Q143" s="10"/>
-    </row>
-    <row r="144" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F144" s="39"/>
-      <c r="G144" s="8"/>
-      <c r="H144" s="39"/>
-      <c r="I144" s="10"/>
-      <c r="J144" s="11"/>
-      <c r="K144" s="12"/>
-      <c r="L144" s="12"/>
-      <c r="M144" s="10"/>
-      <c r="N144" s="8"/>
-      <c r="O144" s="10"/>
-      <c r="P144" s="10"/>
-      <c r="Q144" s="10"/>
-    </row>
-    <row r="145" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F145" s="39"/>
-      <c r="G145" s="8"/>
-      <c r="H145" s="39"/>
-      <c r="I145" s="10"/>
-      <c r="J145" s="11"/>
-      <c r="K145" s="12"/>
-      <c r="L145" s="12"/>
-      <c r="M145" s="10"/>
-      <c r="N145" s="8"/>
-      <c r="O145" s="10"/>
-      <c r="P145" s="10"/>
-      <c r="Q145" s="10"/>
-    </row>
-    <row r="146" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F146" s="39"/>
-      <c r="G146" s="8"/>
-      <c r="H146" s="39"/>
-      <c r="I146" s="10"/>
-      <c r="J146" s="11"/>
-      <c r="K146" s="12"/>
-      <c r="L146" s="12"/>
-      <c r="M146" s="10"/>
-      <c r="N146" s="8"/>
-      <c r="O146" s="10"/>
-      <c r="P146" s="10"/>
-      <c r="Q146" s="10"/>
-    </row>
-    <row r="147" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="F147" s="39"/>
-      <c r="G147" s="8"/>
-      <c r="H147" s="39"/>
-      <c r="I147" s="10"/>
-      <c r="J147" s="11"/>
-      <c r="K147" s="12"/>
-      <c r="L147" s="12"/>
-      <c r="M147" s="10"/>
-      <c r="N147" s="8"/>
-      <c r="O147" s="10"/>
-      <c r="P147" s="10"/>
-      <c r="Q147" s="10"/>
-    </row>
-    <row r="148" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G148" s="8"/>
-      <c r="H148" s="39"/>
-      <c r="I148" s="10"/>
-      <c r="J148" s="11"/>
-      <c r="K148" s="12"/>
-      <c r="L148" s="12"/>
-      <c r="M148" s="10"/>
-      <c r="N148" s="8"/>
-      <c r="O148" s="10"/>
-      <c r="P148" s="10"/>
-      <c r="Q148" s="10"/>
-    </row>
-    <row r="149" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G149" s="8"/>
-      <c r="H149" s="39"/>
-      <c r="I149" s="10"/>
-      <c r="J149" s="11"/>
-      <c r="K149" s="12"/>
-      <c r="L149" s="12"/>
-      <c r="M149" s="10"/>
-      <c r="N149" s="8"/>
-      <c r="O149" s="10"/>
-      <c r="P149" s="10"/>
-      <c r="Q149" s="10"/>
-    </row>
-    <row r="150" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G150" s="8"/>
-      <c r="H150" s="39"/>
-      <c r="I150" s="10"/>
-      <c r="J150" s="11"/>
-      <c r="K150" s="12"/>
-      <c r="L150" s="12"/>
-      <c r="M150" s="10"/>
-      <c r="N150" s="8"/>
-      <c r="O150" s="10"/>
-      <c r="P150" s="10"/>
-      <c r="Q150" s="10"/>
-    </row>
-    <row r="151" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G151" s="8"/>
-      <c r="H151" s="39"/>
-      <c r="I151" s="10"/>
-      <c r="J151" s="11"/>
-      <c r="K151" s="12"/>
-      <c r="L151" s="12"/>
-      <c r="M151" s="10"/>
-      <c r="N151" s="8"/>
-      <c r="O151" s="10"/>
-      <c r="P151" s="10"/>
-      <c r="Q151" s="10"/>
-    </row>
-    <row r="152" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G152" s="8"/>
-      <c r="H152" s="39"/>
-      <c r="I152" s="10"/>
-      <c r="J152" s="11"/>
-      <c r="K152" s="12"/>
-      <c r="L152" s="12"/>
-      <c r="M152" s="10"/>
-      <c r="N152" s="8"/>
-      <c r="O152" s="10"/>
-      <c r="P152" s="10"/>
-      <c r="Q152" s="10"/>
-    </row>
-    <row r="153" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G153" s="8"/>
-      <c r="H153" s="39"/>
-      <c r="I153" s="10"/>
-      <c r="J153" s="11"/>
-      <c r="K153" s="12"/>
-      <c r="L153" s="12"/>
-      <c r="M153" s="10"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="10"/>
-      <c r="P153" s="10"/>
-      <c r="Q153" s="10"/>
-    </row>
-    <row r="154" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G154" s="8"/>
-      <c r="H154" s="39"/>
-      <c r="I154" s="10"/>
-      <c r="J154" s="11"/>
-      <c r="K154" s="12"/>
-      <c r="L154" s="12"/>
-      <c r="M154" s="10"/>
-      <c r="N154" s="8"/>
-      <c r="O154" s="10"/>
-      <c r="P154" s="10"/>
-      <c r="Q154" s="10"/>
-    </row>
-    <row r="155" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G155" s="8"/>
-      <c r="H155" s="39"/>
-      <c r="I155" s="10"/>
-      <c r="J155" s="11"/>
-      <c r="K155" s="12"/>
-      <c r="L155" s="12"/>
-      <c r="M155" s="10"/>
-      <c r="N155" s="8"/>
-      <c r="O155" s="10"/>
-      <c r="P155" s="10"/>
-      <c r="Q155" s="10"/>
-    </row>
-    <row r="156" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G156" s="8"/>
-      <c r="H156" s="39"/>
-      <c r="I156" s="10"/>
-      <c r="J156" s="11"/>
-      <c r="K156" s="12"/>
-      <c r="L156" s="12"/>
-      <c r="M156" s="10"/>
-      <c r="N156" s="8"/>
-      <c r="O156" s="10"/>
-      <c r="P156" s="10"/>
-      <c r="Q156" s="10"/>
-    </row>
-    <row r="157" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G157" s="8"/>
-      <c r="H157" s="39"/>
-      <c r="I157" s="10"/>
-      <c r="J157" s="11"/>
-      <c r="K157" s="12"/>
-      <c r="L157" s="12"/>
-      <c r="M157" s="10"/>
-      <c r="N157" s="8"/>
-      <c r="O157" s="10"/>
-      <c r="P157" s="10"/>
-      <c r="Q157" s="10"/>
-    </row>
-    <row r="158" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G158" s="8"/>
-      <c r="H158" s="39"/>
-      <c r="I158" s="10"/>
-      <c r="J158" s="11"/>
-      <c r="K158" s="12"/>
-      <c r="L158" s="12"/>
-      <c r="M158" s="10"/>
-      <c r="N158" s="8"/>
-      <c r="O158" s="10"/>
-      <c r="P158" s="10"/>
-      <c r="Q158" s="10"/>
-    </row>
-    <row r="159" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G159" s="8"/>
-      <c r="H159" s="39"/>
-      <c r="I159" s="10"/>
-      <c r="J159" s="11"/>
-      <c r="K159" s="12"/>
-      <c r="L159" s="12"/>
-      <c r="M159" s="10"/>
-      <c r="N159" s="8"/>
-      <c r="O159" s="10"/>
-      <c r="P159" s="10"/>
-      <c r="Q159" s="10"/>
-    </row>
-    <row r="160" spans="6:17" x14ac:dyDescent="0.2">
-      <c r="G160" s="8"/>
-      <c r="H160" s="39"/>
-      <c r="I160" s="10"/>
-      <c r="J160" s="11"/>
-      <c r="K160" s="12"/>
-      <c r="L160" s="12"/>
-      <c r="M160" s="10"/>
-      <c r="N160" s="8"/>
-      <c r="O160" s="10"/>
-      <c r="P160" s="10"/>
-      <c r="Q160" s="10"/>
-    </row>
-    <row r="161" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G161" s="8"/>
-      <c r="H161" s="39"/>
-      <c r="I161" s="10"/>
-      <c r="J161" s="11"/>
-      <c r="K161" s="12"/>
-      <c r="L161" s="12"/>
-      <c r="M161" s="10"/>
-      <c r="N161" s="8"/>
-      <c r="O161" s="10"/>
-      <c r="P161" s="10"/>
-      <c r="Q161" s="10"/>
-    </row>
-    <row r="162" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G162" s="8"/>
-      <c r="H162" s="39"/>
-      <c r="I162" s="10"/>
-      <c r="J162" s="11"/>
-      <c r="K162" s="12"/>
-      <c r="L162" s="12"/>
-      <c r="M162" s="10"/>
-      <c r="N162" s="8"/>
-      <c r="O162" s="10"/>
-      <c r="P162" s="10"/>
-      <c r="Q162" s="10"/>
-    </row>
-    <row r="163" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G163" s="8"/>
-      <c r="H163" s="39"/>
-      <c r="I163" s="10"/>
-      <c r="J163" s="11"/>
-      <c r="K163" s="12"/>
-      <c r="L163" s="12"/>
-      <c r="M163" s="10"/>
-      <c r="N163" s="8"/>
-      <c r="O163" s="10"/>
-      <c r="P163" s="10"/>
-      <c r="Q163" s="10"/>
-    </row>
-    <row r="164" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G164" s="8"/>
-      <c r="H164" s="39"/>
-      <c r="I164" s="10"/>
-      <c r="J164" s="11"/>
-      <c r="K164" s="12"/>
-      <c r="L164" s="12"/>
-      <c r="M164" s="10"/>
-      <c r="N164" s="8"/>
-      <c r="O164" s="10"/>
-      <c r="P164" s="10"/>
-      <c r="Q164" s="10"/>
-    </row>
-    <row r="165" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G165" s="8"/>
-      <c r="H165" s="39"/>
-      <c r="I165" s="10"/>
-      <c r="J165" s="11"/>
-      <c r="K165" s="12"/>
-      <c r="L165" s="12"/>
-      <c r="M165" s="10"/>
-      <c r="N165" s="8"/>
-      <c r="O165" s="10"/>
-      <c r="P165" s="10"/>
-      <c r="Q165" s="10"/>
-    </row>
-    <row r="166" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G166" s="8"/>
-      <c r="H166" s="39"/>
-      <c r="I166" s="10"/>
-      <c r="J166" s="11"/>
-      <c r="K166" s="12"/>
-      <c r="L166" s="12"/>
-      <c r="M166" s="10"/>
-      <c r="N166" s="8"/>
-      <c r="O166" s="10"/>
-      <c r="P166" s="10"/>
-      <c r="Q166" s="10"/>
-    </row>
-    <row r="167" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G167" s="8"/>
-      <c r="H167" s="39"/>
-      <c r="I167" s="10"/>
-      <c r="J167" s="11"/>
-      <c r="K167" s="12"/>
-      <c r="L167" s="12"/>
-      <c r="M167" s="10"/>
-      <c r="N167" s="8"/>
-      <c r="O167" s="10"/>
-      <c r="P167" s="10"/>
-      <c r="Q167" s="10"/>
-    </row>
-    <row r="168" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G168" s="8"/>
-      <c r="H168" s="39"/>
-      <c r="I168" s="10"/>
-      <c r="J168" s="11"/>
-      <c r="K168" s="12"/>
-      <c r="L168" s="12"/>
-      <c r="M168" s="10"/>
-      <c r="N168" s="8"/>
-      <c r="O168" s="10"/>
-      <c r="P168" s="10"/>
-      <c r="Q168" s="10"/>
-    </row>
-    <row r="169" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G169" s="8"/>
-      <c r="H169" s="39"/>
-      <c r="I169" s="10"/>
-      <c r="J169" s="11"/>
-      <c r="K169" s="12"/>
-      <c r="L169" s="12"/>
-      <c r="M169" s="10"/>
-      <c r="N169" s="8"/>
-      <c r="O169" s="10"/>
-      <c r="P169" s="10"/>
-      <c r="Q169" s="10"/>
-    </row>
-    <row r="170" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G170" s="8"/>
-      <c r="H170" s="39"/>
-      <c r="I170" s="10"/>
-      <c r="J170" s="11"/>
-      <c r="K170" s="12"/>
-      <c r="L170" s="12"/>
-      <c r="M170" s="10"/>
-      <c r="N170" s="8"/>
-      <c r="O170" s="10"/>
-      <c r="P170" s="10"/>
-      <c r="Q170" s="10"/>
-    </row>
-    <row r="171" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G171" s="8"/>
-      <c r="H171" s="39"/>
-      <c r="I171" s="10"/>
-      <c r="J171" s="11"/>
-      <c r="K171" s="12"/>
-      <c r="L171" s="12"/>
-      <c r="M171" s="10"/>
-      <c r="N171" s="8"/>
-      <c r="O171" s="10"/>
-      <c r="P171" s="10"/>
-      <c r="Q171" s="10"/>
-    </row>
-    <row r="172" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G172" s="8"/>
-      <c r="H172" s="39"/>
-      <c r="I172" s="10"/>
-      <c r="J172" s="11"/>
-      <c r="K172" s="12"/>
-      <c r="L172" s="12"/>
-      <c r="M172" s="10"/>
-      <c r="N172" s="8"/>
-      <c r="O172" s="10"/>
-      <c r="P172" s="10"/>
-      <c r="Q172" s="10"/>
-    </row>
-    <row r="173" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G173" s="8"/>
-      <c r="H173" s="39"/>
-      <c r="I173" s="10"/>
-      <c r="J173" s="11"/>
-      <c r="K173" s="12"/>
-      <c r="L173" s="12"/>
-      <c r="M173" s="10"/>
-      <c r="N173" s="8"/>
-      <c r="O173" s="10"/>
-      <c r="P173" s="10"/>
-      <c r="Q173" s="10"/>
-    </row>
-    <row r="174" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G174" s="8"/>
-      <c r="H174" s="39"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="11"/>
-      <c r="K174" s="12"/>
-      <c r="L174" s="12"/>
-      <c r="M174" s="10"/>
-      <c r="N174" s="8"/>
-      <c r="O174" s="10"/>
-      <c r="P174" s="10"/>
-      <c r="Q174" s="10"/>
-    </row>
-    <row r="175" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G175" s="8"/>
-      <c r="H175" s="39"/>
-      <c r="I175" s="10"/>
-      <c r="J175" s="11"/>
-      <c r="K175" s="12"/>
-      <c r="L175" s="12"/>
-      <c r="M175" s="10"/>
-      <c r="N175" s="8"/>
-      <c r="O175" s="10"/>
-      <c r="P175" s="10"/>
-      <c r="Q175" s="10"/>
-    </row>
-    <row r="176" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G176" s="8"/>
-      <c r="H176" s="39"/>
-      <c r="I176" s="10"/>
-      <c r="J176" s="11"/>
-      <c r="K176" s="12"/>
-      <c r="L176" s="12"/>
-      <c r="M176" s="10"/>
-      <c r="N176" s="8"/>
-      <c r="O176" s="10"/>
-      <c r="P176" s="10"/>
-      <c r="Q176" s="10"/>
-    </row>
-    <row r="177" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G177" s="8"/>
-      <c r="H177" s="39"/>
-      <c r="I177" s="10"/>
-      <c r="J177" s="11"/>
-      <c r="K177" s="12"/>
-      <c r="L177" s="12"/>
-      <c r="M177" s="10"/>
-      <c r="N177" s="8"/>
-      <c r="O177" s="10"/>
-      <c r="P177" s="10"/>
-      <c r="Q177" s="10"/>
-    </row>
-    <row r="178" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G178" s="8"/>
-      <c r="H178" s="39"/>
-      <c r="I178" s="10"/>
-      <c r="J178" s="11"/>
-      <c r="K178" s="12"/>
-      <c r="L178" s="12"/>
-      <c r="M178" s="10"/>
-      <c r="N178" s="8"/>
-      <c r="O178" s="10"/>
-      <c r="P178" s="10"/>
-      <c r="Q178" s="10"/>
-    </row>
-    <row r="179" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G179" s="8"/>
-      <c r="H179" s="39"/>
-      <c r="I179" s="10"/>
-      <c r="J179" s="11"/>
-      <c r="K179" s="12"/>
-      <c r="L179" s="12"/>
-      <c r="M179" s="10"/>
-      <c r="N179" s="8"/>
-      <c r="O179" s="10"/>
-      <c r="P179" s="10"/>
-      <c r="Q179" s="10"/>
-    </row>
-    <row r="180" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G180" s="8"/>
-      <c r="H180" s="39"/>
-      <c r="I180" s="10"/>
-      <c r="J180" s="11"/>
-      <c r="K180" s="12"/>
-      <c r="L180" s="12"/>
-      <c r="M180" s="10"/>
-      <c r="N180" s="8"/>
-      <c r="O180" s="10"/>
-      <c r="P180" s="10"/>
-      <c r="Q180" s="10"/>
-    </row>
-    <row r="181" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G181" s="8"/>
-      <c r="H181" s="39"/>
-      <c r="I181" s="10"/>
-      <c r="J181" s="11"/>
-      <c r="K181" s="12"/>
-      <c r="L181" s="12"/>
-      <c r="M181" s="10"/>
-      <c r="N181" s="8"/>
-      <c r="O181" s="10"/>
-      <c r="P181" s="10"/>
-      <c r="Q181" s="10"/>
-    </row>
-    <row r="182" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G182" s="8"/>
-      <c r="H182" s="39"/>
-      <c r="I182" s="10"/>
-      <c r="J182" s="11"/>
-      <c r="K182" s="12"/>
-      <c r="L182" s="12"/>
-      <c r="M182" s="10"/>
-      <c r="N182" s="8"/>
-      <c r="O182" s="10"/>
-      <c r="P182" s="10"/>
-      <c r="Q182" s="10"/>
-    </row>
-    <row r="183" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G183" s="8"/>
-      <c r="H183" s="39"/>
-      <c r="I183" s="10"/>
-      <c r="J183" s="11"/>
-      <c r="K183" s="12"/>
-      <c r="L183" s="12"/>
-      <c r="M183" s="10"/>
-      <c r="N183" s="8"/>
-      <c r="O183" s="10"/>
-      <c r="P183" s="10"/>
-      <c r="Q183" s="10"/>
-    </row>
-    <row r="184" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G184" s="8"/>
-      <c r="H184" s="39"/>
-      <c r="I184" s="10"/>
-      <c r="J184" s="11"/>
-      <c r="K184" s="12"/>
-      <c r="L184" s="12"/>
-      <c r="M184" s="10"/>
-      <c r="N184" s="8"/>
-      <c r="O184" s="10"/>
-      <c r="P184" s="10"/>
-      <c r="Q184" s="10"/>
-    </row>
-    <row r="185" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G185" s="8"/>
-      <c r="H185" s="39"/>
-      <c r="I185" s="10"/>
-      <c r="J185" s="11"/>
-      <c r="K185" s="12"/>
-      <c r="L185" s="12"/>
-      <c r="M185" s="10"/>
-      <c r="N185" s="8"/>
-      <c r="O185" s="10"/>
-      <c r="P185" s="10"/>
-      <c r="Q185" s="10"/>
-    </row>
-    <row r="186" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G186" s="8"/>
-      <c r="H186" s="39"/>
-      <c r="I186" s="10"/>
-      <c r="J186" s="11"/>
-      <c r="K186" s="12"/>
-      <c r="L186" s="12"/>
-      <c r="M186" s="10"/>
-      <c r="N186" s="8"/>
-      <c r="O186" s="10"/>
-      <c r="P186" s="10"/>
-      <c r="Q186" s="10"/>
-    </row>
-    <row r="187" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G187" s="8"/>
-      <c r="H187" s="39"/>
-      <c r="I187" s="10"/>
-      <c r="J187" s="11"/>
-      <c r="K187" s="12"/>
-      <c r="L187" s="12"/>
-      <c r="M187" s="10"/>
-      <c r="N187" s="8"/>
-      <c r="O187" s="10"/>
-      <c r="P187" s="10"/>
-      <c r="Q187" s="10"/>
-    </row>
-    <row r="188" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G188" s="8"/>
-      <c r="H188" s="39"/>
-      <c r="I188" s="10"/>
-      <c r="J188" s="11"/>
-      <c r="K188" s="12"/>
-      <c r="L188" s="12"/>
-      <c r="M188" s="10"/>
-      <c r="N188" s="8"/>
-      <c r="O188" s="10"/>
-      <c r="P188" s="10"/>
-      <c r="Q188" s="10"/>
-    </row>
-    <row r="189" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G189" s="8"/>
-      <c r="H189" s="39"/>
-      <c r="I189" s="10"/>
-      <c r="J189" s="11"/>
-      <c r="K189" s="12"/>
-      <c r="L189" s="12"/>
-      <c r="M189" s="10"/>
-      <c r="N189" s="8"/>
-      <c r="O189" s="10"/>
-      <c r="P189" s="10"/>
-      <c r="Q189" s="10"/>
-    </row>
-    <row r="190" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G190" s="8"/>
-      <c r="H190" s="39"/>
-      <c r="I190" s="10"/>
-      <c r="J190" s="11"/>
-      <c r="K190" s="12"/>
-      <c r="L190" s="12"/>
-      <c r="M190" s="10"/>
-      <c r="N190" s="8"/>
-      <c r="O190" s="10"/>
-      <c r="P190" s="10"/>
-      <c r="Q190" s="10"/>
-    </row>
-    <row r="191" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G191" s="8"/>
-      <c r="H191" s="39"/>
-      <c r="I191" s="10"/>
-      <c r="J191" s="11"/>
-      <c r="K191" s="12"/>
-      <c r="L191" s="12"/>
-      <c r="M191" s="10"/>
-      <c r="N191" s="8"/>
-      <c r="O191" s="10"/>
-      <c r="P191" s="10"/>
-      <c r="Q191" s="10"/>
-    </row>
-    <row r="192" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G192" s="8"/>
-      <c r="H192" s="39"/>
-      <c r="I192" s="10"/>
-      <c r="J192" s="11"/>
-      <c r="K192" s="12"/>
-      <c r="L192" s="12"/>
-      <c r="M192" s="10"/>
-      <c r="N192" s="8"/>
-      <c r="O192" s="10"/>
-      <c r="P192" s="10"/>
-      <c r="Q192" s="10"/>
-    </row>
-    <row r="193" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G193" s="8"/>
-      <c r="H193" s="39"/>
-      <c r="I193" s="10"/>
-      <c r="J193" s="11"/>
-      <c r="K193" s="12"/>
-      <c r="L193" s="12"/>
-      <c r="M193" s="10"/>
-      <c r="N193" s="8"/>
-      <c r="O193" s="10"/>
-      <c r="P193" s="10"/>
-      <c r="Q193" s="10"/>
-    </row>
-    <row r="194" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G194" s="8"/>
-      <c r="H194" s="39"/>
-      <c r="I194" s="10"/>
-      <c r="J194" s="11"/>
-      <c r="K194" s="12"/>
-      <c r="L194" s="12"/>
-      <c r="M194" s="10"/>
-      <c r="N194" s="8"/>
-      <c r="O194" s="10"/>
-      <c r="P194" s="10"/>
-      <c r="Q194" s="10"/>
-    </row>
-    <row r="195" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G195" s="8"/>
-      <c r="H195" s="39"/>
-      <c r="I195" s="10"/>
-      <c r="J195" s="11"/>
-      <c r="K195" s="12"/>
-      <c r="L195" s="12"/>
-      <c r="M195" s="10"/>
-      <c r="N195" s="8"/>
-      <c r="O195" s="10"/>
-      <c r="P195" s="10"/>
-      <c r="Q195" s="10"/>
-    </row>
-    <row r="196" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G196" s="8"/>
-      <c r="H196" s="39"/>
-      <c r="I196" s="10"/>
-      <c r="J196" s="11"/>
-      <c r="K196" s="12"/>
-      <c r="L196" s="12"/>
-      <c r="M196" s="10"/>
-      <c r="N196" s="8"/>
-      <c r="O196" s="10"/>
-      <c r="P196" s="10"/>
-      <c r="Q196" s="10"/>
-    </row>
-    <row r="197" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G197" s="8"/>
-      <c r="H197" s="39"/>
-      <c r="I197" s="10"/>
-      <c r="J197" s="11"/>
-      <c r="K197" s="12"/>
-      <c r="L197" s="12"/>
-      <c r="M197" s="10"/>
-      <c r="N197" s="8"/>
-      <c r="O197" s="10"/>
-      <c r="P197" s="10"/>
-      <c r="Q197" s="10"/>
-    </row>
-    <row r="198" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G198" s="8"/>
-      <c r="H198" s="39"/>
-      <c r="I198" s="10"/>
-      <c r="J198" s="11"/>
-      <c r="K198" s="12"/>
-      <c r="L198" s="12"/>
-      <c r="M198" s="10"/>
-      <c r="N198" s="8"/>
-      <c r="O198" s="10"/>
-      <c r="P198" s="10"/>
-      <c r="Q198" s="10"/>
-    </row>
-    <row r="199" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G199" s="8"/>
-      <c r="H199" s="39"/>
-      <c r="I199" s="10"/>
-      <c r="J199" s="11"/>
-      <c r="K199" s="12"/>
-      <c r="L199" s="12"/>
-      <c r="M199" s="10"/>
-      <c r="N199" s="8"/>
-      <c r="O199" s="10"/>
-      <c r="P199" s="10"/>
-      <c r="Q199" s="10"/>
-    </row>
-    <row r="200" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G200" s="8"/>
-      <c r="H200" s="39"/>
-      <c r="I200" s="10"/>
-      <c r="J200" s="11"/>
-      <c r="K200" s="12"/>
-      <c r="L200" s="12"/>
-      <c r="M200" s="10"/>
-      <c r="N200" s="8"/>
-      <c r="O200" s="10"/>
-      <c r="P200" s="10"/>
-      <c r="Q200" s="10"/>
-    </row>
-    <row r="201" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G201" s="8"/>
-      <c r="H201" s="39"/>
-      <c r="I201" s="10"/>
-      <c r="J201" s="11"/>
-      <c r="K201" s="12"/>
-      <c r="L201" s="12"/>
-      <c r="M201" s="10"/>
-      <c r="N201" s="8"/>
-      <c r="O201" s="10"/>
-      <c r="P201" s="10"/>
-      <c r="Q201" s="10"/>
-    </row>
-    <row r="202" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G202" s="8"/>
-      <c r="H202" s="39"/>
-      <c r="I202" s="10"/>
-      <c r="J202" s="11"/>
-      <c r="K202" s="12"/>
-      <c r="L202" s="12"/>
-      <c r="M202" s="10"/>
-      <c r="N202" s="8"/>
-      <c r="O202" s="10"/>
-      <c r="P202" s="10"/>
-      <c r="Q202" s="10"/>
-    </row>
-    <row r="203" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G203" s="8"/>
-      <c r="H203" s="39"/>
-      <c r="I203" s="10"/>
-      <c r="J203" s="11"/>
-      <c r="K203" s="12"/>
-      <c r="L203" s="12"/>
-      <c r="M203" s="10"/>
-      <c r="N203" s="8"/>
-      <c r="O203" s="10"/>
-      <c r="P203" s="10"/>
-      <c r="Q203" s="10"/>
-    </row>
-    <row r="204" spans="7:17" x14ac:dyDescent="0.2">
-      <c r="G204" s="8"/>
-      <c r="H204" s="39"/>
-      <c r="I204" s="10"/>
-      <c r="J204" s="11"/>
-      <c r="K204" s="12"/>
-      <c r="L204" s="12"/>
-      <c r="M204" s="10"/>
-      <c r="N204" s="8"/>
-      <c r="O204" s="10"/>
-      <c r="P204" s="10"/>
-      <c r="Q204" s="10"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/tax_forms_template.xlsx
+++ b/tax_forms_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/talmiller/Dropbox/מסמכים/תיק השקעות/taxes/tax_forms_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51B4F448-7132-594C-937C-566CE99D8D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B0CE60C-584B-6244-9C12-E166A49F104A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dividends" sheetId="6" r:id="rId1"/>
@@ -1504,9 +1504,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{710AD44E-F847-6C41-BCA9-7538B986DE33}">
   <dimension ref="A1:AB204"/>
   <sheetViews>
-    <sheetView rightToLeft="1" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="125" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -7168,7 +7166,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23CD7FF3-3014-E540-B371-93725F8A5AE7}">
   <dimension ref="B2:Z204"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScaleNormal="125" workbookViewId="0">
+    <sheetView rightToLeft="1" zoomScaleNormal="125" workbookViewId="0">
       <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
